--- a/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
+++ b/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665" tabRatio="895" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665" tabRatio="895" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PGA_PER_RUN" sheetId="2" r:id="rId1"/>
-    <sheet name="BT_CACHE_PER_RUN" sheetId="3" r:id="rId2"/>
-    <sheet name="IMCS_PER_RUN" sheetId="4" r:id="rId3"/>
-    <sheet name="PGA_OVERALL" sheetId="7" r:id="rId4"/>
-    <sheet name="BT_CACHE_OVERALL" sheetId="9" r:id="rId5"/>
-    <sheet name="IMCS_OVERALL" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
-    <sheet name="Raw Data Per Experiment" sheetId="5" r:id="rId10"/>
-    <sheet name="Raw Data Per Run" sheetId="1" r:id="rId11"/>
+    <sheet name="BT_CACHE_PER_RUN_CHART" sheetId="12" r:id="rId2"/>
+    <sheet name="BT_CACHE_PER_RUN" sheetId="3" r:id="rId3"/>
+    <sheet name="IMCS_PER_RUN" sheetId="4" r:id="rId4"/>
+    <sheet name="PGA_OVERALL" sheetId="7" r:id="rId5"/>
+    <sheet name="BT_CACHE_OVERALL" sheetId="9" r:id="rId6"/>
+    <sheet name="IMCS_OVERALL" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
+    <sheet name="Raw Data Per Experiment" sheetId="5" r:id="rId11"/>
+    <sheet name="Raw Data Per Run" sheetId="1" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer__PGA_MAX_SIZE">#N/A</definedName>
@@ -35,7 +36,6 @@
     <definedName name="Slicer_DOP">#N/A</definedName>
     <definedName name="Slicer_DOP1">#N/A</definedName>
     <definedName name="Slicer_DOP2">#N/A</definedName>
-    <definedName name="Slicer_IM_COMPRESS_LEVEL">#N/A</definedName>
     <definedName name="Slicer_IM_SIZE">#N/A</definedName>
     <definedName name="Slicer_MODULE">#N/A</definedName>
     <definedName name="Slicer_MODULE1">#N/A</definedName>
@@ -45,19 +45,19 @@
     <definedName name="Slicer_MODULE5">#N/A</definedName>
     <definedName name="Slicer_PARALLEL_DEGREE_POLICY">#N/A</definedName>
     <definedName name="Slicer_PARALLEL_DEGREE_POLICY1">#N/A</definedName>
+    <definedName name="Slicer_PARALLEL_DEGREE_POLICY2">#N/A</definedName>
     <definedName name="Slicer_RUN_NUMBER">#N/A</definedName>
     <definedName name="Slicer_RUN_NUMBER1">#N/A</definedName>
     <definedName name="Slicer_RUN_NUMBER2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="523" r:id="rId12"/>
-    <pivotCache cacheId="533" r:id="rId13"/>
+    <pivotCache cacheId="711" r:id="rId13"/>
+    <pivotCache cacheId="710" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
@@ -80,6 +80,7 @@
         <x14:slicerCache r:id="rId34"/>
         <x14:slicerCache r:id="rId35"/>
         <x14:slicerCache r:id="rId36"/>
+        <x14:slicerCache r:id="rId37"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="83">
   <si>
     <t>MODULE</t>
   </si>
@@ -331,6 +332,18 @@
   <si>
     <t>IO Interconnect (GB)</t>
   </si>
+  <si>
+    <t>INMEMORY_COMPRESSION</t>
+  </si>
+  <si>
+    <t>INMEMORY_SIZE_GB</t>
+  </si>
+  <si>
+    <t>AVERAGE_CEI</t>
+  </si>
+  <si>
+    <t>In Memory Size (GB)</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +396,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
@@ -891,11 +907,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1815168240"/>
-        <c:axId val="-1815164432"/>
+        <c:axId val="-1817074864"/>
+        <c:axId val="-1817076496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1815168240"/>
+        <c:axId val="-1817074864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815164432"/>
+        <c:crossAx val="-1817076496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -946,7 +962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1815164432"/>
+        <c:axId val="-1817076496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815168240"/>
+        <c:crossAx val="-1817074864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,7 +1027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1104,10 +1119,40 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Capstone Resource Usage Analytics.xlsx]BT_CACHE_PER_RUN!PivotTable2</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2600"/>
+              <a:t>Big</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2600" baseline="0"/>
+              <a:t> Table Cache Experiment Run to Run Variation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1122,7 +1167,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1155,6 +1200,93 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1163,22 +1295,22 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BT_CACHE_PER_RUN!$B$1:$B$2</c:f>
+              <c:f>BT_CACHE_PER_RUN!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PARENT_CHILD_ANALYTICS_V1</c:v>
+                  <c:v>IO Interconnect (GB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1188,9 +1320,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>BT_CACHE_PER_RUN!$A$3:$A$42</c:f>
+              <c:f>BT_CACHE_PER_RUN!$A$2:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1219,60 +1351,6 @@
                   <c:pt idx="8">
                     <c:v>3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1284,34 +1362,10 @@
                   <c:pt idx="6">
                     <c:v>BT_CACHE = 90%</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>BT_CACHE = 10%</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>BT_CACHE = 50%</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>BT_CACHE = 90%</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>BT_CACHE = 10%</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>BT_CACHE = 50%</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>BT_CACHE = 90%</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>POLICY = MANUAL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>POLICY = AUTO</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>POLICY = ADAPTIVE</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1319,90 +1373,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BT_CACHE_PER_RUN!$B$3:$B$42</c:f>
+              <c:f>BT_CACHE_PER_RUN!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>187.66033400000001</c:v>
+                  <c:v>101.60397338867099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.17811699999999</c:v>
+                  <c:v>78.597007751464801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.14850100000001</c:v>
+                  <c:v>78.597007751464801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190.58250000000001</c:v>
+                  <c:v>99.950057983398395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311.95998500000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330.162372</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>387.60565500000001</c:v>
+                  <c:v>100.292587280273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>357.600593</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>346.50987500000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>271.85921100000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>221.11811499999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211.93638899999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>336.64824900000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.229725999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90.715486999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>342.59838200000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>88.439171000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89.198884000000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>226.19541699999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>170.107179</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>193.945584</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>239.04015999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.304790999999994</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>90.610167000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1189.31431</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>87.179952</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86.758627000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1418,156 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1815169328"/>
-        <c:axId val="-1815165520"/>
+        <c:axId val="-38706880"/>
+        <c:axId val="-1878501184"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BT_CACHE_PER_RUN!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>BT_CACHE_PER_RUN!$A$2:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BT_CACHE = 10%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BT_CACHE = 50%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BT_CACHE = 90%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>POLICY = AUTO</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BT_CACHE_PER_RUN!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>271.85921100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.11811499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211.93638899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.64824900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.229725999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.715486999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342.59838200000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.439171000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.198884000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1975726000"/>
+        <c:axId val="-1975731984"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-1815169328"/>
+        <c:axId val="-1975726000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1595,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1465,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815165520"/>
+        <c:crossAx val="-1975731984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1473,7 +1618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1815165520"/>
+        <c:axId val="-1975731984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,6 +1638,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Run Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1509,7 +1710,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1524,10 +1725,125 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815169328"/>
+        <c:crossAx val="-1975726000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-1878501184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>IO Interconnect (GB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-38706880"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-38706880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1878501184"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1537,7 +1853,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1552,7 +1868,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1597,11 +1913,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -1871,11 +2182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1815166064"/>
-        <c:axId val="-38710688"/>
+        <c:axId val="-39622752"/>
+        <c:axId val="-39621120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1815166064"/>
+        <c:axId val="-39622752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +2229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-38710688"/>
+        <c:crossAx val="-39621120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-38710688"/>
+        <c:axId val="-39621120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,7 +2288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815166064"/>
+        <c:crossAx val="-39622752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2519,8 +2830,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1823987440"/>
-        <c:axId val="-1823984176"/>
+        <c:axId val="-39620032"/>
+        <c:axId val="-39620576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2659,11 +2970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1823982544"/>
-        <c:axId val="-1823988528"/>
+        <c:axId val="-39617312"/>
+        <c:axId val="-39621664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1823982544"/>
+        <c:axId val="-39617312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +3017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1823988528"/>
+        <c:crossAx val="-39621664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1823988528"/>
+        <c:axId val="-39621664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,14 +3132,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1823982544"/>
+        <c:crossAx val="-39617312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1823984176"/>
+        <c:axId val="-39620576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2919,12 +3231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1823987440"/>
+        <c:crossAx val="-39620032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1823987440"/>
+        <c:axId val="-39620032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1823984176"/>
+        <c:crossAx val="-39620576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3327,8 +3639,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-39961200"/>
-        <c:axId val="-39966096"/>
+        <c:axId val="-32609520"/>
+        <c:axId val="-32608976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3467,11 +3779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-32608432"/>
-        <c:axId val="-32611152"/>
+        <c:axId val="-32612240"/>
+        <c:axId val="-32606800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-32608432"/>
+        <c:axId val="-32612240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-32611152"/>
+        <c:crossAx val="-32606800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-32611152"/>
+        <c:axId val="-32606800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3629,14 +3941,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-32608432"/>
+        <c:crossAx val="-32612240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-39966096"/>
+        <c:axId val="-32608976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3727,12 +4040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-39961200"/>
+        <c:crossAx val="-32609520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-39961200"/>
+        <c:axId val="-32609520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +4055,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-39966096"/>
+        <c:crossAx val="-32608976"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3966,7 +4280,7 @@
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -3976,6 +4290,100 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In Memory Size (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>NO MEMCOMPRESS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FOR DML</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FOR QUERY LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOR QUERY HIGH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FOR CAPACITY LOW</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FOR CAPACITY HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>167.17022705078099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.61846923828099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.045532226562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.3599853515625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.7945556640625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.9244384765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1975722192"/>
+        <c:axId val="-1975724368"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3988,7 +4396,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Run Time (sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4011,7 +4419,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4050,22 +4458,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>153.80130600000001</c:v>
+                  <c:v>106.920519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.406543</c:v>
+                  <c:v>165.87276499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.048823</c:v>
+                  <c:v>152.724343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.52836199999999</c:v>
+                  <c:v>166.75605200000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.224209</c:v>
+                  <c:v>178.02385799999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.359131000000005</c:v>
+                  <c:v>186.21902600000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,11 +4490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1868154656"/>
-        <c:axId val="-1868151936"/>
+        <c:axId val="-32606256"/>
+        <c:axId val="-32605712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1868154656"/>
+        <c:axId val="-32606256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1868151936"/>
+        <c:crossAx val="-32605712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4137,10 +4545,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1868151936"/>
+        <c:axId val="-32605712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4230,7 +4637,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4245,10 +4652,126 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1868154656"/>
+        <c:crossAx val="-32606256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-1975724368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>In Memory Size (GB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1975722192"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-1975722192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1975724368"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7594,7 +8117,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7605,7 +8128,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7616,7 +8139,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7874,25 +8408,238 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="MODULE 5"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="MODULE 5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="0"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="IM_SIZE"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="IM_SIZE"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12553950" y="0"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="DOP 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DOP 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12639675" y="2552700"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664907" cy="6290765"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7905,7 +8652,12 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -8194,10 +8946,82 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="PARALLEL_DEGREE_POLICY 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="PARALLEL_DEGREE_POLICY 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6953250" y="2962275"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8448,38 +9272,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8664907" cy="6290765"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8506,7 +9303,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8664907" cy="6290765"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8531,6 +9328,33 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664907" cy="6290765"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -8544,8 +9368,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="MODULE 3"/>
@@ -8562,7 +9386,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8616,8 +9440,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="DOP 1"/>
@@ -8634,7 +9458,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8688,8 +9512,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="_PGA_MAX_SIZE"/>
@@ -8706,7 +9530,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8760,8 +9584,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="BT_CACHE_TARGET"/>
@@ -8778,7 +9602,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8832,8 +9656,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="PARALLEL_DEGREE_POLICY"/>
@@ -8850,7 +9674,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8904,8 +9728,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="DB_CACHE_SIZE"/>
@@ -8922,7 +9746,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8966,7 +9790,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8981,8 +9805,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="MODULE 4"/>
@@ -8999,7 +9823,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9053,8 +9877,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="BT_CACHE_TARGET 1"/>
@@ -9071,7 +9895,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9125,8 +9949,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="PARALLEL_DEGREE_POLICY 1"/>
@@ -9143,7 +9967,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9187,301 +10011,137 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="MODULE 5"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="MODULE 5"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10687050" y="0"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="IM_SIZE"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="IM_SIZE"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12553950" y="0"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="IM_COMPRESS_LEVEL"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="IM_COMPRESS_LEVEL"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10696575" y="2543175"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="DOP 2"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DOP 2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12639675" y="2552700"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42788.058597800926" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="24">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="25">
+    <cacheField name="MODULE" numFmtId="0">
+      <sharedItems count="3">
+        <s v="DB_BIG_TABLE_CACHE_EXPERIMENT"/>
+        <s v="IMCS_EXPERIMENT"/>
+        <s v="PGA_EXPERIMENT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DOP" numFmtId="0">
+      <sharedItems count="3">
+        <s v="DOP = 32"/>
+        <s v="DOP = 16"/>
+        <s v="DOP = 64"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_PGA_MAX_SIZE" numFmtId="0">
+      <sharedItems count="6">
+        <s v="4G"/>
+        <s v="6G"/>
+        <s v="2G"/>
+        <s v="PGA_MAX_SIZE = 2G" u="1"/>
+        <s v="PGA_MAX_SIZE = 4G" u="1"/>
+        <s v="PGA_MAX_SIZE = 6G" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BT_CACHE_TARGET" numFmtId="0">
+      <sharedItems count="4">
+        <s v="BT_CACHE = 50%"/>
+        <s v="BT_CACHE = 0%"/>
+        <s v="BT_CACHE = 10%"/>
+        <s v="BT_CACHE = 90%"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PARALLEL_DEGREE_POLICY" numFmtId="0">
+      <sharedItems count="3">
+        <s v="POLICY = MANUAL"/>
+        <s v="POLICY = AUTO"/>
+        <s v="POLICY = ADAPTIVE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DB_CACHE_SIZE" numFmtId="0">
+      <sharedItems count="3">
+        <s v="DB_CACHE_SIZE = 192G"/>
+        <s v="DB_CACHE_SIZE = 32G"/>
+        <s v="DB_CACHE_SIZE = 512M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="IM_SIZE" numFmtId="0">
+      <sharedItems count="2">
+        <s v="IM_SIZE = 0"/>
+        <s v="IM_SIZE = 192G"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="INMEMORY_COMPRESSION" numFmtId="0">
+      <sharedItems count="7">
+        <s v="NA"/>
+        <s v="FOR CAPACITY LOW"/>
+        <s v="NO MEMCOMPRESS"/>
+        <s v="FOR DML"/>
+        <s v="FOR QUERY LOW"/>
+        <s v="FOR CAPACITY HIGH"/>
+        <s v="FOR QUERY HIGH"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="INMEMORY_SIZE_GB" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="22.9244384765625" maxValue="167.17022705078099"/>
+    </cacheField>
+    <cacheField name="TOTAL_RUNS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="15"/>
+    </cacheField>
+    <cacheField name="TOTAL_RUN_TIME_SEC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="106.920519" maxValue="881.49761100000001"/>
+    </cacheField>
+    <cacheField name="TOTAL_DB_TIME_SEC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3633.2681176666601" maxValue="28609.096361333301"/>
+    </cacheField>
+    <cacheField name="TOTAL_CPU_TIME_SEC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3163.4356666666599" maxValue="6453.2346666666599"/>
+    </cacheField>
+    <cacheField name="TOTAL_IO_WAIT_TIME_SEC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20353.409704000002"/>
+    </cacheField>
+    <cacheField name="AVERAGE_CEI" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2951680913126804" maxValue="50.749526602289698"/>
+    </cacheField>
+    <cacheField name="TOTAL_WORK_AREA_SIZE_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.398180961608801" maxValue="94.600376447041796"/>
+    </cacheField>
+    <cacheField name="TOTAL_EXPECTED_SIZE_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.149690628051701" maxValue="94.589071909586494"/>
+    </cacheField>
+    <cacheField name="TOTAL_ACTUAL_MEM_USED_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.739863713582299" maxValue="72.056024233500096"/>
+    </cacheField>
+    <cacheField name="TOTAL_MAX_MEM_USED_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="25.204053243001301" maxValue="72.056024233500096"/>
+    </cacheField>
+    <cacheField name="TOTAL_TEMPSEG_SIZE_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20.3639322916666"/>
+    </cacheField>
+    <cacheField name="TOTAL_BUFFER_GETS_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20602925618489501" maxValue="400.85721333821601"/>
+    </cacheField>
+    <cacheField name="TOTAL_IO_INTERCONNECT_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="309.05771128336499"/>
+    </cacheField>
+    <cacheField name="TOTAL_PHYSICAL_READ_GB" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1900-10-13T00:03:34"/>
+    </cacheField>
+    <cacheField name="TOTAL_PHYSICAL_WRITE_GB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="22.055239359537701"/>
+    </cacheField>
+    <cacheField name="MAX_SQL_EXEC_START" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-02-18T16:06:30" maxDate="2017-02-22T01:16:45"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42787.362496643516" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="324">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42788.05859872685" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="324">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -9618,130 +10278,660 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42787.362497337963" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
-  </cacheSource>
-  <cacheFields count="23">
-    <cacheField name="MODULE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="DB_BIG_TABLE_CACHE_EXPERIMENT"/>
-        <s v="PGA_EXPERIMENT"/>
-        <s v="IMCS_EXPERIMENT"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DOP" numFmtId="0">
-      <sharedItems count="3">
-        <s v="DOP = 32"/>
-        <s v="DOP = 64"/>
-        <s v="DOP = 16"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_PGA_MAX_SIZE" numFmtId="0">
-      <sharedItems count="6">
-        <s v="4G"/>
-        <s v="6G"/>
-        <s v="2G"/>
-        <s v="PGA_MAX_SIZE = 2G" u="1"/>
-        <s v="PGA_MAX_SIZE = 4G" u="1"/>
-        <s v="PGA_MAX_SIZE = 6G" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="BT_CACHE_TARGET" numFmtId="0">
-      <sharedItems count="4">
-        <s v="BT_CACHE = 90%"/>
-        <s v="BT_CACHE = 50%"/>
-        <s v="BT_CACHE = 10%"/>
-        <s v="BT_CACHE = 0%"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="PARALLEL_DEGREE_POLICY" numFmtId="0">
-      <sharedItems count="3">
-        <s v="POLICY = ADAPTIVE"/>
-        <s v="POLICY = AUTO"/>
-        <s v="POLICY = MANUAL"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DB_CACHE_SIZE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="DB_CACHE_SIZE = 192G"/>
-        <s v="DB_CACHE_SIZE = 512M"/>
-        <s v="DB_CACHE_SIZE = 32G"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IM_SIZE" numFmtId="0">
-      <sharedItems count="2">
-        <s v="IM_SIZE = 0"/>
-        <s v="IM_SIZE = 192G"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="IM_COMPRESS_LEVEL" numFmtId="0">
-      <sharedItems count="7">
-        <s v="NA"/>
-        <s v="FOR CAPACITY LOW"/>
-        <s v="FOR CAPACITY HIGH"/>
-        <s v="FOR QUERY HIGH"/>
-        <s v="FOR QUERY LOW"/>
-        <s v="FOR DML"/>
-        <s v="NO MEMCOMPRESS"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="TOTAL_RUNS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="21"/>
-    </cacheField>
-    <cacheField name="TOTAL_RUN_TIME_SEC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.7269110000000003" maxValue="881.49761100000001"/>
-    </cacheField>
-    <cacheField name="TOTAL_DB_TIME_SEC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="607.523002666666" maxValue="28609.096361333301"/>
-    </cacheField>
-    <cacheField name="TOTAL_CPU_TIME_SEC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="549.38300000000004" maxValue="6453.2346666666599"/>
-    </cacheField>
-    <cacheField name="TOTAL_IO_WAIT_TIME_SEC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20353.409704000002"/>
-    </cacheField>
-    <cacheField name="TOTAL_WORK_AREA_SIZE_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8023351033528598" maxValue="94.600376447041796"/>
-    </cacheField>
-    <cacheField name="TOTAL_EXPECTED_SIZE_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8023045857747304" maxValue="94.589071909586494"/>
-    </cacheField>
-    <cacheField name="TOTAL_ACTUAL_MEM_USED_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.36846923828125" maxValue="72.056024233500096"/>
-    </cacheField>
-    <cacheField name="TOTAL_MAX_MEM_USED_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.36846923828125" maxValue="72.056024233500096"/>
-    </cacheField>
-    <cacheField name="TOTAL_TEMPSEG_SIZE_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20.3639322916666"/>
-    </cacheField>
-    <cacheField name="TOTAL_BUFFER_GETS_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5511881510416602E-2" maxValue="400.85721333821601"/>
-    </cacheField>
-    <cacheField name="TOTAL_IO_INTERCONNECT_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="309.05771128336499"/>
-    </cacheField>
-    <cacheField name="TOTAL_PHYSICAL_READ_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="287.00247192382801"/>
-    </cacheField>
-    <cacheField name="TOTAL_PHYSICAL_WRITE_GB" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="22.055239359537701"/>
-    </cacheField>
-    <cacheField name="MAX_SQL_EXEC_START" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-02-18T08:48:35" maxDate="2017-02-21T03:59:29"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="2"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="708.76393399999995"/>
+    <n v="22659.434057333299"/>
+    <n v="4815.6136666666598"/>
+    <n v="17673.901788666601"/>
+    <n v="13.7084799989359"/>
+    <n v="91.413772583007798"/>
+    <n v="91.386703491210895"/>
+    <n v="55.131899197896303"/>
+    <n v="55.131899197896303"/>
+    <n v="0"/>
+    <n v="332.70608520507801"/>
+    <n v="265.07757314046199"/>
+    <d v="1900-09-21T01:51:42"/>
+    <n v="0"/>
+    <d v="2017-02-20T23:36:13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50.7945556640625"/>
+    <n v="15"/>
+    <n v="178.02385799999999"/>
+    <n v="6048.8961513333297"/>
+    <n v="5406.40016666666"/>
+    <n v="0"/>
+    <n v="4.7963995701968196"/>
+    <n v="77.835414091746003"/>
+    <n v="77.814441521962394"/>
+    <n v="55.011365254719998"/>
+    <n v="55.011365254719998"/>
+    <n v="0"/>
+    <n v="0.20602925618489501"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-21T17:49:44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="612.51901799999996"/>
+    <n v="9397.3475803333295"/>
+    <n v="4413.2953333333298"/>
+    <n v="4877.8211116666598"/>
+    <n v="5.8093719300183304"/>
+    <n v="57.693611780802399"/>
+    <n v="57.694491704305001"/>
+    <n v="40.229052225748603"/>
+    <n v="40.229052225748603"/>
+    <n v="6.7086588541666599"/>
+    <n v="299.267735799153"/>
+    <n v="278.407628377278"/>
+    <d v="1900-09-27T21:57:29"/>
+    <n v="6.4927062988281197"/>
+    <d v="2017-02-18T17:51:32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="485.57438000000002"/>
+    <n v="14529.2165133333"/>
+    <n v="4408.1783333333296"/>
+    <n v="9724.4467249999998"/>
+    <n v="9.9317273355846094"/>
+    <n v="77.8912054697672"/>
+    <n v="77.871232668558704"/>
+    <n v="55.098821640014599"/>
+    <n v="55.098821640014599"/>
+    <n v="0"/>
+    <n v="334.81961059570301"/>
+    <n v="233.76219940185501"/>
+    <d v="1900-08-20T18:17:34"/>
+    <n v="0"/>
+    <d v="2017-02-21T02:28:08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="748.53876500000001"/>
+    <n v="23301.8221693333"/>
+    <n v="4634.6580000000004"/>
+    <n v="18177.746619666599"/>
+    <n v="17.2395652224495"/>
+    <n v="77.938294410705495"/>
+    <n v="77.917217890421497"/>
+    <n v="55.086874008178697"/>
+    <n v="55.086874008178697"/>
+    <n v="0"/>
+    <n v="332.66510518391902"/>
+    <n v="265.34782663981099"/>
+    <d v="1900-09-21T08:20:52"/>
+    <n v="0"/>
+    <d v="2017-02-21T00:25:49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="167.17022705078099"/>
+    <n v="15"/>
+    <n v="106.920519"/>
+    <n v="3633.2681176666601"/>
+    <n v="3163.4356666666599"/>
+    <n v="0"/>
+    <n v="5.5523586136970602"/>
+    <n v="77.849889278411794"/>
+    <n v="77.828886349995898"/>
+    <n v="52.159192244211802"/>
+    <n v="52.159192244211802"/>
+    <n v="0"/>
+    <n v="0.302636464436848"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-22T01:03:54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="493.33712600000001"/>
+    <n v="14877.589360333301"/>
+    <n v="5532.4423333333298"/>
+    <n v="9079.3753973333296"/>
+    <n v="5.8796979669290801"/>
+    <n v="87.214162826538001"/>
+    <n v="87.193400700886997"/>
+    <n v="57.694517135620103"/>
+    <n v="57.694517135620103"/>
+    <n v="0"/>
+    <n v="331.957280476888"/>
+    <n v="264.34123992919899"/>
+    <d v="1900-09-20T08:11:23"/>
+    <n v="0"/>
+    <d v="2017-02-18T18:21:03"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="185.88173499999999"/>
+    <n v="23990.6983616666"/>
+    <n v="4544.3689999999997"/>
+    <n v="18869.127720666602"/>
+    <n v="50.749526602289698"/>
+    <n v="74.012630144754993"/>
+    <n v="73.999267578125"/>
+    <n v="57.034633954366001"/>
+    <n v="57.034633954366001"/>
+    <n v="0"/>
+    <n v="330.27444966634101"/>
+    <n v="55.174830118815102"/>
+    <d v="1900-02-23T04:11:45"/>
+    <n v="0"/>
+    <d v="2017-02-21T03:59:29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="188.74859799999999"/>
+    <n v="8397.4629869999899"/>
+    <n v="3983.2750000000001"/>
+    <n v="3598.3213166666601"/>
+    <n v="11.6281888694784"/>
+    <n v="77.784231185913001"/>
+    <n v="77.763174057006793"/>
+    <n v="55.076636950174901"/>
+    <n v="55.076636950174901"/>
+    <n v="0"/>
+    <n v="327.052403767903"/>
+    <n v="55.324450174967403"/>
+    <d v="1900-02-23T07:47:12"/>
+    <n v="0"/>
+    <d v="2017-02-21T01:58:53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="613.12551699999995"/>
+    <n v="18047.370209666598"/>
+    <n v="4437.60433333333"/>
+    <n v="13147.818575666601"/>
+    <n v="13.037363097439099"/>
+    <n v="77.942018191019599"/>
+    <n v="77.920955975850404"/>
+    <n v="55.146853446960399"/>
+    <n v="55.146853446960399"/>
+    <n v="0"/>
+    <n v="333.39652506510402"/>
+    <n v="229.852821350097"/>
+    <d v="1900-08-16T20:28:04"/>
+    <n v="0"/>
+    <d v="2017-02-21T01:03:51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="107.61846923828099"/>
+    <n v="12"/>
+    <n v="165.87276499999999"/>
+    <n v="4322.7320153333303"/>
+    <n v="3777.9726666666602"/>
+    <n v="0"/>
+    <n v="5.0475539903528697"/>
+    <n v="77.886843999226798"/>
+    <n v="77.865856488545703"/>
+    <n v="55.047806104024197"/>
+    <n v="55.047806104024197"/>
+    <n v="0"/>
+    <n v="0.30463663736979102"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-21T17:14:36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="470.18768899999998"/>
+    <n v="28609.096361333301"/>
+    <n v="6338.7026666666598"/>
+    <n v="20353.409704000002"/>
+    <n v="9.6972288896832897"/>
+    <n v="94.478445688883397"/>
+    <n v="94.467412312825502"/>
+    <n v="72.034193356831807"/>
+    <n v="72.034193356831807"/>
+    <n v="0"/>
+    <n v="400.85721333821601"/>
+    <n v="265.49356333414698"/>
+    <d v="1900-09-21T11:50:44"/>
+    <n v="0"/>
+    <d v="2017-02-18T20:25:19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="881.49761100000001"/>
+    <n v="11310.3826763333"/>
+    <n v="4508.25766666666"/>
+    <n v="6629.2864570000002"/>
+    <n v="7.45105656677047"/>
+    <n v="29.398180961608801"/>
+    <n v="29.149690628051701"/>
+    <n v="24.739863713582299"/>
+    <n v="25.204053243001301"/>
+    <n v="20.3639322916666"/>
+    <n v="298.780138651529"/>
+    <n v="309.05771128336499"/>
+    <d v="1900-10-13T00:03:34"/>
+    <n v="22.055239359537701"/>
+    <d v="2017-02-18T16:06:30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="106.045532226562"/>
+    <n v="12"/>
+    <n v="152.724343"/>
+    <n v="3880.48311266666"/>
+    <n v="3554.3090000000002"/>
+    <n v="0"/>
+    <n v="4.75882818755671"/>
+    <n v="77.876490910847906"/>
+    <n v="77.855486234029101"/>
+    <n v="55.063335736592599"/>
+    <n v="55.063335736592599"/>
+    <n v="0"/>
+    <n v="0.2149658203125"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-21T17:24:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="308.98790300000002"/>
+    <n v="10029.5980993333"/>
+    <n v="4078.3333333333298"/>
+    <n v="5220.7613573333301"/>
+    <n v="15.3018194327133"/>
+    <n v="77.741831143697098"/>
+    <n v="77.720764478047599"/>
+    <n v="55.031372706095297"/>
+    <n v="55.031372706095297"/>
+    <n v="0"/>
+    <n v="324.139078776041"/>
+    <n v="90.085070292154896"/>
+    <d v="1900-03-30T02:02:30"/>
+    <n v="0"/>
+    <d v="2017-02-21T01:36:38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="271.00085999999999"/>
+    <n v="7679.5815536666596"/>
+    <n v="4127.2309999999998"/>
+    <n v="2958.4564949999999"/>
+    <n v="8.6171713103529299"/>
+    <n v="77.605936368306402"/>
+    <n v="77.586051623026506"/>
+    <n v="54.911797841389898"/>
+    <n v="54.911797841389898"/>
+    <n v="0"/>
+    <n v="335.29802703857399"/>
+    <n v="91.604326883951799"/>
+    <d v="1900-03-31T14:30:14"/>
+    <n v="0"/>
+    <d v="2017-02-21T02:53:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="611.76132600000005"/>
+    <n v="8748.5314319999907"/>
+    <n v="4287.5306666666602"/>
+    <n v="4153.0542333333296"/>
+    <n v="5.48965762436546"/>
+    <n v="68.274076461791907"/>
+    <n v="68.263064702351798"/>
+    <n v="48.674202601114899"/>
+    <n v="48.712202072143498"/>
+    <n v="6.6936848958333304"/>
+    <n v="297.97898101806601"/>
+    <n v="277.13008626302002"/>
+    <d v="1900-09-26T15:36:54"/>
+    <n v="6.4794616699218697"/>
+    <d v="2017-02-18T19:27:37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="22.9244384765625"/>
+    <n v="15"/>
+    <n v="186.21902600000001"/>
+    <n v="7029.6341725000002"/>
+    <n v="6332.44516666666"/>
+    <n v="0"/>
+    <n v="5.4177522787324897"/>
+    <n v="77.959028561909903"/>
+    <n v="77.937969207763601"/>
+    <n v="55.0187228520711"/>
+    <n v="55.0187228520711"/>
+    <n v="0"/>
+    <n v="0.228446960449218"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-22T01:16:45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="464.87034999999997"/>
+    <n v="27848.789162000001"/>
+    <n v="6453.2346666666599"/>
+    <n v="19499.090778999998"/>
+    <n v="8.5253910388897598"/>
+    <n v="94.202992757161397"/>
+    <n v="94.192006429036397"/>
+    <n v="72.017903010050404"/>
+    <n v="72.017903010050404"/>
+    <n v="0"/>
+    <n v="400.48747253417901"/>
+    <n v="265.19519805908197"/>
+    <d v="1900-09-21T04:41:05"/>
+    <n v="0"/>
+    <d v="2017-02-18T18:48:54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="465.22402"/>
+    <n v="28178.655749333298"/>
+    <n v="6212.9743333333299"/>
+    <n v="19960.1694756666"/>
+    <n v="9.3943611738931008"/>
+    <n v="94.600376447041796"/>
+    <n v="94.589071909586494"/>
+    <n v="72.056024233500096"/>
+    <n v="72.056024233500096"/>
+    <n v="0"/>
+    <n v="400.516807556152"/>
+    <n v="265.194445292154"/>
+    <d v="1900-09-21T04:40:00"/>
+    <n v="0"/>
+    <d v="2017-02-18T17:11:41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="503.06830300000001"/>
+    <n v="13995.753981666599"/>
+    <n v="4639.8729999999996"/>
+    <n v="9232.9647433333303"/>
+    <n v="9.14843960942558"/>
+    <n v="77.941977183023994"/>
+    <n v="77.920916239420507"/>
+    <n v="55.047109921773199"/>
+    <n v="55.047109921773199"/>
+    <n v="0"/>
+    <n v="332.68564860025998"/>
+    <n v="265.04661305745401"/>
+    <d v="1900-09-21T01:07:07"/>
+    <n v="0"/>
+    <d v="2017-02-20T22:52:09"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="71.3599853515625"/>
+    <n v="12"/>
+    <n v="166.75605200000001"/>
+    <n v="5161.6220366666603"/>
+    <n v="4646.2849999999999"/>
+    <n v="0"/>
+    <n v="4.2951680913126804"/>
+    <n v="77.765992482503194"/>
+    <n v="77.745033264160099"/>
+    <n v="55.008593559265101"/>
+    <n v="55.008593559265101"/>
+    <n v="0"/>
+    <n v="0.21638743082682199"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <d v="2017-02-21T17:31:57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="637.14902099999995"/>
+    <n v="17015.974251"/>
+    <n v="5659.6980000000003"/>
+    <n v="10990.511570333299"/>
+    <n v="8.2777348951934702"/>
+    <n v="65.388576825459694"/>
+    <n v="64.960927645365302"/>
+    <n v="45.709805170694899"/>
+    <n v="46.028480211893701"/>
+    <n v="8.2486979166666607"/>
+    <n v="332.65692138671801"/>
+    <n v="283.27962748209598"/>
+    <d v="1900-09-30T03:16:05"/>
+    <n v="9.1434529622395804"/>
+    <d v="2017-02-18T16:43:58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="12"/>
+    <n v="493.92523899999998"/>
+    <n v="14831.6170903333"/>
+    <n v="5481.7956666666596"/>
+    <n v="9094.0929083333303"/>
+    <n v="5.9677286855080602"/>
+    <n v="77.8430840174357"/>
+    <n v="77.830028216044099"/>
+    <n v="57.5911620457967"/>
+    <n v="57.5911620457967"/>
+    <n v="0"/>
+    <n v="332.65002950032499"/>
+    <n v="264.98820241292299"/>
+    <d v="1900-09-20T23:43:01"/>
+    <n v="0"/>
+    <d v="2017-02-18T19:57:15"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="324">
   <r>
     <x v="0"/>
@@ -18170,763 +19360,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="185.88173499999999"/>
-    <n v="23990.6983616666"/>
-    <n v="4544.3689999999997"/>
-    <n v="18869.127720666602"/>
-    <n v="74.012630144754993"/>
-    <n v="73.999267578125"/>
-    <n v="57.034633954366001"/>
-    <n v="57.034633954366001"/>
-    <n v="0"/>
-    <n v="330.27444966634101"/>
-    <n v="55.174830118815102"/>
-    <n v="55.174830118815102"/>
-    <n v="0"/>
-    <d v="2017-02-21T03:59:29"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="271.00085999999999"/>
-    <n v="7679.5815536666596"/>
-    <n v="4127.2309999999998"/>
-    <n v="2958.4564949999999"/>
-    <n v="77.605936368306402"/>
-    <n v="77.586051623026506"/>
-    <n v="54.911797841389898"/>
-    <n v="54.911797841389898"/>
-    <n v="0"/>
-    <n v="335.29802703857399"/>
-    <n v="91.604326883951799"/>
-    <n v="91.604326883951799"/>
-    <n v="0"/>
-    <d v="2017-02-21T02:53:00"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="485.57438000000002"/>
-    <n v="14529.2165133333"/>
-    <n v="4408.1783333333296"/>
-    <n v="9724.4467249999998"/>
-    <n v="77.8912054697672"/>
-    <n v="77.871232668558704"/>
-    <n v="55.098821640014599"/>
-    <n v="55.098821640014599"/>
-    <n v="0"/>
-    <n v="334.81961059570301"/>
-    <n v="233.76219940185501"/>
-    <n v="233.76219940185501"/>
-    <n v="0"/>
-    <d v="2017-02-21T02:28:08"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="188.74859799999999"/>
-    <n v="8397.4629869999899"/>
-    <n v="3983.2750000000001"/>
-    <n v="3598.3213166666601"/>
-    <n v="77.784231185913001"/>
-    <n v="77.763174057006793"/>
-    <n v="55.076636950174901"/>
-    <n v="55.076636950174901"/>
-    <n v="0"/>
-    <n v="327.052403767903"/>
-    <n v="55.324450174967403"/>
-    <n v="55.324450174967403"/>
-    <n v="0"/>
-    <d v="2017-02-21T01:58:53"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="308.98790300000002"/>
-    <n v="10029.5980993333"/>
-    <n v="4078.3333333333298"/>
-    <n v="5220.7613573333301"/>
-    <n v="77.741831143697098"/>
-    <n v="77.720764478047599"/>
-    <n v="55.031372706095297"/>
-    <n v="55.031372706095297"/>
-    <n v="0"/>
-    <n v="324.139078776041"/>
-    <n v="90.085070292154896"/>
-    <n v="90.085070292154896"/>
-    <n v="0"/>
-    <d v="2017-02-21T01:36:38"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="613.12551699999995"/>
-    <n v="18047.370209666598"/>
-    <n v="4437.60433333333"/>
-    <n v="13147.818575666601"/>
-    <n v="77.942018191019599"/>
-    <n v="77.920955975850404"/>
-    <n v="55.146853446960399"/>
-    <n v="55.146853446960399"/>
-    <n v="0"/>
-    <n v="333.39652506510402"/>
-    <n v="229.852821350097"/>
-    <n v="229.852821350097"/>
-    <n v="0"/>
-    <d v="2017-02-21T01:03:51"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="748.53876500000001"/>
-    <n v="23301.8221693333"/>
-    <n v="4634.6580000000004"/>
-    <n v="18177.746619666599"/>
-    <n v="77.938294410705495"/>
-    <n v="77.917217890421497"/>
-    <n v="55.086874008178697"/>
-    <n v="55.086874008178697"/>
-    <n v="0"/>
-    <n v="332.66510518391902"/>
-    <n v="265.34782663981099"/>
-    <n v="265.34782663981099"/>
-    <n v="0"/>
-    <d v="2017-02-21T00:25:49"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="708.76393399999995"/>
-    <n v="22659.434057333299"/>
-    <n v="4815.6136666666598"/>
-    <n v="17673.901788666601"/>
-    <n v="91.413772583007798"/>
-    <n v="91.386703491210895"/>
-    <n v="55.131899197896303"/>
-    <n v="55.131899197896303"/>
-    <n v="0"/>
-    <n v="332.70608520507801"/>
-    <n v="265.07757314046199"/>
-    <n v="265.07757314046199"/>
-    <n v="0"/>
-    <d v="2017-02-20T23:36:13"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="503.06830300000001"/>
-    <n v="13995.753981666599"/>
-    <n v="4639.8729999999996"/>
-    <n v="9232.9647433333303"/>
-    <n v="77.941977183023994"/>
-    <n v="77.920916239420507"/>
-    <n v="55.047109921773199"/>
-    <n v="55.047109921773199"/>
-    <n v="0"/>
-    <n v="332.68564860025998"/>
-    <n v="265.04661305745401"/>
-    <n v="265.04661305745401"/>
-    <n v="0"/>
-    <d v="2017-02-20T22:52:09"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="470.18768899999998"/>
-    <n v="28609.096361333301"/>
-    <n v="6338.7026666666598"/>
-    <n v="20353.409704000002"/>
-    <n v="94.478445688883397"/>
-    <n v="94.467412312825502"/>
-    <n v="72.034193356831807"/>
-    <n v="72.034193356831807"/>
-    <n v="0"/>
-    <n v="400.85721333821601"/>
-    <n v="265.49356333414698"/>
-    <n v="265.49356333414698"/>
-    <n v="0"/>
-    <d v="2017-02-18T20:25:19"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="493.92523899999998"/>
-    <n v="14831.6170903333"/>
-    <n v="5481.7956666666596"/>
-    <n v="9094.0929083333303"/>
-    <n v="77.8430840174357"/>
-    <n v="77.830028216044099"/>
-    <n v="57.5911620457967"/>
-    <n v="57.5911620457967"/>
-    <n v="0"/>
-    <n v="332.65002950032499"/>
-    <n v="264.98820241292299"/>
-    <n v="264.98820241292299"/>
-    <n v="0"/>
-    <d v="2017-02-18T19:57:15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="611.76132600000005"/>
-    <n v="8748.5314319999907"/>
-    <n v="4287.5306666666602"/>
-    <n v="4153.0542333333296"/>
-    <n v="68.274076461791907"/>
-    <n v="68.263064702351798"/>
-    <n v="48.674202601114899"/>
-    <n v="48.712202072143498"/>
-    <n v="6.6936848958333304"/>
-    <n v="297.97898101806601"/>
-    <n v="277.13008626302002"/>
-    <n v="270.65062459309797"/>
-    <n v="6.4794616699218697"/>
-    <d v="2017-02-18T19:27:37"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="464.87034999999997"/>
-    <n v="27848.789162000001"/>
-    <n v="6453.2346666666599"/>
-    <n v="19499.0907789999"/>
-    <n v="94.202992757161397"/>
-    <n v="94.192006429036397"/>
-    <n v="72.017903010050404"/>
-    <n v="72.017903010050404"/>
-    <n v="0"/>
-    <n v="400.48747253417901"/>
-    <n v="265.19519805908197"/>
-    <n v="265.19519805908197"/>
-    <n v="0"/>
-    <d v="2017-02-18T18:48:54"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="493.33712600000001"/>
-    <n v="14877.589360333301"/>
-    <n v="5532.4423333333298"/>
-    <n v="9079.3753973333296"/>
-    <n v="87.214162826538001"/>
-    <n v="87.193400700886997"/>
-    <n v="57.694517135620103"/>
-    <n v="57.694517135620103"/>
-    <n v="0"/>
-    <n v="331.957280476888"/>
-    <n v="264.34123992919899"/>
-    <n v="264.34123992919899"/>
-    <n v="0"/>
-    <d v="2017-02-18T18:21:03"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="612.51901799999996"/>
-    <n v="9397.3475803333295"/>
-    <n v="4413.2953333333298"/>
-    <n v="4877.8211116666598"/>
-    <n v="57.693611780802399"/>
-    <n v="57.694491704305001"/>
-    <n v="40.229052225748603"/>
-    <n v="40.229052225748603"/>
-    <n v="6.7086588541666599"/>
-    <n v="299.267735799153"/>
-    <n v="278.407628377278"/>
-    <n v="271.91492207844999"/>
-    <n v="6.4927062988281197"/>
-    <d v="2017-02-18T17:51:32"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="465.22402"/>
-    <n v="28178.655749333298"/>
-    <n v="6212.9743333333299"/>
-    <n v="19960.1694756666"/>
-    <n v="94.600376447041796"/>
-    <n v="94.589071909586494"/>
-    <n v="72.056024233500096"/>
-    <n v="72.056024233500096"/>
-    <n v="0"/>
-    <n v="400.516807556152"/>
-    <n v="265.194445292154"/>
-    <n v="265.194445292154"/>
-    <n v="0"/>
-    <d v="2017-02-18T17:11:41"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="637.14902099999995"/>
-    <n v="17015.974251"/>
-    <n v="5659.6980000000003"/>
-    <n v="10990.511570333299"/>
-    <n v="65.388576825459694"/>
-    <n v="64.960927645365302"/>
-    <n v="45.709805170694899"/>
-    <n v="46.028480211893701"/>
-    <n v="8.2486979166666607"/>
-    <n v="332.65692138671801"/>
-    <n v="283.27962748209598"/>
-    <n v="274.13617451985601"/>
-    <n v="9.1434529622395804"/>
-    <d v="2017-02-18T16:43:58"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="881.49761100000001"/>
-    <n v="11310.3826763333"/>
-    <n v="4508.25766666666"/>
-    <n v="6629.2864570000002"/>
-    <n v="29.398180961608801"/>
-    <n v="29.149690628051701"/>
-    <n v="24.739863713582299"/>
-    <n v="25.204053243001301"/>
-    <n v="20.3639322916666"/>
-    <n v="298.780138651529"/>
-    <n v="309.05771128336499"/>
-    <n v="287.00247192382801"/>
-    <n v="22.055239359537701"/>
-    <d v="2017-02-18T16:06:30"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="21"/>
-    <n v="157.224209"/>
-    <n v="4376.2863020000004"/>
-    <n v="3842.0509166666602"/>
-    <n v="0"/>
-    <n v="73.065608819325703"/>
-    <n v="73.044592380523596"/>
-    <n v="51.708564599355"/>
-    <n v="51.708564599355"/>
-    <n v="0"/>
-    <n v="0.15487416585286401"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T11:09:52"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="9"/>
-    <n v="85.359131000000005"/>
-    <n v="4400.1153971666599"/>
-    <n v="3864.10883333333"/>
-    <n v="0"/>
-    <n v="79.5260648727416"/>
-    <n v="79.499541123707999"/>
-    <n v="45.390266100565498"/>
-    <n v="45.390266100565498"/>
-    <n v="0"/>
-    <n v="8.5851033528645801E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T11:06:21"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="15"/>
-    <n v="152.52836199999999"/>
-    <n v="3899.9754155000001"/>
-    <n v="3467.40266666666"/>
-    <n v="0"/>
-    <n v="73.085580507914202"/>
-    <n v="73.064585049947098"/>
-    <n v="51.670603911081898"/>
-    <n v="51.670603911081898"/>
-    <n v="0"/>
-    <n v="0.16150410970052001"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T10:54:52"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="15"/>
-    <n v="145.048823"/>
-    <n v="3175.1589233333302"/>
-    <n v="2903.8654999999999"/>
-    <n v="0"/>
-    <n v="72.838976224263504"/>
-    <n v="72.8180704116821"/>
-    <n v="51.638188362121497"/>
-    <n v="51.638188362121497"/>
-    <n v="0"/>
-    <n v="0.16340382893880201"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T10:47:02"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="15"/>
-    <n v="152.406543"/>
-    <n v="3482.2675573333299"/>
-    <n v="3010.1038333333299"/>
-    <n v="0"/>
-    <n v="72.791112581888797"/>
-    <n v="72.770276069641099"/>
-    <n v="51.673736254374099"/>
-    <n v="51.673736254374099"/>
-    <n v="0"/>
-    <n v="0.21148173014322899"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T10:37:56"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="15"/>
-    <n v="153.80130600000001"/>
-    <n v="3330.8259671666601"/>
-    <n v="2888.7510000000002"/>
-    <n v="0"/>
-    <n v="72.915160655975299"/>
-    <n v="72.894261201222704"/>
-    <n v="51.681187947591098"/>
-    <n v="51.681187947591098"/>
-    <n v="0"/>
-    <n v="0.20602798461913999"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T10:28:21"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="16.923534"/>
-    <n v="1960.536699"/>
-    <n v="1842.5"/>
-    <n v="0"/>
-    <n v="4.8023452758789"/>
-    <n v="4.8023147583007804"/>
-    <n v="3.3684717814127598"/>
-    <n v="3.3684717814127598"/>
-    <n v="0"/>
-    <n v="8.5296630859375E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T10:17:56"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="16.193929000000001"/>
-    <n v="1441.6174553333301"/>
-    <n v="1350.6576666666599"/>
-    <n v="0"/>
-    <n v="4.8023478190104099"/>
-    <n v="4.8023173014322902"/>
-    <n v="3.36846923828125"/>
-    <n v="3.36846923828125"/>
-    <n v="0"/>
-    <n v="6.1248779296875E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T09:55:53"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="13.209739000000001"/>
-    <n v="1136.3868990000001"/>
-    <n v="1053.19133333333"/>
-    <n v="0"/>
-    <n v="4.8023452758789"/>
-    <n v="4.8023147583007804"/>
-    <n v="3.3684717814127598"/>
-    <n v="3.3684717814127598"/>
-    <n v="0"/>
-    <n v="5.99517822265625E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T09:39:43"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="5.7269110000000003"/>
-    <n v="607.523002666666"/>
-    <n v="549.38300000000004"/>
-    <n v="0"/>
-    <n v="4.8023351033528598"/>
-    <n v="4.8023045857747304"/>
-    <n v="3.3684981664021798"/>
-    <n v="3.3684981664021798"/>
-    <n v="0"/>
-    <n v="4.5511881510416602E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T09:23:50"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="3"/>
-    <n v="13.038498000000001"/>
-    <n v="715.83169699999996"/>
-    <n v="662.70333333333303"/>
-    <n v="0"/>
-    <n v="4.8023452758789"/>
-    <n v="4.8023147583007804"/>
-    <n v="3.3684819539388"/>
-    <n v="3.3684819539388"/>
-    <n v="0"/>
-    <n v="0.105013529459635"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T09:09:32"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="3"/>
-    <n v="13.556728"/>
-    <n v="615.29114833333301"/>
-    <n v="570.97900000000004"/>
-    <n v="0"/>
-    <n v="4.8023452758789"/>
-    <n v="4.8023147583007804"/>
-    <n v="3.3684768676757799"/>
-    <n v="3.3684768676757799"/>
-    <n v="0"/>
-    <n v="0.10626729329427"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-02-18T08:48:35"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="523" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="710" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0">
@@ -19092,8 +19527,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="523" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A1:C42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="710" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A1:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0">
       <items count="4">
@@ -19103,7 +19538,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
@@ -19151,9 +19586,9 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19170,7 +19605,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -19179,87 +19614,9 @@
     <field x="6"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="40">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
+  <rowItems count="14">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -19302,25 +19659,35 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="-2"/>
   </colFields>
   <colItems count="2">
     <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
       <x/>
     </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of RUN_TIME_SEC" fld="11" subtotal="average" baseField="6" baseItem="1"/>
+  <dataFields count="2">
+    <dataField name="Run Time (sec)" fld="11" subtotal="average" baseField="6" baseItem="1"/>
+    <dataField name="IO Interconnect (GB)" fld="21" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="5" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -19336,7 +19703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="523" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="710" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:C27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0">
@@ -19522,22 +19889,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="533" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="711" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="23">
+  <pivotFields count="25">
     <pivotField showAll="0">
       <items count="4">
         <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19554,7 +19921,15 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
@@ -19569,21 +19944,15 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -19655,9 +20024,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Run Time (sec)" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="PGA Size (GB)" fld="15" baseField="0" baseItem="0"/>
-    <dataField name="Temp Size (GB)" fld="17" baseField="0" baseItem="0"/>
+    <dataField name="Run Time (sec)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="PGA Size (GB)" fld="17" baseField="0" baseItem="0"/>
+    <dataField name="Temp Size (GB)" fld="19" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="4" format="3" series="1">
@@ -19698,14 +20067,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="533" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="711" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="23">
+  <pivotFields count="25">
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
+        <item h="1" x="1"/>
         <item h="1" x="2"/>
-        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19713,29 +20082,31 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -19804,8 +20175,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Run Time (sec)" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="IO Interconnect (GB)" fld="19" baseField="0" baseItem="0"/>
+    <dataField name="Run Time (sec)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="IO Interconnect (GB)" fld="21" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="4" format="2" series="1">
@@ -19837,22 +20208,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="533" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="711" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
     <pivotField showAll="0">
       <items count="4">
         <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19867,23 +20238,24 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
+        <item x="5"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -19921,18 +20293,36 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Run Time (sec)" fld="9" baseField="7" baseItem="3"/>
+  <dataFields count="2">
+    <dataField name="Run Time (sec)" fld="10" baseField="7" baseItem="3"/>
+    <dataField name="In Memory Size (GB)" fld="8" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -19991,8 +20381,8 @@
     <tabular pivotCacheId="2">
       <items count="3">
         <i x="0"/>
-        <i x="2"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -20007,9 +20397,9 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="3">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -20044,10 +20434,10 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="4">
-        <i x="3" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20056,6 +20446,23 @@
 
 <file path=xl/slicerCaches/slicerCache15.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_PARALLEL_DEGREE_POLICY" sourceName="PARALLEL_DEGREE_POLICY">
+  <pivotTables>
+    <pivotTable tabId="6" name="PivotTable18"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache16.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_DB_CACHE_SIZE" sourceName="DB_CACHE_SIZE">
   <pivotTables>
     <pivotTable tabId="6" name="PivotTable18"/>
   </pivotTables>
@@ -20071,23 +20478,6 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache16.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_DB_CACHE_SIZE" sourceName="DB_CACHE_SIZE">
-  <pivotTables>
-    <pivotTable tabId="6" name="PivotTable18"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="2">
-      <items count="3">
-        <i x="1" s="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache17.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MODULE4" sourceName="MODULE">
   <pivotTables>
@@ -20097,8 +20487,8 @@
     <tabular pivotCacheId="2">
       <items count="3">
         <i x="0" s="1"/>
+        <i x="1"/>
         <i x="2"/>
-        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -20114,9 +20504,9 @@
     <tabular pivotCacheId="2">
       <items count="4">
         <i x="2" s="1"/>
-        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="3" s="1" nd="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20131,9 +20521,9 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="3">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -20167,8 +20557,8 @@
     <tabular pivotCacheId="2">
       <items count="3">
         <i x="0"/>
-        <i x="2" s="1"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -20192,20 +20582,16 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache22.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_IM_COMPRESS_LEVEL" sourceName="IM_COMPRESS_LEVEL">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_DOP2" sourceName="DOP">
   <pivotTables>
     <pivotTable tabId="10" name="PivotTable20"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="2">
-      <items count="7">
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="5" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="6" s="1"/>
-        <i x="0" s="1" nd="1"/>
+    <tabular pivotCacheId="2" showMissing="0">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20213,16 +20599,16 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache23.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_DOP2" sourceName="DOP">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_PARALLEL_DEGREE_POLICY2" sourceName="PARALLEL_DEGREE_POLICY">
   <pivotTables>
-    <pivotTable tabId="10" name="PivotTable20"/>
+    <pivotTable tabId="3" name="PivotTable2"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="2">
+    <tabular pivotCacheId="1">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="1"/>
-        <i x="2" nd="1"/>
+        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -20265,7 +20651,7 @@
       <items count="3">
         <i x="0" s="1"/>
         <i x="2"/>
-        <i x="1"/>
+        <i x="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20391,6 +20777,7 @@
   <slicer name="CLIENT_INFO 1" cache="Slicer_CLIENT_INFO1" caption="CLIENT_INFO" rowHeight="234950"/>
   <slicer name="RUN_NUMBER 1" cache="Slicer_RUN_NUMBER1" caption="RUN_NUMBER" rowHeight="234950"/>
   <slicer name="DOP" cache="Slicer_DOP" caption="DOP" rowHeight="234950"/>
+  <slicer name="PARALLEL_DEGREE_POLICY 2" cache="Slicer_PARALLEL_DEGREE_POLICY2" caption="PARALLEL_DEGREE_POLICY" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -20425,15 +20812,14 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="MODULE 5" cache="Slicer_MODULE5" caption="MODULE" rowHeight="241300"/>
   <slicer name="IM_SIZE" cache="Slicer_IM_SIZE" caption="IM_SIZE" rowHeight="241300"/>
-  <slicer name="IM_COMPRESS_LEVEL" cache="Slicer_IM_COMPRESS_LEVEL" caption="IM_COMPRESS_LEVEL" rowHeight="241300"/>
   <slicer name="DOP 2" cache="Slicer_DOP2" caption="DOP" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:W31" totalsRowShown="0">
-  <autoFilter ref="A1:W31"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Y25" totalsRowShown="0">
+  <autoFilter ref="A1:Y25"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="MODULE"/>
     <tableColumn id="2" name="DOP"/>
     <tableColumn id="3" name="_PGA_MAX_SIZE"/>
@@ -20441,22 +20827,24 @@
     <tableColumn id="5" name="PARALLEL_DEGREE_POLICY"/>
     <tableColumn id="6" name="DB_CACHE_SIZE"/>
     <tableColumn id="7" name="IM_SIZE"/>
-    <tableColumn id="8" name="IM_COMPRESS_LEVEL"/>
-    <tableColumn id="9" name="TOTAL_RUNS"/>
-    <tableColumn id="10" name="TOTAL_RUN_TIME_SEC"/>
-    <tableColumn id="11" name="TOTAL_DB_TIME_SEC"/>
-    <tableColumn id="12" name="TOTAL_CPU_TIME_SEC"/>
-    <tableColumn id="13" name="TOTAL_IO_WAIT_TIME_SEC"/>
-    <tableColumn id="14" name="TOTAL_WORK_AREA_SIZE_GB"/>
-    <tableColumn id="15" name="TOTAL_EXPECTED_SIZE_GB"/>
-    <tableColumn id="16" name="TOTAL_ACTUAL_MEM_USED_GB"/>
-    <tableColumn id="17" name="TOTAL_MAX_MEM_USED_GB"/>
-    <tableColumn id="18" name="TOTAL_TEMPSEG_SIZE_GB"/>
-    <tableColumn id="19" name="TOTAL_BUFFER_GETS_GB"/>
-    <tableColumn id="20" name="TOTAL_IO_INTERCONNECT_GB"/>
-    <tableColumn id="21" name="TOTAL_PHYSICAL_READ_GB"/>
-    <tableColumn id="22" name="TOTAL_PHYSICAL_WRITE_GB"/>
-    <tableColumn id="23" name="MAX_SQL_EXEC_START" dataDxfId="0"/>
+    <tableColumn id="8" name="INMEMORY_COMPRESSION"/>
+    <tableColumn id="9" name="INMEMORY_SIZE_GB"/>
+    <tableColumn id="10" name="TOTAL_RUNS"/>
+    <tableColumn id="11" name="TOTAL_RUN_TIME_SEC"/>
+    <tableColumn id="12" name="TOTAL_DB_TIME_SEC"/>
+    <tableColumn id="13" name="TOTAL_CPU_TIME_SEC"/>
+    <tableColumn id="14" name="TOTAL_IO_WAIT_TIME_SEC"/>
+    <tableColumn id="15" name="AVERAGE_CEI"/>
+    <tableColumn id="16" name="TOTAL_WORK_AREA_SIZE_GB"/>
+    <tableColumn id="17" name="TOTAL_EXPECTED_SIZE_GB"/>
+    <tableColumn id="18" name="TOTAL_ACTUAL_MEM_USED_GB"/>
+    <tableColumn id="19" name="TOTAL_MAX_MEM_USED_GB"/>
+    <tableColumn id="20" name="TOTAL_TEMPSEG_SIZE_GB"/>
+    <tableColumn id="21" name="TOTAL_BUFFER_GETS_GB"/>
+    <tableColumn id="22" name="TOTAL_IO_INTERCONNECT_GB"/>
+    <tableColumn id="23" name="TOTAL_PHYSICAL_READ_GB" dataDxfId="2"/>
+    <tableColumn id="24" name="TOTAL_PHYSICAL_WRITE_GB"/>
+    <tableColumn id="25" name="MAX_SQL_EXEC_START" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21077,479 +21465,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:C41"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5">
+        <v>193.52706822222223</v>
+      </c>
+      <c r="C2" s="5">
+        <v>459.04063415527196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="5">
-        <v>277.0453257777778</v>
+        <v>234.97123833333333</v>
       </c>
       <c r="C3" s="5">
-        <v>277.0453257777778</v>
+        <v>258.7979888916006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
+      <c r="A4" s="6">
+        <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>189.66231733333333</v>
+        <v>271.85921100000002</v>
       </c>
       <c r="C4" s="5">
-        <v>189.66231733333333</v>
+        <v>101.60397338867099</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>187.66033400000001</v>
+        <v>221.11811499999999</v>
       </c>
       <c r="C5" s="5">
-        <v>187.66033400000001</v>
+        <v>78.597007751464801</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>194.17811699999999</v>
+        <v>211.93638899999999</v>
       </c>
       <c r="C6" s="5">
-        <v>194.17811699999999</v>
+        <v>78.597007751464801</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="5">
-        <v>187.14850100000001</v>
+        <v>172.19782066666667</v>
       </c>
       <c r="C7" s="5">
-        <v>187.14850100000001</v>
+        <v>99.950057983398395</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
+      <c r="A8" s="6">
+        <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>277.56828566666667</v>
+        <v>336.64824900000002</v>
       </c>
       <c r="C8" s="5">
-        <v>277.56828566666667</v>
+        <v>99.950057983398395</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
-        <v>190.58250000000001</v>
+        <v>89.229725999999999</v>
       </c>
       <c r="C9" s="5">
-        <v>190.58250000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5">
-        <v>311.95998500000002</v>
+        <v>90.715486999999996</v>
       </c>
       <c r="C10" s="5">
-        <v>311.95998500000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="5">
-        <v>330.162372</v>
+        <v>173.41214566666667</v>
       </c>
       <c r="C11" s="5">
-        <v>330.162372</v>
+        <v>100.292587280273</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
+      <c r="A12" s="6">
+        <v>1</v>
       </c>
       <c r="B12" s="5">
-        <v>363.90537433333333</v>
+        <v>342.59838200000002</v>
       </c>
       <c r="C12" s="5">
-        <v>363.90537433333333</v>
+        <v>100.292587280273</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5">
-        <v>387.60565500000001</v>
+        <v>88.439171000000002</v>
       </c>
       <c r="C13" s="5">
-        <v>387.60565500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="5">
-        <v>357.600593</v>
+        <v>89.198884000000007</v>
       </c>
       <c r="C14" s="5">
-        <v>357.600593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3</v>
+      <c r="A15" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="5">
-        <v>346.50987500000002</v>
+        <v>193.52706822222223</v>
       </c>
       <c r="C15" s="5">
-        <v>346.50987500000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5">
-        <v>193.52706822222223</v>
-      </c>
-      <c r="C16" s="5">
-        <v>193.52706822222223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5">
-        <v>234.97123833333333</v>
-      </c>
-      <c r="C17" s="5">
-        <v>234.97123833333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>271.85921100000002</v>
-      </c>
-      <c r="C18" s="5">
-        <v>271.85921100000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>221.11811499999999</v>
-      </c>
-      <c r="C19" s="5">
-        <v>221.11811499999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5">
-        <v>211.93638899999999</v>
-      </c>
-      <c r="C20" s="5">
-        <v>211.93638899999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
-        <v>172.19782066666667</v>
-      </c>
-      <c r="C21" s="5">
-        <v>172.19782066666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>336.64824900000002</v>
-      </c>
-      <c r="C22" s="5">
-        <v>336.64824900000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5">
-        <v>89.229725999999999</v>
-      </c>
-      <c r="C23" s="5">
-        <v>89.229725999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5">
-        <v>90.715486999999996</v>
-      </c>
-      <c r="C24" s="5">
-        <v>90.715486999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5">
-        <v>173.41214566666667</v>
-      </c>
-      <c r="C25" s="5">
-        <v>173.41214566666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
-        <v>342.59838200000002</v>
-      </c>
-      <c r="C26" s="5">
-        <v>342.59838200000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5">
-        <v>88.439171000000002</v>
-      </c>
-      <c r="C27" s="5">
-        <v>88.439171000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>89.198884000000007</v>
-      </c>
-      <c r="C28" s="5">
-        <v>89.198884000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="5">
-        <v>263.71735411111115</v>
-      </c>
-      <c r="C29" s="5">
-        <v>263.71735411111115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5">
-        <v>196.74939333333336</v>
-      </c>
-      <c r="C30" s="5">
-        <v>196.74939333333336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5">
-        <v>226.19541699999999</v>
-      </c>
-      <c r="C31" s="5">
-        <v>226.19541699999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5">
-        <v>170.107179</v>
-      </c>
-      <c r="C32" s="5">
-        <v>170.107179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>3</v>
-      </c>
-      <c r="B33" s="5">
-        <v>193.945584</v>
-      </c>
-      <c r="C33" s="5">
-        <v>193.945584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="5">
-        <v>139.98503933333333</v>
-      </c>
-      <c r="C34" s="5">
-        <v>139.98503933333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5">
-        <v>239.04015999999999</v>
-      </c>
-      <c r="C35" s="5">
-        <v>239.04015999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5">
-        <v>90.304790999999994</v>
-      </c>
-      <c r="C36" s="5">
-        <v>90.304790999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>3</v>
-      </c>
-      <c r="B37" s="5">
-        <v>90.610167000000004</v>
-      </c>
-      <c r="C37" s="5">
-        <v>90.610167000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="5">
-        <v>454.41762966666664</v>
-      </c>
-      <c r="C38" s="5">
-        <v>454.41762966666664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1189.31431</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1189.31431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>2</v>
-      </c>
-      <c r="B40" s="5">
-        <v>87.179952</v>
-      </c>
-      <c r="C40" s="5">
-        <v>87.179952</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>3</v>
-      </c>
-      <c r="B41" s="5">
-        <v>86.758627000000004</v>
-      </c>
-      <c r="C41" s="5">
-        <v>86.758627000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="5">
-        <v>244.76324937037037</v>
-      </c>
-      <c r="C42" s="5">
-        <v>244.76324937037037</v>
+        <v>459.04063415527196</v>
       </c>
     </row>
   </sheetData>
@@ -22299,81 +22393,105 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5">
-        <v>153.80130600000001</v>
+        <v>106.920519</v>
+      </c>
+      <c r="C2" s="5">
+        <v>167.17022705078099</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="5">
-        <v>152.406543</v>
+        <v>165.87276499999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>107.61846923828099</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="5">
-        <v>145.048823</v>
+        <v>152.724343</v>
+      </c>
+      <c r="C4" s="5">
+        <v>106.045532226562</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="5">
-        <v>152.52836199999999</v>
+        <v>166.75605200000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71.3599853515625</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="5">
-        <v>157.224209</v>
+        <v>178.02385799999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50.7945556640625</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="5">
-        <v>85.359131000000005</v>
+        <v>186.21902600000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>22.9244384765625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="5">
-        <v>846.36837400000002</v>
+        <v>956.51656299999991</v>
+      </c>
+      <c r="C8" s="5">
+        <v>87.652201334635251</v>
       </c>
     </row>
   </sheetData>
@@ -22391,10 +22509,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22403,8 +22521,8 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
@@ -22423,7 +22541,7 @@
     <col min="23" max="23" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22446,55 +22564,61 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -22505,10 +22629,10 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -22519,55 +22643,58 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="J2">
-        <v>185.88173499999999</v>
-      </c>
       <c r="K2">
-        <v>23990.6983616666</v>
+        <v>708.76393399999995</v>
       </c>
       <c r="L2">
-        <v>4544.3689999999997</v>
+        <v>22659.434057333299</v>
       </c>
       <c r="M2">
-        <v>18869.127720666602</v>
+        <v>4815.6136666666598</v>
       </c>
       <c r="N2">
-        <v>74.012630144754993</v>
+        <v>17673.901788666601</v>
       </c>
       <c r="O2">
-        <v>73.999267578125</v>
+        <v>13.7084799989359</v>
       </c>
       <c r="P2">
-        <v>57.034633954366001</v>
+        <v>91.413772583007798</v>
       </c>
       <c r="Q2">
-        <v>57.034633954366001</v>
+        <v>91.386703491210895</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>55.131899197896303</v>
       </c>
       <c r="S2">
-        <v>330.27444966634101</v>
+        <v>55.131899197896303</v>
       </c>
       <c r="T2">
-        <v>55.174830118815102</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>55.174830118815102</v>
+        <v>332.70608520507801</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>265.07757314046199</v>
       </c>
       <c r="W2" s="1">
-        <v>42787.166307870371</v>
+        <v>265.07757314046199</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>42786.983483796299</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -22576,84 +22703,90 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>50.7945556640625</v>
       </c>
       <c r="J3">
-        <v>271.00085999999999</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>7679.5815536666596</v>
+        <v>178.02385799999999</v>
       </c>
       <c r="L3">
-        <v>4127.2309999999998</v>
+        <v>6048.8961513333297</v>
       </c>
       <c r="M3">
-        <v>2958.4564949999999</v>
+        <v>5406.40016666666</v>
       </c>
       <c r="N3">
-        <v>77.605936368306402</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>77.586051623026506</v>
+        <v>4.7963995701968196</v>
       </c>
       <c r="P3">
-        <v>54.911797841389898</v>
+        <v>77.835414091746003</v>
       </c>
       <c r="Q3">
-        <v>54.911797841389898</v>
+        <v>77.814441521962394</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="S3">
-        <v>335.29802703857399</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="T3">
-        <v>91.604326883951799</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>91.604326883951799</v>
+        <v>0.20602925618489501</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>42787.120138888888</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>42787.74287037037</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -22661,53 +22794,56 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="J4">
-        <v>485.57438000000002</v>
-      </c>
       <c r="K4">
-        <v>14529.2165133333</v>
+        <v>612.51901799999996</v>
       </c>
       <c r="L4">
-        <v>4408.1783333333296</v>
+        <v>9397.3475803333295</v>
       </c>
       <c r="M4">
-        <v>9724.4467249999998</v>
+        <v>4413.2953333333298</v>
       </c>
       <c r="N4">
-        <v>77.8912054697672</v>
+        <v>4877.8211116666598</v>
       </c>
       <c r="O4">
-        <v>77.871232668558704</v>
+        <v>5.8093719300183304</v>
       </c>
       <c r="P4">
-        <v>55.098821640014599</v>
+        <v>57.693611780802399</v>
       </c>
       <c r="Q4">
-        <v>55.098821640014599</v>
+        <v>57.694491704305001</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>40.229052225748603</v>
       </c>
       <c r="S4">
-        <v>334.81961059570301</v>
+        <v>40.229052225748603</v>
       </c>
       <c r="T4">
-        <v>233.76219940185501</v>
+        <v>6.7086588541666599</v>
       </c>
       <c r="U4">
-        <v>233.76219940185501</v>
+        <v>299.267735799153</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>278.407628377278</v>
       </c>
       <c r="W4" s="1">
-        <v>42787.102870370371</v>
+        <v>271.91492207844999</v>
+      </c>
+      <c r="X4">
+        <v>6.4927062988281197</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>42784.744120370371</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -22718,10 +22854,10 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -22732,53 +22868,56 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="J5">
-        <v>188.74859799999999</v>
-      </c>
       <c r="K5">
-        <v>8397.4629869999899</v>
+        <v>485.57438000000002</v>
       </c>
       <c r="L5">
-        <v>3983.2750000000001</v>
+        <v>14529.2165133333</v>
       </c>
       <c r="M5">
-        <v>3598.3213166666601</v>
+        <v>4408.1783333333296</v>
       </c>
       <c r="N5">
-        <v>77.784231185913001</v>
+        <v>9724.4467249999998</v>
       </c>
       <c r="O5">
-        <v>77.763174057006793</v>
+        <v>9.9317273355846094</v>
       </c>
       <c r="P5">
-        <v>55.076636950174901</v>
+        <v>77.8912054697672</v>
       </c>
       <c r="Q5">
-        <v>55.076636950174901</v>
+        <v>77.871232668558704</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="S5">
-        <v>327.052403767903</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="T5">
-        <v>55.324450174967403</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>55.324450174967403</v>
+        <v>334.81961059570301</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>233.76219940185501</v>
       </c>
       <c r="W5" s="1">
-        <v>42787.082557870373</v>
+        <v>233.76219940185501</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>42787.102870370371</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -22789,10 +22928,10 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -22803,55 +22942,58 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>308.98790300000002</v>
-      </c>
       <c r="K6">
-        <v>10029.5980993333</v>
+        <v>748.53876500000001</v>
       </c>
       <c r="L6">
-        <v>4078.3333333333298</v>
+        <v>23301.8221693333</v>
       </c>
       <c r="M6">
-        <v>5220.7613573333301</v>
+        <v>4634.6580000000004</v>
       </c>
       <c r="N6">
-        <v>77.741831143697098</v>
+        <v>18177.746619666599</v>
       </c>
       <c r="O6">
-        <v>77.720764478047599</v>
+        <v>17.2395652224495</v>
       </c>
       <c r="P6">
-        <v>55.031372706095297</v>
+        <v>77.938294410705495</v>
       </c>
       <c r="Q6">
-        <v>55.031372706095297</v>
+        <v>77.917217890421497</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>55.086874008178697</v>
       </c>
       <c r="S6">
-        <v>324.139078776041</v>
+        <v>55.086874008178697</v>
       </c>
       <c r="T6">
-        <v>90.085070292154896</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>90.085070292154896</v>
+        <v>332.66510518391902</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>265.34782663981099</v>
       </c>
       <c r="W6" s="1">
-        <v>42787.067106481481</v>
+        <v>265.34782663981099</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>42787.017928240741</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -22860,69 +23002,75 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>167.17022705078099</v>
       </c>
       <c r="J7">
-        <v>613.12551699999995</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>18047.370209666598</v>
+        <v>106.920519</v>
       </c>
       <c r="L7">
-        <v>4437.60433333333</v>
+        <v>3633.2681176666601</v>
       </c>
       <c r="M7">
-        <v>13147.818575666601</v>
+        <v>3163.4356666666599</v>
       </c>
       <c r="N7">
-        <v>77.942018191019599</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>77.920955975850404</v>
+        <v>5.5523586136970602</v>
       </c>
       <c r="P7">
-        <v>55.146853446960399</v>
+        <v>77.849889278411794</v>
       </c>
       <c r="Q7">
-        <v>55.146853446960399</v>
+        <v>77.828886349995898</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>52.159192244211802</v>
       </c>
       <c r="S7">
-        <v>333.39652506510402</v>
+        <v>52.159192244211802</v>
       </c>
       <c r="T7">
-        <v>229.852821350097</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>229.852821350097</v>
+        <v>0.302636464436848</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>42787.044340277775</v>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>42788.044374999998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -22931,13 +23079,13 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -22945,53 +23093,56 @@
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12</v>
       </c>
-      <c r="J8">
-        <v>748.53876500000001</v>
-      </c>
       <c r="K8">
-        <v>23301.8221693333</v>
+        <v>493.33712600000001</v>
       </c>
       <c r="L8">
-        <v>4634.6580000000004</v>
+        <v>14877.589360333301</v>
       </c>
       <c r="M8">
-        <v>18177.746619666599</v>
+        <v>5532.4423333333298</v>
       </c>
       <c r="N8">
-        <v>77.938294410705495</v>
+        <v>9079.3753973333296</v>
       </c>
       <c r="O8">
-        <v>77.917217890421497</v>
+        <v>5.8796979669290801</v>
       </c>
       <c r="P8">
-        <v>55.086874008178697</v>
+        <v>87.214162826538001</v>
       </c>
       <c r="Q8">
-        <v>55.086874008178697</v>
+        <v>87.193400700886997</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="S8">
-        <v>332.66510518391902</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="T8">
-        <v>265.34782663981099</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>265.34782663981099</v>
+        <v>331.957280476888</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>264.34123992919899</v>
       </c>
       <c r="W8" s="1">
-        <v>42787.017928240741</v>
+        <v>264.34123992919899</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>42784.764618055553</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -23002,10 +23153,10 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -23016,53 +23167,56 @@
       <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="J9">
-        <v>708.76393399999995</v>
-      </c>
       <c r="K9">
-        <v>22659.434057333299</v>
+        <v>185.88173499999999</v>
       </c>
       <c r="L9">
-        <v>4815.6136666666598</v>
+        <v>23990.6983616666</v>
       </c>
       <c r="M9">
-        <v>17673.901788666601</v>
+        <v>4544.3689999999997</v>
       </c>
       <c r="N9">
-        <v>91.413772583007798</v>
+        <v>18869.127720666602</v>
       </c>
       <c r="O9">
-        <v>91.386703491210895</v>
+        <v>50.749526602289698</v>
       </c>
       <c r="P9">
-        <v>55.131899197896303</v>
+        <v>74.012630144754993</v>
       </c>
       <c r="Q9">
-        <v>55.131899197896303</v>
+        <v>73.999267578125</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>57.034633954366001</v>
       </c>
       <c r="S9">
-        <v>332.70608520507801</v>
+        <v>57.034633954366001</v>
       </c>
       <c r="T9">
-        <v>265.07757314046199</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>265.07757314046199</v>
+        <v>330.27444966634101</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>55.174830118815102</v>
       </c>
       <c r="W9" s="1">
-        <v>42786.983483796299</v>
+        <v>55.174830118815102</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>42787.166307870371</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -23073,10 +23227,10 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -23087,70 +23241,73 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="J10">
-        <v>503.06830300000001</v>
-      </c>
       <c r="K10">
-        <v>13995.753981666599</v>
+        <v>188.74859799999999</v>
       </c>
       <c r="L10">
-        <v>4639.8729999999996</v>
+        <v>8397.4629869999899</v>
       </c>
       <c r="M10">
-        <v>9232.9647433333303</v>
+        <v>3983.2750000000001</v>
       </c>
       <c r="N10">
-        <v>77.941977183023994</v>
+        <v>3598.3213166666601</v>
       </c>
       <c r="O10">
-        <v>77.920916239420507</v>
+        <v>11.6281888694784</v>
       </c>
       <c r="P10">
-        <v>55.047109921773199</v>
+        <v>77.784231185913001</v>
       </c>
       <c r="Q10">
-        <v>55.047109921773199</v>
+        <v>77.763174057006793</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="S10">
-        <v>332.68564860025998</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="T10">
-        <v>265.04661305745401</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>265.04661305745401</v>
+        <v>327.052403767903</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>55.324450174967403</v>
       </c>
       <c r="W10" s="1">
-        <v>42786.952881944446</v>
+        <v>55.324450174967403</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>42787.082557870373</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -23158,129 +23315,138 @@
       <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11">
-        <v>470.18768899999998</v>
-      </c>
       <c r="K11">
-        <v>28609.096361333301</v>
+        <v>613.12551699999995</v>
       </c>
       <c r="L11">
-        <v>6338.7026666666598</v>
+        <v>18047.370209666598</v>
       </c>
       <c r="M11">
-        <v>20353.409704000002</v>
+        <v>4437.60433333333</v>
       </c>
       <c r="N11">
-        <v>94.478445688883397</v>
+        <v>13147.818575666601</v>
       </c>
       <c r="O11">
-        <v>94.467412312825502</v>
+        <v>13.037363097439099</v>
       </c>
       <c r="P11">
-        <v>72.034193356831807</v>
+        <v>77.942018191019599</v>
       </c>
       <c r="Q11">
-        <v>72.034193356831807</v>
+        <v>77.920955975850404</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>55.146853446960399</v>
       </c>
       <c r="S11">
-        <v>400.85721333821601</v>
+        <v>55.146853446960399</v>
       </c>
       <c r="T11">
-        <v>265.49356333414698</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>265.49356333414698</v>
+        <v>333.39652506510402</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>229.852821350097</v>
       </c>
       <c r="W11" s="1">
-        <v>42784.850914351853</v>
+        <v>229.852821350097</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>42787.044340277775</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I12">
+        <v>107.61846923828099</v>
+      </c>
+      <c r="J12">
         <v>12</v>
       </c>
-      <c r="J12">
-        <v>493.92523899999998</v>
-      </c>
       <c r="K12">
-        <v>14831.6170903333</v>
+        <v>165.87276499999999</v>
       </c>
       <c r="L12">
-        <v>5481.7956666666596</v>
+        <v>4322.7320153333303</v>
       </c>
       <c r="M12">
-        <v>9094.0929083333303</v>
+        <v>3777.9726666666602</v>
       </c>
       <c r="N12">
-        <v>77.8430840174357</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>77.830028216044099</v>
+        <v>5.0475539903528697</v>
       </c>
       <c r="P12">
-        <v>57.5911620457967</v>
+        <v>77.886843999226798</v>
       </c>
       <c r="Q12">
-        <v>57.5911620457967</v>
+        <v>77.865856488545703</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="S12">
-        <v>332.65002950032499</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="T12">
-        <v>264.98820241292299</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>264.98820241292299</v>
+        <v>0.30463663736979102</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>42784.831423611111</v>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>42787.718472222223</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -23300,61 +23466,64 @@
       <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13">
-        <v>611.76132600000005</v>
-      </c>
       <c r="K13">
-        <v>8748.5314319999907</v>
+        <v>470.18768899999998</v>
       </c>
       <c r="L13">
-        <v>4287.5306666666602</v>
+        <v>28609.096361333301</v>
       </c>
       <c r="M13">
-        <v>4153.0542333333296</v>
+        <v>6338.7026666666598</v>
       </c>
       <c r="N13">
-        <v>68.274076461791907</v>
+        <v>20353.409704000002</v>
       </c>
       <c r="O13">
-        <v>68.263064702351798</v>
+        <v>9.6972288896832897</v>
       </c>
       <c r="P13">
-        <v>48.674202601114899</v>
+        <v>94.478445688883397</v>
       </c>
       <c r="Q13">
-        <v>48.712202072143498</v>
+        <v>94.467412312825502</v>
       </c>
       <c r="R13">
-        <v>6.6936848958333304</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="S13">
-        <v>297.97898101806601</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="T13">
-        <v>277.13008626302002</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>270.65062459309797</v>
+        <v>400.85721333821601</v>
       </c>
       <c r="V13">
-        <v>6.4794616699218697</v>
+        <v>265.49356333414698</v>
       </c>
       <c r="W13" s="1">
-        <v>42784.810844907406</v>
+        <v>265.49356333414698</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>42784.850914351853</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -23371,55 +23540,58 @@
       <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="J14">
-        <v>464.87034999999997</v>
-      </c>
       <c r="K14">
-        <v>27848.789162000001</v>
+        <v>881.49761100000001</v>
       </c>
       <c r="L14">
-        <v>6453.2346666666599</v>
+        <v>11310.3826763333</v>
       </c>
       <c r="M14">
-        <v>19499.0907789999</v>
+        <v>4508.25766666666</v>
       </c>
       <c r="N14">
-        <v>94.202992757161397</v>
+        <v>6629.2864570000002</v>
       </c>
       <c r="O14">
-        <v>94.192006429036397</v>
+        <v>7.45105656677047</v>
       </c>
       <c r="P14">
-        <v>72.017903010050404</v>
+        <v>29.398180961608801</v>
       </c>
       <c r="Q14">
-        <v>72.017903010050404</v>
+        <v>29.149690628051701</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>24.739863713582299</v>
       </c>
       <c r="S14">
-        <v>400.48747253417901</v>
+        <v>25.204053243001301</v>
       </c>
       <c r="T14">
-        <v>265.19519805908197</v>
+        <v>20.3639322916666</v>
       </c>
       <c r="U14">
-        <v>265.19519805908197</v>
+        <v>298.780138651529</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>309.05771128336499</v>
       </c>
       <c r="W14" s="1">
-        <v>42784.783958333333</v>
+        <v>287.00247192382801</v>
+      </c>
+      <c r="X14">
+        <v>22.055239359537701</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>42784.671180555553</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -23431,81 +23603,87 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I15">
+        <v>106.045532226562</v>
+      </c>
+      <c r="J15">
         <v>12</v>
       </c>
-      <c r="J15">
-        <v>493.33712600000001</v>
-      </c>
       <c r="K15">
-        <v>14877.589360333301</v>
+        <v>152.724343</v>
       </c>
       <c r="L15">
-        <v>5532.4423333333298</v>
+        <v>3880.48311266666</v>
       </c>
       <c r="M15">
-        <v>9079.3753973333296</v>
+        <v>3554.3090000000002</v>
       </c>
       <c r="N15">
-        <v>87.214162826538001</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>87.193400700886997</v>
+        <v>4.75882818755671</v>
       </c>
       <c r="P15">
-        <v>57.694517135620103</v>
+        <v>77.876490910847906</v>
       </c>
       <c r="Q15">
-        <v>57.694517135620103</v>
+        <v>77.855486234029101</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="S15">
-        <v>331.957280476888</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="T15">
-        <v>264.34123992919899</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>264.34123992919899</v>
+        <v>0.2149658203125</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>42784.764618055553</v>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>42787.724999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -23513,70 +23691,73 @@
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>12</v>
       </c>
-      <c r="J16">
-        <v>612.51901799999996</v>
-      </c>
       <c r="K16">
-        <v>9397.3475803333295</v>
+        <v>308.98790300000002</v>
       </c>
       <c r="L16">
-        <v>4413.2953333333298</v>
+        <v>10029.5980993333</v>
       </c>
       <c r="M16">
-        <v>4877.8211116666598</v>
+        <v>4078.3333333333298</v>
       </c>
       <c r="N16">
-        <v>57.693611780802399</v>
+        <v>5220.7613573333301</v>
       </c>
       <c r="O16">
-        <v>57.694491704305001</v>
+        <v>15.3018194327133</v>
       </c>
       <c r="P16">
-        <v>40.229052225748603</v>
+        <v>77.741831143697098</v>
       </c>
       <c r="Q16">
-        <v>40.229052225748603</v>
+        <v>77.720764478047599</v>
       </c>
       <c r="R16">
-        <v>6.7086588541666599</v>
+        <v>55.031372706095297</v>
       </c>
       <c r="S16">
-        <v>299.267735799153</v>
+        <v>55.031372706095297</v>
       </c>
       <c r="T16">
-        <v>278.407628377278</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>271.91492207844999</v>
+        <v>324.139078776041</v>
       </c>
       <c r="V16">
-        <v>6.4927062988281197</v>
+        <v>90.085070292154896</v>
       </c>
       <c r="W16" s="1">
-        <v>42784.744120370371</v>
+        <v>90.085070292154896</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>42787.067106481481</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -23584,61 +23765,64 @@
       <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17">
-        <v>465.22402</v>
-      </c>
       <c r="K17">
-        <v>28178.655749333298</v>
+        <v>271.00085999999999</v>
       </c>
       <c r="L17">
-        <v>6212.9743333333299</v>
+        <v>7679.5815536666596</v>
       </c>
       <c r="M17">
-        <v>19960.1694756666</v>
+        <v>4127.2309999999998</v>
       </c>
       <c r="N17">
-        <v>94.600376447041796</v>
+        <v>2958.4564949999999</v>
       </c>
       <c r="O17">
-        <v>94.589071909586494</v>
+        <v>8.6171713103529299</v>
       </c>
       <c r="P17">
-        <v>72.056024233500096</v>
+        <v>77.605936368306402</v>
       </c>
       <c r="Q17">
-        <v>72.056024233500096</v>
+        <v>77.586051623026506</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>54.911797841389898</v>
       </c>
       <c r="S17">
-        <v>400.516807556152</v>
+        <v>54.911797841389898</v>
       </c>
       <c r="T17">
-        <v>265.194445292154</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>265.194445292154</v>
+        <v>335.29802703857399</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>91.604326883951799</v>
       </c>
       <c r="W17" s="1">
-        <v>42784.716446759259</v>
+        <v>91.604326883951799</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>42787.120138888888</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -23655,129 +23839,138 @@
       <c r="H18" t="s">
         <v>31</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>12</v>
       </c>
-      <c r="J18">
-        <v>637.14902099999995</v>
-      </c>
       <c r="K18">
-        <v>17015.974251</v>
+        <v>611.76132600000005</v>
       </c>
       <c r="L18">
-        <v>5659.6980000000003</v>
+        <v>8748.5314319999907</v>
       </c>
       <c r="M18">
-        <v>10990.511570333299</v>
+        <v>4287.5306666666602</v>
       </c>
       <c r="N18">
-        <v>65.388576825459694</v>
+        <v>4153.0542333333296</v>
       </c>
       <c r="O18">
-        <v>64.960927645365302</v>
+        <v>5.48965762436546</v>
       </c>
       <c r="P18">
-        <v>45.709805170694899</v>
+        <v>68.274076461791907</v>
       </c>
       <c r="Q18">
-        <v>46.028480211893701</v>
+        <v>68.263064702351798</v>
       </c>
       <c r="R18">
-        <v>8.2486979166666607</v>
+        <v>48.674202601114899</v>
       </c>
       <c r="S18">
-        <v>332.65692138671801</v>
+        <v>48.712202072143498</v>
       </c>
       <c r="T18">
-        <v>283.27962748209598</v>
+        <v>6.6936848958333304</v>
       </c>
       <c r="U18">
-        <v>274.13617451985601</v>
+        <v>297.97898101806601</v>
       </c>
       <c r="V18">
-        <v>9.1434529622395804</v>
+        <v>277.13008626302002</v>
       </c>
       <c r="W18" s="1">
-        <v>42784.697199074071</v>
+        <v>270.65062459309797</v>
+      </c>
+      <c r="X18">
+        <v>6.4794616699218697</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>42784.810844907406</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>22.9244384765625</v>
       </c>
       <c r="J19">
-        <v>881.49761100000001</v>
+        <v>15</v>
       </c>
       <c r="K19">
-        <v>11310.3826763333</v>
+        <v>186.21902600000001</v>
       </c>
       <c r="L19">
-        <v>4508.25766666666</v>
+        <v>7029.6341725000002</v>
       </c>
       <c r="M19">
-        <v>6629.2864570000002</v>
+        <v>6332.44516666666</v>
       </c>
       <c r="N19">
-        <v>29.398180961608801</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>29.149690628051701</v>
+        <v>5.4177522787324897</v>
       </c>
       <c r="P19">
-        <v>24.739863713582299</v>
+        <v>77.959028561909903</v>
       </c>
       <c r="Q19">
-        <v>25.204053243001301</v>
+        <v>77.937969207763601</v>
       </c>
       <c r="R19">
-        <v>20.3639322916666</v>
+        <v>55.0187228520711</v>
       </c>
       <c r="S19">
-        <v>298.780138651529</v>
+        <v>55.0187228520711</v>
       </c>
       <c r="T19">
-        <v>309.05771128336499</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>287.00247192382801</v>
+        <v>0.228446960449218</v>
       </c>
       <c r="V19">
-        <v>22.055239359537701</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>42784.671180555553</v>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>42788.053298611114</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -23786,137 +23979,143 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J20">
-        <v>157.224209</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>4376.2863020000004</v>
+        <v>464.87034999999997</v>
       </c>
       <c r="L20">
-        <v>3842.0509166666602</v>
+        <v>27848.789162000001</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6453.2346666666599</v>
       </c>
       <c r="N20">
-        <v>73.065608819325703</v>
+        <v>19499.090778999998</v>
       </c>
       <c r="O20">
-        <v>73.044592380523596</v>
+        <v>8.5253910388897598</v>
       </c>
       <c r="P20">
-        <v>51.708564599355</v>
+        <v>94.202992757161397</v>
       </c>
       <c r="Q20">
-        <v>51.708564599355</v>
+        <v>94.192006429036397</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>72.017903010050404</v>
       </c>
       <c r="S20">
-        <v>0.15487416585286401</v>
+        <v>72.017903010050404</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>400.48747253417901</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>265.19519805908197</v>
       </c>
       <c r="W20" s="1">
-        <v>42784.465185185189</v>
+        <v>265.19519805908197</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>42784.783958333333</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J21">
-        <v>85.359131000000005</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>4400.1153971666599</v>
+        <v>465.22402</v>
       </c>
       <c r="L21">
-        <v>3864.10883333333</v>
+        <v>28178.655749333298</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6212.9743333333299</v>
       </c>
       <c r="N21">
-        <v>79.5260648727416</v>
+        <v>19960.1694756666</v>
       </c>
       <c r="O21">
-        <v>79.499541123707999</v>
+        <v>9.3943611738931008</v>
       </c>
       <c r="P21">
-        <v>45.390266100565498</v>
+        <v>94.600376447041796</v>
       </c>
       <c r="Q21">
-        <v>45.390266100565498</v>
+        <v>94.589071909586494</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>72.056024233500096</v>
       </c>
       <c r="S21">
-        <v>8.5851033528645801E-2</v>
+        <v>72.056024233500096</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>400.516807556152</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>265.194445292154</v>
       </c>
       <c r="W21" s="1">
-        <v>42784.462743055556</v>
+        <v>265.194445292154</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>42784.716446759259</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -23925,67 +24124,70 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J22">
-        <v>152.52836199999999</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>3899.9754155000001</v>
+        <v>503.06830300000001</v>
       </c>
       <c r="L22">
-        <v>3467.40266666666</v>
+        <v>13995.753981666599</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4639.8729999999996</v>
       </c>
       <c r="N22">
-        <v>73.085580507914202</v>
+        <v>9232.9647433333303</v>
       </c>
       <c r="O22">
-        <v>73.064585049947098</v>
+        <v>9.14843960942558</v>
       </c>
       <c r="P22">
-        <v>51.670603911081898</v>
+        <v>77.941977183023994</v>
       </c>
       <c r="Q22">
-        <v>51.670603911081898</v>
+        <v>77.920916239420507</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>55.047109921773199</v>
       </c>
       <c r="S22">
-        <v>0.16150410970052001</v>
+        <v>55.047109921773199</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>332.68564860025998</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>265.04661305745401</v>
       </c>
       <c r="W22" s="1">
-        <v>42784.454768518517</v>
+        <v>265.04661305745401</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>42786.952881944446</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -24008,620 +24210,206 @@
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>71.3599853515625</v>
       </c>
       <c r="J23">
-        <v>145.048823</v>
+        <v>12</v>
       </c>
       <c r="K23">
-        <v>3175.1589233333302</v>
+        <v>166.75605200000001</v>
       </c>
       <c r="L23">
-        <v>2903.8654999999999</v>
+        <v>5161.6220366666603</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4646.2849999999999</v>
       </c>
       <c r="N23">
-        <v>72.838976224263504</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>72.8180704116821</v>
+        <v>4.2951680913126804</v>
       </c>
       <c r="P23">
-        <v>51.638188362121497</v>
+        <v>77.765992482503194</v>
       </c>
       <c r="Q23">
-        <v>51.638188362121497</v>
+        <v>77.745033264160099</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="S23">
-        <v>0.16340382893880201</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.21638743082682199</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>42784.449328703704</v>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>42787.730520833335</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>152.406543</v>
+        <v>12</v>
       </c>
       <c r="K24">
-        <v>3482.2675573333299</v>
+        <v>637.14902099999995</v>
       </c>
       <c r="L24">
-        <v>3010.1038333333299</v>
+        <v>17015.974251</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5659.6980000000003</v>
       </c>
       <c r="N24">
-        <v>72.791112581888797</v>
+        <v>10990.511570333299</v>
       </c>
       <c r="O24">
-        <v>72.770276069641099</v>
+        <v>8.2777348951934702</v>
       </c>
       <c r="P24">
-        <v>51.673736254374099</v>
+        <v>65.388576825459694</v>
       </c>
       <c r="Q24">
-        <v>51.673736254374099</v>
+        <v>64.960927645365302</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>45.709805170694899</v>
       </c>
       <c r="S24">
-        <v>0.21148173014322899</v>
+        <v>46.028480211893701</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>8.2486979166666607</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>332.65692138671801</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>283.27962748209598</v>
       </c>
       <c r="W24" s="1">
-        <v>42784.443009259259</v>
+        <v>274.13617451985601</v>
+      </c>
+      <c r="X24">
+        <v>9.1434529622395804</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>42784.697199074071</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J25">
-        <v>153.80130600000001</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>3330.8259671666601</v>
+        <v>493.92523899999998</v>
       </c>
       <c r="L25">
-        <v>2888.7510000000002</v>
+        <v>14831.6170903333</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5481.7956666666596</v>
       </c>
       <c r="N25">
-        <v>72.915160655975299</v>
+        <v>9094.0929083333303</v>
       </c>
       <c r="O25">
-        <v>72.894261201222704</v>
+        <v>5.9677286855080602</v>
       </c>
       <c r="P25">
-        <v>51.681187947591098</v>
+        <v>77.8430840174357</v>
       </c>
       <c r="Q25">
-        <v>51.681187947591098</v>
+        <v>77.830028216044099</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>57.5911620457967</v>
       </c>
       <c r="S25">
-        <v>0.20602798461913999</v>
+        <v>57.5911620457967</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>332.65002950032499</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>264.98820241292299</v>
       </c>
       <c r="W25" s="1">
-        <v>42784.436354166668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>16.923534</v>
-      </c>
-      <c r="K26">
-        <v>1960.536699</v>
-      </c>
-      <c r="L26">
-        <v>1842.5</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>4.8023452758789</v>
-      </c>
-      <c r="O26">
-        <v>4.8023147583007804</v>
-      </c>
-      <c r="P26">
-        <v>3.3684717814127598</v>
-      </c>
-      <c r="Q26">
-        <v>3.3684717814127598</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>8.5296630859375E-2</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>42784.429120370369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>16.193929000000001</v>
-      </c>
-      <c r="K27">
-        <v>1441.6174553333301</v>
-      </c>
-      <c r="L27">
-        <v>1350.6576666666599</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>4.8023478190104099</v>
-      </c>
-      <c r="O27">
-        <v>4.8023173014322902</v>
-      </c>
-      <c r="P27">
-        <v>3.36846923828125</v>
-      </c>
-      <c r="Q27">
-        <v>3.36846923828125</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>6.1248779296875E-2</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <v>42784.413807870369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>13.209739000000001</v>
-      </c>
-      <c r="K28">
-        <v>1136.3868990000001</v>
-      </c>
-      <c r="L28">
-        <v>1053.19133333333</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>4.8023452758789</v>
-      </c>
-      <c r="O28">
-        <v>4.8023147583007804</v>
-      </c>
-      <c r="P28">
-        <v>3.3684717814127598</v>
-      </c>
-      <c r="Q28">
-        <v>3.3684717814127598</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>5.99517822265625E-2</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <v>42784.402581018519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>5.7269110000000003</v>
-      </c>
-      <c r="K29">
-        <v>607.523002666666</v>
-      </c>
-      <c r="L29">
-        <v>549.38300000000004</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>4.8023351033528598</v>
-      </c>
-      <c r="O29">
-        <v>4.8023045857747304</v>
-      </c>
-      <c r="P29">
-        <v>3.3684981664021798</v>
-      </c>
-      <c r="Q29">
-        <v>3.3684981664021798</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>4.5511881510416602E-2</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <v>42784.391550925924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>13.038498000000001</v>
-      </c>
-      <c r="K30">
-        <v>715.83169699999996</v>
-      </c>
-      <c r="L30">
-        <v>662.70333333333303</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>4.8023452758789</v>
-      </c>
-      <c r="O30">
-        <v>4.8023147583007804</v>
-      </c>
-      <c r="P30">
-        <v>3.3684819539388</v>
-      </c>
-      <c r="Q30">
-        <v>3.3684819539388</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0.105013529459635</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <v>42784.381620370368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>13.556728</v>
-      </c>
-      <c r="K31">
-        <v>615.29114833333301</v>
-      </c>
-      <c r="L31">
-        <v>570.97900000000004</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>4.8023452758789</v>
-      </c>
-      <c r="O31">
-        <v>4.8023147583007804</v>
-      </c>
-      <c r="P31">
-        <v>3.3684768676757799</v>
-      </c>
-      <c r="Q31">
-        <v>3.3684768676757799</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0.10626729329427</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1">
-        <v>42784.367071759261</v>
+        <v>264.98820241292299</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>42784.831423611111</v>
       </c>
     </row>
   </sheetData>

--- a/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
+++ b/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="6915" tabRatio="895" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="6915" tabRatio="895" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PGA_PER_RUN" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
     <pivotCache cacheId="1" r:id="rId17"/>
     <pivotCache cacheId="2" r:id="rId18"/>
   </pivotCaches>
@@ -4498,6 +4498,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4560,6 +4561,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4597,7 +4599,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4672,6 +4676,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4843,6 +4848,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8794,7 +8800,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21885,7 +21891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -22073,7 +22079,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -22203,7 +22209,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -24723,7 +24729,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24906,7 +24912,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -24915,78 +24921,75 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <v>167.17022705078099</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>167.03177700000001</v>
+        <v>485.57438000000002</v>
       </c>
       <c r="L3">
-        <v>4000.0385676666601</v>
+        <v>14529.2165133333</v>
       </c>
       <c r="M3">
-        <v>3495.00966666666</v>
+        <v>4408.1783333333296</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9724.4467249999998</v>
       </c>
       <c r="O3">
-        <v>5.5521436442480399</v>
+        <v>9.9317273355846094</v>
       </c>
       <c r="P3">
-        <v>77.8040663401285</v>
+        <v>77.8912054697672</v>
       </c>
       <c r="Q3">
-        <v>77.783096949259402</v>
+        <v>77.871232668558704</v>
       </c>
       <c r="R3">
-        <v>55.057918866475397</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="S3">
-        <v>55.057918866475397</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.30892690022786401</v>
+        <v>334.81961059570301</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>233.76219940185501</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>233.76219940185501</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>42787.712083333332</v>
+        <v>42787.102870370371</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -24995,84 +24998,87 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>50.7945556640625</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>612.51901799999996</v>
+        <v>178.02385799999999</v>
       </c>
       <c r="L4">
-        <v>9397.3475803333295</v>
+        <v>6048.8961513333297</v>
       </c>
       <c r="M4">
-        <v>4413.2953333333298</v>
+        <v>5406.40016666666</v>
       </c>
       <c r="N4">
-        <v>4877.8211116666598</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5.8093719300183304</v>
+        <v>4.7963995701968196</v>
       </c>
       <c r="P4">
-        <v>57.693611780802399</v>
+        <v>77.835414091746003</v>
       </c>
       <c r="Q4">
-        <v>57.694491704305001</v>
+        <v>77.814441521962394</v>
       </c>
       <c r="R4">
-        <v>40.229052225748603</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="S4">
-        <v>40.229052225748603</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="T4">
-        <v>6.7086588541666599</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>299.267735799153</v>
+        <v>0.20602925618489501</v>
       </c>
       <c r="V4">
-        <v>278.407628377278</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>271.91492207844999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>6.4927062988281197</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>42784.744120370371</v>
+        <v>42787.74287037037</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -25084,49 +25090,49 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>485.57438000000002</v>
+        <v>612.51901799999996</v>
       </c>
       <c r="L5">
-        <v>14529.2165133333</v>
+        <v>9397.3475803333295</v>
       </c>
       <c r="M5">
-        <v>4408.1783333333296</v>
+        <v>4413.2953333333298</v>
       </c>
       <c r="N5">
-        <v>9724.4467249999998</v>
+        <v>4877.8211116666598</v>
       </c>
       <c r="O5">
-        <v>9.9317273355846094</v>
+        <v>5.8093719300183304</v>
       </c>
       <c r="P5">
-        <v>77.8912054697672</v>
+        <v>57.693611780802399</v>
       </c>
       <c r="Q5">
-        <v>77.871232668558704</v>
+        <v>57.694491704305001</v>
       </c>
       <c r="R5">
-        <v>55.098821640014599</v>
+        <v>40.229052225748603</v>
       </c>
       <c r="S5">
-        <v>55.098821640014599</v>
+        <v>40.229052225748603</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6.7086588541666599</v>
       </c>
       <c r="U5">
-        <v>334.81961059570301</v>
+        <v>299.267735799153</v>
       </c>
       <c r="V5">
-        <v>233.76219940185501</v>
+        <v>278.407628377278</v>
       </c>
       <c r="W5" s="1">
-        <v>233.76219940185501</v>
+        <v>271.91492207844999</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>6.4927062988281197</v>
       </c>
       <c r="Y5" s="1">
-        <v>42787.102870370371</v>
+        <v>42784.744120370371</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -25152,58 +25158,58 @@
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6">
-        <v>107.61846923828099</v>
+        <v>167.17022705078099</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>165.87276499999999</v>
+        <v>100.126684</v>
       </c>
       <c r="L6">
-        <v>4322.7320153333303</v>
+        <v>4253.4650554444397</v>
       </c>
       <c r="M6">
-        <v>3777.9726666666602</v>
+        <v>3034.97788888888</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>730.23036744444403</v>
       </c>
       <c r="O6">
-        <v>5.0475539903528697</v>
+        <v>6.8821622377635796</v>
       </c>
       <c r="P6">
-        <v>77.886843999226798</v>
+        <v>77.877931276957099</v>
       </c>
       <c r="Q6">
-        <v>77.865856488545703</v>
+        <v>77.856909328036807</v>
       </c>
       <c r="R6">
-        <v>55.047806104024197</v>
+        <v>50.660019768608898</v>
       </c>
       <c r="S6">
-        <v>55.047806104024197</v>
+        <v>50.660019768608898</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.30463663736979102</v>
+        <v>10.7482393052842</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>6.8144709269205697</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>6.8144709269205697</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>42787.718472222223</v>
+        <v>42789.446053240739</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -25282,7 +25288,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -25291,13 +25297,13 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -25309,49 +25315,49 @@
         <v>12</v>
       </c>
       <c r="K8">
-        <v>188.74859799999999</v>
+        <v>493.33712600000001</v>
       </c>
       <c r="L8">
-        <v>8397.4629869999899</v>
+        <v>14877.589360333301</v>
       </c>
       <c r="M8">
-        <v>3983.2750000000001</v>
+        <v>5532.4423333333298</v>
       </c>
       <c r="N8">
-        <v>3598.3213166666601</v>
+        <v>9079.3753973333296</v>
       </c>
       <c r="O8">
-        <v>11.6281888694784</v>
+        <v>5.8796979669290801</v>
       </c>
       <c r="P8">
-        <v>77.784231185913001</v>
+        <v>87.214162826538001</v>
       </c>
       <c r="Q8">
-        <v>77.763174057006793</v>
+        <v>87.193400700886997</v>
       </c>
       <c r="R8">
-        <v>55.076636950174901</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="S8">
-        <v>55.076636950174901</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>327.052403767903</v>
+        <v>331.957280476888</v>
       </c>
       <c r="V8">
-        <v>55.324450174967403</v>
+        <v>264.34123992919899</v>
       </c>
       <c r="W8" s="1">
-        <v>55.324450174967403</v>
+        <v>264.34123992919899</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>42787.082557870373</v>
+        <v>42784.764618055553</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -25430,7 +25436,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -25439,13 +25445,13 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -25457,49 +25463,49 @@
         <v>12</v>
       </c>
       <c r="K10">
-        <v>493.33712600000001</v>
+        <v>188.74859799999999</v>
       </c>
       <c r="L10">
-        <v>14877.589360333301</v>
+        <v>8397.4629869999899</v>
       </c>
       <c r="M10">
-        <v>5532.4423333333298</v>
+        <v>3983.2750000000001</v>
       </c>
       <c r="N10">
-        <v>9079.3753973333296</v>
+        <v>3598.3213166666601</v>
       </c>
       <c r="O10">
-        <v>5.8796979669290801</v>
+        <v>11.6281888694784</v>
       </c>
       <c r="P10">
-        <v>87.214162826538001</v>
+        <v>77.784231185913001</v>
       </c>
       <c r="Q10">
-        <v>87.193400700886997</v>
+        <v>77.763174057006793</v>
       </c>
       <c r="R10">
-        <v>57.694517135620103</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="S10">
-        <v>57.694517135620103</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>331.957280476888</v>
+        <v>327.052403767903</v>
       </c>
       <c r="V10">
-        <v>264.34123992919899</v>
+        <v>55.324450174967403</v>
       </c>
       <c r="W10" s="1">
-        <v>264.34123992919899</v>
+        <v>55.324450174967403</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>42784.764618055553</v>
+        <v>42787.082557870373</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -25732,79 +25738,76 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14">
-        <v>106.144165039062</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
       <c r="K14">
-        <v>152.724343</v>
+        <v>470.18768899999998</v>
       </c>
       <c r="L14">
-        <v>3880.48311266666</v>
+        <v>28609.096361333301</v>
       </c>
       <c r="M14">
-        <v>3554.3090000000002</v>
+        <v>6338.7026666666598</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>20353.409704000002</v>
       </c>
       <c r="O14">
-        <v>4.75882818755671</v>
+        <v>9.6972288896832897</v>
       </c>
       <c r="P14">
-        <v>77.876490910847906</v>
+        <v>94.478445688883397</v>
       </c>
       <c r="Q14">
-        <v>77.855486234029101</v>
+        <v>94.467412312825502</v>
       </c>
       <c r="R14">
-        <v>55.063335736592599</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="S14">
-        <v>55.063335736592599</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.2149658203125</v>
+        <v>400.85721333821601</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>265.49356333414698</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>265.49356333414698</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>42787.724999999999</v>
+        <v>42784.850914351853</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -25812,10 +25815,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -25836,123 +25839,126 @@
         <v>12</v>
       </c>
       <c r="K15">
-        <v>470.18768899999998</v>
+        <v>881.49761100000001</v>
       </c>
       <c r="L15">
-        <v>28609.096361333301</v>
+        <v>11310.3826763333</v>
       </c>
       <c r="M15">
-        <v>6338.7026666666598</v>
+        <v>4508.25766666666</v>
       </c>
       <c r="N15">
-        <v>20353.409704000002</v>
+        <v>6629.2864570000002</v>
       </c>
       <c r="O15">
-        <v>9.6972288896832897</v>
+        <v>7.45105656677047</v>
       </c>
       <c r="P15">
-        <v>94.478445688883397</v>
+        <v>29.398180961608801</v>
       </c>
       <c r="Q15">
-        <v>94.467412312825502</v>
+        <v>29.149690628051701</v>
       </c>
       <c r="R15">
-        <v>72.034193356831807</v>
+        <v>24.739863713582299</v>
       </c>
       <c r="S15">
-        <v>72.034193356831807</v>
+        <v>25.204053243001301</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>20.3639322916666</v>
       </c>
       <c r="U15">
-        <v>400.85721333821601</v>
+        <v>298.780138651529</v>
       </c>
       <c r="V15">
-        <v>265.49356333414698</v>
+        <v>309.05771128336499</v>
       </c>
       <c r="W15" s="1">
-        <v>265.49356333414698</v>
+        <v>287.00247192382801</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>22.055239359537701</v>
       </c>
       <c r="Y15" s="1">
-        <v>42784.850914351853</v>
+        <v>42784.671180555553</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>107.61846923828099</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16">
-        <v>881.49761100000001</v>
+        <v>165.87276499999999</v>
       </c>
       <c r="L16">
-        <v>11310.3826763333</v>
+        <v>4322.7320153333303</v>
       </c>
       <c r="M16">
-        <v>4508.25766666666</v>
+        <v>3777.9726666666602</v>
       </c>
       <c r="N16">
-        <v>6629.2864570000002</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>7.45105656677047</v>
+        <v>5.0475539903528697</v>
       </c>
       <c r="P16">
-        <v>29.398180961608801</v>
+        <v>77.886843999226798</v>
       </c>
       <c r="Q16">
-        <v>29.149690628051701</v>
+        <v>77.865856488545703</v>
       </c>
       <c r="R16">
-        <v>24.739863713582299</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="S16">
-        <v>25.204053243001301</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="T16">
-        <v>20.3639322916666</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>298.780138651529</v>
+        <v>0.30463663736979102</v>
       </c>
       <c r="V16">
-        <v>309.05771128336499</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>287.00247192382801</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>22.055239359537701</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>42784.671180555553</v>
+        <v>42787.718472222223</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -26523,7 +26529,7 @@
         <v>6453.2346666666599</v>
       </c>
       <c r="N24">
-        <v>19499.090778999998</v>
+        <v>19499.0907789999</v>
       </c>
       <c r="O24">
         <v>8.5253910388897598</v>
@@ -26561,10 +26567,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -26582,46 +26588,46 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I25">
-        <v>71.3599853515625</v>
+        <v>167.17022705078099</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>166.75605200000001</v>
+        <v>350.46481599999998</v>
       </c>
       <c r="L25">
-        <v>5161.6220366666603</v>
+        <v>8512.1674330000005</v>
       </c>
       <c r="M25">
-        <v>4646.2849999999999</v>
+        <v>544.02800000000002</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.2951680913126804</v>
+        <v>35.431200011764098</v>
       </c>
       <c r="P25">
-        <v>77.765992482503194</v>
+        <v>3.9409990310668901</v>
       </c>
       <c r="Q25">
-        <v>77.745033264160099</v>
+        <v>3.9409732818603498</v>
       </c>
       <c r="R25">
-        <v>55.008593559265101</v>
+        <v>2.8173666000366202</v>
       </c>
       <c r="S25">
-        <v>55.008593559265101</v>
+        <v>2.8173666000366202</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.21638743082682199</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -26633,15 +26639,15 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>42787.730520833335</v>
+        <v>42789.43954861111</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -26659,46 +26665,46 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I26">
-        <v>167.17022705078099</v>
+        <v>22.9244384765625</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K26">
-        <v>350.46481599999998</v>
+        <v>186.21902600000001</v>
       </c>
       <c r="L26">
-        <v>8512.1674330000005</v>
+        <v>7029.6341725000002</v>
       </c>
       <c r="M26">
-        <v>544.02800000000002</v>
+        <v>6332.44516666666</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>35.431200011764098</v>
+        <v>5.4177522787324897</v>
       </c>
       <c r="P26">
-        <v>3.9409990310668901</v>
+        <v>77.959028561909903</v>
       </c>
       <c r="Q26">
-        <v>3.9409732818603498</v>
+        <v>77.937969207763601</v>
       </c>
       <c r="R26">
-        <v>2.8173666000366202</v>
+        <v>55.0187228520711</v>
       </c>
       <c r="S26">
-        <v>2.8173666000366202</v>
+        <v>55.0187228520711</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.228446960449218</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -26710,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>42789.43954861111</v>
+        <v>42788.053298611114</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -27035,46 +27041,46 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I31">
-        <v>50.7945556640625</v>
+        <v>71.3599853515625</v>
       </c>
       <c r="J31">
         <v>12</v>
       </c>
       <c r="K31">
-        <v>178.02385799999999</v>
+        <v>166.75605200000001</v>
       </c>
       <c r="L31">
-        <v>5901.7160839999997</v>
+        <v>5161.6220366666603</v>
       </c>
       <c r="M31">
-        <v>5302.5443333333296</v>
+        <v>4646.2849999999999</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>4.5338608065824104</v>
+        <v>4.2951680913126804</v>
       </c>
       <c r="P31">
-        <v>77.843435923258397</v>
+        <v>77.765992482503194</v>
       </c>
       <c r="Q31">
-        <v>77.822463353474902</v>
+        <v>77.745033264160099</v>
       </c>
       <c r="R31">
-        <v>55.011365254719998</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="S31">
-        <v>55.011365254719998</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0.20602925618489501</v>
+        <v>0.21638743082682199</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -27086,7 +27092,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>42787.736539351848</v>
+        <v>42787.730520833335</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -27165,10 +27171,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -27192,40 +27198,40 @@
         <v>106.144165039062</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K33">
-        <v>105.683145</v>
+        <v>152.724343</v>
       </c>
       <c r="L33">
-        <v>952.86751000000004</v>
+        <v>3880.48311266666</v>
       </c>
       <c r="M33">
-        <v>887.55600000000004</v>
+        <v>3554.3090000000002</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>13.3142738279703</v>
+        <v>4.75882818755671</v>
       </c>
       <c r="P33">
-        <v>14.484203338623001</v>
+        <v>77.876490910847906</v>
       </c>
       <c r="Q33">
-        <v>14.490001678466699</v>
+        <v>77.855486234029101</v>
       </c>
       <c r="R33">
-        <v>12.5806818008422</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="S33">
-        <v>12.5806818008422</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.176841735839843</v>
+        <v>0.2149658203125</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -27237,15 +27243,15 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>42789.136192129627</v>
+        <v>42787.724999999999</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -27263,46 +27269,46 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I34">
-        <v>22.9244384765625</v>
+        <v>106.144165039062</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>188.64246700000001</v>
+        <v>60.930115000000001</v>
       </c>
       <c r="L34">
-        <v>7108.0410153333296</v>
+        <v>361.13536099999999</v>
       </c>
       <c r="M34">
-        <v>6369.0533333333296</v>
+        <v>356.96499999999997</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>5.1626888649082598</v>
+        <v>5.2913690838037297</v>
       </c>
       <c r="P34">
-        <v>77.959028561909903</v>
+        <v>7.3808956146240199</v>
       </c>
       <c r="Q34">
-        <v>77.937969207763601</v>
+        <v>7.3808956146240199</v>
       </c>
       <c r="R34">
-        <v>55.019101778666098</v>
+        <v>6.2362079620361301</v>
       </c>
       <c r="S34">
-        <v>55.019101778666098</v>
+        <v>6.2362079620361301</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.228279113769531</v>
+        <v>2.7137756347656201E-2</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -27314,7 +27320,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>42788.053298611114</v>
+        <v>42789.439606481479</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -27322,7 +27328,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -27346,40 +27352,40 @@
         <v>106.144165039062</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>60.930115000000001</v>
+        <v>105.683145</v>
       </c>
       <c r="L35">
-        <v>361.13536099999999</v>
+        <v>952.86751000000004</v>
       </c>
       <c r="M35">
-        <v>356.96499999999997</v>
+        <v>887.55600000000004</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>5.2913690838037297</v>
+        <v>13.3142738279703</v>
       </c>
       <c r="P35">
-        <v>7.3808956146240199</v>
+        <v>14.484203338623001</v>
       </c>
       <c r="Q35">
-        <v>7.3808956146240199</v>
+        <v>14.490001678466699</v>
       </c>
       <c r="R35">
-        <v>6.2362079620361301</v>
+        <v>12.5806818008422</v>
       </c>
       <c r="S35">
-        <v>6.2362079620361301</v>
+        <v>12.5806818008422</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>2.7137756347656201E-2</v>
+        <v>0.176841735839843</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -27391,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>42789.439606481479</v>
+        <v>42789.136192129627</v>
       </c>
     </row>
   </sheetData>
@@ -27406,7 +27412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
+++ b/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="6915" tabRatio="895" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="6915" tabRatio="895" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PGA_PER_RUN" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,14 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
-    <sheet name="Raw Data Per Experiment" sheetId="5" r:id="rId12"/>
-    <sheet name="Raw Data Per Run" sheetId="1" r:id="rId13"/>
-    <sheet name="Sheet7" sheetId="17" r:id="rId14"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="22" r:id="rId12"/>
+    <sheet name="Raw Data Per Experiment" sheetId="5" r:id="rId13"/>
+    <sheet name="Raw Data Per Run" sheetId="1" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
+    <sheet name="STATEMENT_QUEUING" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet5" sheetId="20" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer__PGA_MAX_SIZE">#N/A</definedName>
@@ -47,6 +51,7 @@
     <definedName name="Slicer_MODULE3">#N/A</definedName>
     <definedName name="Slicer_MODULE4">#N/A</definedName>
     <definedName name="Slicer_MODULE5">#N/A</definedName>
+    <definedName name="Slicer_MODULE6">#N/A</definedName>
     <definedName name="Slicer_PARALLEL_DEGREE_POLICY">#N/A</definedName>
     <definedName name="Slicer_PARALLEL_DEGREE_POLICY1">#N/A</definedName>
     <definedName name="Slicer_PARALLEL_DEGREE_POLICY2">#N/A</definedName>
@@ -56,19 +61,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
-    <pivotCache cacheId="2" r:id="rId18"/>
+    <pivotCache cacheId="59" r:id="rId20"/>
+    <pivotCache cacheId="52" r:id="rId21"/>
+    <pivotCache cacheId="55" r:id="rId22"/>
+    <pivotCache cacheId="58" r:id="rId23"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId19"/>
-        <x14:slicerCache r:id="rId20"/>
-        <x14:slicerCache r:id="rId21"/>
-        <x14:slicerCache r:id="rId22"/>
-        <x14:slicerCache r:id="rId23"/>
         <x14:slicerCache r:id="rId24"/>
         <x14:slicerCache r:id="rId25"/>
         <x14:slicerCache r:id="rId26"/>
@@ -88,6 +88,12 @@
         <x14:slicerCache r:id="rId40"/>
         <x14:slicerCache r:id="rId41"/>
         <x14:slicerCache r:id="rId42"/>
+        <x14:slicerCache r:id="rId43"/>
+        <x14:slicerCache r:id="rId44"/>
+        <x14:slicerCache r:id="rId45"/>
+        <x14:slicerCache r:id="rId46"/>
+        <x14:slicerCache r:id="rId47"/>
+        <x14:slicerCache r:id="rId48"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -101,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="106">
   <si>
     <t>MODULE</t>
   </si>
@@ -402,6 +408,24 @@
   <si>
     <t>4 - In-Memory</t>
   </si>
+  <si>
+    <t>EXPERIMENT_DURATION_SEC</t>
+  </si>
+  <si>
+    <t>TOTAL_QUERIES</t>
+  </si>
+  <si>
+    <t>Sum of EXPERIMENT_DURATION_SEC</t>
+  </si>
+  <si>
+    <t>Statement Queuing</t>
+  </si>
+  <si>
+    <t>No Statement Queuing</t>
+  </si>
+  <si>
+    <t>Average of AVERAGE_CEI</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -447,6 +471,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,11 +695,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1504758256"/>
-        <c:axId val="-1504757712"/>
+        <c:axId val="2117854016"/>
+        <c:axId val="2117850208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1504758256"/>
+        <c:axId val="2117854016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504757712"/>
+        <c:crossAx val="2117850208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1504757712"/>
+        <c:axId val="2117850208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504758256"/>
+        <c:crossAx val="2117854016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,8 +1200,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1504761520"/>
-        <c:axId val="-1504759344"/>
+        <c:axId val="2117847488"/>
+        <c:axId val="2117846944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1313,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1504765872"/>
-        <c:axId val="-1504764784"/>
+        <c:axId val="2117844224"/>
+        <c:axId val="2117839872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1504765872"/>
+        <c:axId val="2117844224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504764784"/>
+        <c:crossAx val="2117839872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1504764784"/>
+        <c:axId val="2117839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,12 +1501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504765872"/>
+        <c:crossAx val="2117844224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1504759344"/>
+        <c:axId val="2117846944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,12 +1598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504761520"/>
+        <c:crossAx val="2117847488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1504761520"/>
+        <c:axId val="2117847488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1504759344"/>
+        <c:crossAx val="2117846944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,11 +1838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1504760976"/>
-        <c:axId val="-1504757168"/>
+        <c:axId val="2117849664"/>
+        <c:axId val="2068781968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1504760976"/>
+        <c:axId val="2117849664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504757168"/>
+        <c:crossAx val="2068781968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1504757168"/>
+        <c:axId val="2068781968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504760976"/>
+        <c:crossAx val="2117849664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,8 +2484,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1209976816"/>
-        <c:axId val="-1504758800"/>
+        <c:axId val="160926096"/>
+        <c:axId val="160936432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2597,11 +2624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1504762608"/>
-        <c:axId val="-1504759888"/>
+        <c:axId val="160935344"/>
+        <c:axId val="160925552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1504762608"/>
+        <c:axId val="160935344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504759888"/>
+        <c:crossAx val="160925552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2652,7 +2679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1504759888"/>
+        <c:axId val="160925552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,12 +2785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1504762608"/>
+        <c:crossAx val="160935344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1504758800"/>
+        <c:axId val="160936432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2856,12 +2883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209976816"/>
+        <c:crossAx val="160926096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1209976816"/>
+        <c:axId val="160926096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1504758800"/>
+        <c:crossAx val="160936432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3241,8 +3268,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1209980624"/>
-        <c:axId val="-1209983344"/>
+        <c:axId val="160931536"/>
+        <c:axId val="160930992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3360,11 +3387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1209982256"/>
-        <c:axId val="-1209975728"/>
+        <c:axId val="160937520"/>
+        <c:axId val="160934256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1209982256"/>
+        <c:axId val="160937520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209975728"/>
+        <c:crossAx val="160934256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3415,7 +3442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1209975728"/>
+        <c:axId val="160934256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,12 +3548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209982256"/>
+        <c:crossAx val="160937520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1209983344"/>
+        <c:axId val="160930992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3619,12 +3646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209980624"/>
+        <c:crossAx val="160931536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1209980624"/>
+        <c:axId val="160931536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1209983344"/>
+        <c:crossAx val="160930992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3776,7 +3803,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3974,8 +4000,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1209989328"/>
-        <c:axId val="-1209981168"/>
+        <c:axId val="160939152"/>
+        <c:axId val="160938608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4066,7 +4092,7 @@
                   <c:v>178.02385799999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.64246700000001</c:v>
+                  <c:v>107.527756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,11 +4109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1209987152"/>
-        <c:axId val="-1209982800"/>
+        <c:axId val="160938064"/>
+        <c:axId val="160927184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1209987152"/>
+        <c:axId val="160938064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,7 +4156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209982800"/>
+        <c:crossAx val="160927184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4138,7 +4164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1209982800"/>
+        <c:axId val="160927184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4210,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4245,12 +4270,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209987152"/>
+        <c:crossAx val="160938064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1209981168"/>
+        <c:axId val="160938608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -4283,7 +4308,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4344,12 +4368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209989328"/>
+        <c:crossAx val="160939152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1209989328"/>
+        <c:axId val="160939152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1209981168"/>
+        <c:crossAx val="160938608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4376,7 +4400,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4747,11 +4770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1209981712"/>
-        <c:axId val="-1209985520"/>
+        <c:axId val="160940240"/>
+        <c:axId val="160940784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1209981712"/>
+        <c:axId val="160940240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4794,7 +4817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209985520"/>
+        <c:crossAx val="160940784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4802,7 +4825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1209985520"/>
+        <c:axId val="160940784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4909,7 +4932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1209981712"/>
+        <c:crossAx val="160940240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4956,6 +4979,856 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Capstone Resource Usage Analytics.xlsx]Sheet8!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet8!$A$2:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2/18/2017 16:06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2/18/2017 16:43</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2/18/2017 17:11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2/18/2017 17:51</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2/18/2017 18:21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2/18/2017 18:48</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2/18/2017 19:27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2/18/2017 19:57</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2/18/2017 20:25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2/20/2017 22:52</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2/20/2017 23:36</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2/21/2017 0:25</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2/21/2017 1:03</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2/21/2017 1:36</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2/21/2017 1:58</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2/21/2017 2:28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2/21/2017 2:53</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2/21/2017 3:59</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2/21/2017 17:05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2/21/2017 17:14</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2/21/2017 17:24</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2/21/2017 17:31</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2/21/2017 17:40</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2/21/2017 17:45</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PGA_EXPERIMENT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>DB_BIG_TABLE_CACHE_EXPERIMENT</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>IMCS_EXPERIMENT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.20780384008904099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.234238289406619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15712820811538999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.244849341636176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.275125393618258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19353204490855999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25266590807558098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26477991806519502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18023369703134701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.157934938766046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12872739254320301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.111366319436062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.122061793913435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40542358290619201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.468955472243203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15540076448357401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43561637631280897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58015925933102097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37788490081870502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44501958748028703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65812041843439495</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62330167308988504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63696031603805103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93403962658939399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="197197152"/>
+        <c:axId val="197198784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197197152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197198784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197198784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197197152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Capstone Resource Usage Analytics.xlsx]Sheet5!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statement Queuing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No Statement Queuing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Statement Queuing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8031.5235830000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1237.396626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="197192800"/>
+        <c:axId val="197193344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197192800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197193344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197193344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197192800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -5203,6 +6076,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8763,6 +9716,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -8808,6 +10767,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -9508,6 +11478,140 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="MODULE 6"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="MODULE 6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10506075" y="2609850"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664907" cy="6290765"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10772,7 +12876,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42789.708176851855" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="34">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42790.072267592594" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="34">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -10851,15 +12955,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="INMEMORY_SIZE_GB" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="22.9244384765625" maxValue="167.17022705078099" count="7">
-        <m/>
-        <n v="50.7945556640625"/>
-        <n v="167.17022705078099"/>
-        <n v="106.144165039062"/>
-        <n v="107.61846923828099"/>
-        <n v="22.9244384765625"/>
-        <n v="71.3599853515625"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="22.9244384765625" maxValue="167.17022705078099"/>
     </cacheField>
     <cacheField name="TOTAL_RUNS" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
@@ -10877,7 +12973,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20353.409704000002"/>
     </cacheField>
     <cacheField name="AVERAGE_CEI" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2951680913126804" maxValue="386.23888455342001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5890712716722499E-3" maxValue="0.93403962658939399"/>
     </cacheField>
     <cacheField name="TOTAL_WORK_AREA_SIZE_GB" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.19708251953125" maxValue="94.600376447041796"/>
@@ -10907,7 +13003,41 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="22.055239359537701"/>
     </cacheField>
     <cacheField name="MAX_SQL_EXEC_START" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-02-18T16:06:30" maxDate="2017-02-23T10:33:02"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-02-18T16:06:30" maxDate="2017-02-23T10:33:02" count="33">
+        <d v="2017-02-20T23:36:13"/>
+        <d v="2017-02-21T17:40:37"/>
+        <d v="2017-02-18T17:51:32"/>
+        <d v="2017-02-21T02:28:08"/>
+        <d v="2017-02-21T17:05:24"/>
+        <d v="2017-02-21T00:25:49"/>
+        <d v="2017-02-21T01:58:53"/>
+        <d v="2017-02-21T03:59:29"/>
+        <d v="2017-02-18T18:21:03"/>
+        <d v="2017-02-23T10:32:42"/>
+        <d v="2017-02-21T01:03:51"/>
+        <d v="2017-02-23T04:20:02"/>
+        <d v="2017-02-21T17:14:36"/>
+        <d v="2017-02-18T20:25:19"/>
+        <d v="2017-02-18T16:06:30"/>
+        <d v="2017-02-21T01:36:38"/>
+        <d v="2017-02-21T02:53:00"/>
+        <d v="2017-02-23T04:12:59"/>
+        <d v="2017-02-23T04:13:22"/>
+        <d v="2017-02-18T19:27:37"/>
+        <d v="2017-02-23T04:25:12"/>
+        <d v="2017-02-21T17:45:17"/>
+        <d v="2017-02-18T18:48:54"/>
+        <d v="2017-02-23T10:32:57"/>
+        <d v="2017-02-18T17:11:41"/>
+        <d v="2017-02-23T04:20:04"/>
+        <d v="2017-02-20T22:52:09"/>
+        <d v="2017-02-21T17:31:57"/>
+        <d v="2017-02-18T16:43:58"/>
+        <d v="2017-02-18T19:57:15"/>
+        <d v="2017-02-21T17:24:00"/>
+        <d v="2017-02-23T03:16:07"/>
+        <d v="2017-02-23T10:33:02"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -10919,7 +13049,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42789.708177430555" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="341">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42790.07226828704" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="341">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -11070,7 +13200,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42789.744764814815" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42790.072271412035" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -11167,6 +13297,35 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sand, Kirby (IHPS Corvallis)" refreshedDate="42790.072271412035" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table4"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="MODULE" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Statement Queuing"/>
+        <s v="No Statement Queuing"/>
+        <s v="STATEMENT_QUEUING_QUICK PDP = AUTO" u="1"/>
+        <s v="STATEMENT_QUEUING_QUICK PDP = MANUAL" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EXPERIMENT_DURATION_SEC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1237.396626" maxValue="8031.5235830000001"/>
+    </cacheField>
+    <cacheField name="TOTAL_QUERIES" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="48"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
@@ -11178,13 +13337,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="708.76393399999995"/>
     <n v="22659.434057333299"/>
     <n v="4815.6136666666598"/>
     <n v="17673.901788666601"/>
-    <n v="13.7084799989359"/>
+    <n v="0.12872739254320301"/>
     <n v="91.413772583007798"/>
     <n v="91.386703491210895"/>
     <n v="55.131899197896303"/>
@@ -11194,7 +13353,7 @@
     <n v="265.07757314046199"/>
     <d v="1900-09-21T01:51:42"/>
     <n v="0"/>
-    <d v="2017-02-20T23:36:13"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -11205,13 +13364,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="50.7945556640625"/>
     <n v="12"/>
     <n v="178.02385799999999"/>
     <n v="5901.7160839999997"/>
     <n v="5302.5443333333296"/>
     <n v="0"/>
-    <n v="4.5338608065824104"/>
+    <n v="0.63696031603805103"/>
     <n v="77.843435923258397"/>
     <n v="77.822463353474902"/>
     <n v="55.011365254719998"/>
@@ -11221,7 +13380,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-21T17:40:37"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -11232,13 +13391,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="612.51901799999996"/>
     <n v="9397.3475803333295"/>
     <n v="4413.2953333333298"/>
     <n v="4877.8211116666598"/>
-    <n v="5.8093719300183304"/>
+    <n v="0.244849341636176"/>
     <n v="57.693611780802399"/>
     <n v="57.694491704305001"/>
     <n v="40.229052225748603"/>
@@ -11248,7 +13407,7 @@
     <n v="278.407628377278"/>
     <d v="1900-09-27T21:57:29"/>
     <n v="6.4927062988281197"/>
-    <d v="2017-02-18T17:51:32"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -11259,13 +13418,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="485.57438000000002"/>
     <n v="14529.2165133333"/>
     <n v="4408.1783333333296"/>
     <n v="9724.4467249999998"/>
-    <n v="9.9317273355846094"/>
+    <n v="0.15540076448357401"/>
     <n v="77.8912054697672"/>
     <n v="77.871232668558704"/>
     <n v="55.098821640014599"/>
@@ -11275,7 +13434,7 @@
     <n v="233.76219940185501"/>
     <d v="1900-08-20T18:17:34"/>
     <n v="0"/>
-    <d v="2017-02-21T02:28:08"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -11286,13 +13445,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="167.17022705078099"/>
     <n v="12"/>
     <n v="167.03177700000001"/>
     <n v="4000.0385676666601"/>
     <n v="3495.00966666666"/>
     <n v="0"/>
-    <n v="5.5521436442480399"/>
+    <n v="0.37788490081870502"/>
     <n v="77.8040663401285"/>
     <n v="77.783096949259402"/>
     <n v="55.057918866475397"/>
@@ -11302,7 +13461,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-21T17:05:24"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -11313,13 +13472,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="748.53876500000001"/>
     <n v="23301.8221693333"/>
     <n v="4634.6580000000004"/>
     <n v="18177.746619666599"/>
-    <n v="17.2395652224495"/>
+    <n v="0.111366319436062"/>
     <n v="77.938294410705495"/>
     <n v="77.917217890421497"/>
     <n v="55.086874008178697"/>
@@ -11329,7 +13488,7 @@
     <n v="265.34782663981099"/>
     <d v="1900-09-21T08:20:52"/>
     <n v="0"/>
-    <d v="2017-02-21T00:25:49"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -11340,13 +13499,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="188.74859799999999"/>
     <n v="8397.4629869999899"/>
     <n v="3983.2750000000001"/>
     <n v="3598.3213166666601"/>
-    <n v="11.6281888694784"/>
+    <n v="0.468955472243203"/>
     <n v="77.784231185913001"/>
     <n v="77.763174057006793"/>
     <n v="55.076636950174901"/>
@@ -11356,7 +13515,7 @@
     <n v="55.324450174967403"/>
     <d v="1900-02-23T07:47:12"/>
     <n v="0"/>
-    <d v="2017-02-21T01:58:53"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
@@ -11367,13 +13526,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="185.88173499999999"/>
     <n v="23990.6983616666"/>
     <n v="4544.3689999999997"/>
     <n v="18869.127720666602"/>
-    <n v="50.749526602289698"/>
+    <n v="0.58015925933102097"/>
     <n v="74.012630144754993"/>
     <n v="73.999267578125"/>
     <n v="57.034633954366001"/>
@@ -11383,7 +13542,7 @@
     <n v="55.174830118815102"/>
     <d v="1900-02-23T04:11:45"/>
     <n v="0"/>
-    <d v="2017-02-21T03:59:29"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -11394,13 +13553,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="493.33712600000001"/>
     <n v="14877.589360333301"/>
     <n v="5532.4423333333298"/>
     <n v="9079.3753973333296"/>
-    <n v="5.8796979669290801"/>
+    <n v="0.275125393618258"/>
     <n v="87.214162826538001"/>
     <n v="87.193400700886997"/>
     <n v="57.694517135620103"/>
@@ -11410,7 +13569,7 @@
     <n v="264.34123992919899"/>
     <d v="1900-09-20T08:11:23"/>
     <n v="0"/>
-    <d v="2017-02-18T18:21:03"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="3"/>
@@ -11421,13 +13580,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="4.1330249999999999"/>
     <n v="53.989896999999999"/>
     <n v="54.613"/>
     <n v="0"/>
-    <n v="4.9190966436562702"/>
+    <n v="0.20328935827874201"/>
     <n v="0.19708251953125"/>
     <n v="0.199981689453125"/>
     <n v="5.9710502624511698E-2"/>
@@ -11437,7 +13596,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T10:32:42"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
@@ -11448,13 +13607,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="613.12551699999995"/>
     <n v="18047.370209666598"/>
     <n v="4437.60433333333"/>
     <n v="13147.818575666601"/>
-    <n v="13.037363097439099"/>
+    <n v="0.122061793913435"/>
     <n v="77.942018191019599"/>
     <n v="77.920955975850404"/>
     <n v="55.146853446960399"/>
@@ -11464,7 +13623,7 @@
     <n v="229.852821350097"/>
     <d v="1900-08-16T20:28:04"/>
     <n v="0"/>
-    <d v="2017-02-21T01:03:51"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="3"/>
@@ -11475,13 +13634,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="277.14302900000001"/>
     <n v="2616.0932400000002"/>
     <n v="2096.884"/>
     <n v="0"/>
-    <n v="17.446305960653898"/>
+    <n v="5.7318724219055997E-2"/>
     <n v="29.523582458496001"/>
     <n v="29.523582458496001"/>
     <n v="24.944952011108299"/>
@@ -11491,7 +13650,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T04:20:02"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="1"/>
@@ -11502,13 +13661,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="4"/>
+    <n v="107.61846923828099"/>
     <n v="12"/>
     <n v="165.87276499999999"/>
     <n v="4322.7320153333303"/>
     <n v="3777.9726666666602"/>
     <n v="0"/>
-    <n v="5.0475539903528697"/>
+    <n v="0.44501958748028703"/>
     <n v="77.886843999226798"/>
     <n v="77.865856488545703"/>
     <n v="55.047806104024197"/>
@@ -11518,7 +13677,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-21T17:14:36"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
@@ -11529,13 +13688,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="470.18768899999998"/>
     <n v="28609.096361333301"/>
     <n v="6338.7026666666598"/>
     <n v="20353.409704000002"/>
-    <n v="9.6972288896832897"/>
+    <n v="0.18023369703134701"/>
     <n v="94.478445688883397"/>
     <n v="94.467412312825502"/>
     <n v="72.034193356831807"/>
@@ -11545,7 +13704,7 @@
     <n v="265.49356333414698"/>
     <d v="1900-09-21T11:50:44"/>
     <n v="0"/>
-    <d v="2017-02-18T20:25:19"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="2"/>
@@ -11556,13 +13715,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="881.49761100000001"/>
     <n v="11310.3826763333"/>
     <n v="4508.25766666666"/>
     <n v="6629.2864570000002"/>
-    <n v="7.45105656677047"/>
+    <n v="0.20780384008904099"/>
     <n v="29.398180961608801"/>
     <n v="29.149690628051701"/>
     <n v="24.739863713582299"/>
@@ -11572,7 +13731,7 @@
     <n v="309.05771128336499"/>
     <d v="1900-10-13T00:03:34"/>
     <n v="22.055239359537701"/>
-    <d v="2017-02-18T16:06:30"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="0"/>
@@ -11583,13 +13742,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="308.98790300000002"/>
     <n v="10029.5980993333"/>
     <n v="4078.3333333333298"/>
     <n v="5220.7613573333301"/>
-    <n v="15.3018194327133"/>
+    <n v="0.40542358290619201"/>
     <n v="77.741831143697098"/>
     <n v="77.720764478047599"/>
     <n v="55.031372706095297"/>
@@ -11599,7 +13758,7 @@
     <n v="90.085070292154896"/>
     <d v="1900-03-30T02:02:30"/>
     <n v="0"/>
-    <d v="2017-02-21T01:36:38"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="0"/>
@@ -11610,13 +13769,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="271.00085999999999"/>
     <n v="7679.5815536666596"/>
     <n v="4127.2309999999998"/>
     <n v="2958.4564949999999"/>
-    <n v="8.6171713103529299"/>
+    <n v="0.43561637631280897"/>
     <n v="77.605936368306402"/>
     <n v="77.586051623026506"/>
     <n v="54.911797841389898"/>
@@ -11626,7 +13785,7 @@
     <n v="91.604326883951799"/>
     <d v="1900-03-31T14:30:14"/>
     <n v="0"/>
-    <d v="2017-02-21T02:53:00"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="3"/>
@@ -11637,13 +13796,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="42.603375"/>
     <n v="374.77598"/>
     <n v="154.77600000000001"/>
     <n v="0"/>
-    <n v="39.0866752597301"/>
+    <n v="2.5584166301048102E-2"/>
     <n v="0.45336341857910101"/>
     <n v="0.458465576171875"/>
     <n v="6.4300537109375E-2"/>
@@ -11653,7 +13812,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T04:12:59"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="3"/>
@@ -11664,13 +13823,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="386.669421"/>
     <n v="2464.613167"/>
     <n v="1594.0920000000001"/>
     <n v="0"/>
-    <n v="30.5630710435784"/>
+    <n v="3.2719225060012701E-2"/>
     <n v="21.135057449340799"/>
     <n v="21.135057449340799"/>
     <n v="18.709559440612701"/>
@@ -11680,7 +13839,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T04:13:22"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="2"/>
@@ -11691,13 +13850,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="611.76132600000005"/>
     <n v="8748.5314319999907"/>
     <n v="4287.5306666666602"/>
     <n v="4153.0542333333296"/>
-    <n v="5.48965762436546"/>
+    <n v="0.25266590807558098"/>
     <n v="68.274076461791907"/>
     <n v="68.263064702351798"/>
     <n v="48.674202601114899"/>
@@ -11707,7 +13866,7 @@
     <n v="277.13008626302002"/>
     <d v="1900-09-26T15:36:54"/>
     <n v="6.4794616699218697"/>
-    <d v="2017-02-18T19:27:37"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="3"/>
@@ -11718,13 +13877,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="16"/>
     <n v="435.03724899999997"/>
     <n v="18547.917895999999"/>
     <n v="6104.86"/>
     <n v="858.08645999999999"/>
-    <n v="13.1920883907166"/>
+    <n v="7.5810112932272397E-2"/>
     <n v="66.812381744384695"/>
     <n v="67.487023353576603"/>
     <n v="65.231966972351003"/>
@@ -11734,7 +13893,7 @@
     <n v="43.148643493652301"/>
     <d v="1900-01-20T13:21:59"/>
     <n v="21.5917053222656"/>
-    <d v="2017-02-23T04:25:12"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="3"/>
@@ -11745,13 +13904,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="16"/>
     <n v="435.03724899999997"/>
     <n v="18547.917895999999"/>
     <n v="6104.86"/>
     <n v="858.08645999999999"/>
-    <n v="25.237038660501401"/>
+    <n v="3.9628013578233298E-2"/>
     <n v="66.812381744384695"/>
     <n v="67.487023353576603"/>
     <n v="65.231966972351003"/>
@@ -11761,9 +13920,36 @@
     <n v="43.148643493652301"/>
     <d v="1900-01-20T13:21:59"/>
     <n v="21.5917053222656"/>
-    <d v="2017-02-23T04:25:12"/>
+    <x v="20"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="22.9244384765625"/>
+    <n v="9"/>
+    <n v="107.527756"/>
+    <n v="6725.0042616666597"/>
+    <n v="5997.8413333333301"/>
+    <n v="0"/>
+    <n v="0.93403962658939399"/>
+    <n v="70.914009412129701"/>
+    <n v="70.892950057983299"/>
+    <n v="48.7825819651285"/>
+    <n v="48.7825819651285"/>
+    <n v="0"/>
+    <n v="0.173919677734375"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
@@ -11772,13 +13958,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="464.87034999999997"/>
     <n v="27848.789162000001"/>
     <n v="6453.2346666666599"/>
     <n v="19499.090778999998"/>
-    <n v="8.5253910388897598"/>
+    <n v="0.19353204490855999"/>
     <n v="94.202992757161397"/>
     <n v="94.192006429036397"/>
     <n v="72.017903010050404"/>
@@ -11788,51 +13974,24 @@
     <n v="265.19519805908197"/>
     <d v="1900-09-21T04:41:05"/>
     <n v="0"/>
-    <d v="2017-02-18T18:48:54"/>
+    <x v="22"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="12"/>
-    <n v="188.64246700000001"/>
-    <n v="7108.0410153333296"/>
-    <n v="6369.0533333333296"/>
-    <n v="0"/>
-    <n v="5.1626888649082598"/>
-    <n v="77.959028561909903"/>
-    <n v="77.937969207763601"/>
-    <n v="55.019101778666098"/>
-    <n v="55.019101778666098"/>
-    <n v="0"/>
-    <n v="0.228279113769531"/>
-    <n v="0"/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <d v="2017-02-22T01:16:45"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="2"/>
+    <n v="167.17022705078099"/>
     <n v="1"/>
     <n v="350.46481599999998"/>
     <n v="8512.1674330000005"/>
     <n v="544.02800000000002"/>
     <n v="0"/>
-    <n v="35.431200011764098"/>
+    <n v="2.8223712424867702E-2"/>
     <n v="3.9409990310668901"/>
     <n v="3.9409732818603498"/>
     <n v="2.8173666000366202"/>
@@ -11842,7 +14001,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T10:32:57"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="2"/>
@@ -11853,13 +14012,13 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="465.22402"/>
     <n v="28178.655749333298"/>
     <n v="6212.9743333333299"/>
     <n v="19960.1694756666"/>
-    <n v="9.3943611738931008"/>
+    <n v="0.15712820811538999"/>
     <n v="94.600376447041796"/>
     <n v="94.589071909586494"/>
     <n v="72.056024233500096"/>
@@ -11869,7 +14028,7 @@
     <n v="265.194445292154"/>
     <d v="1900-09-21T04:40:00"/>
     <n v="0"/>
-    <d v="2017-02-18T17:11:41"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="3"/>
@@ -11880,13 +14039,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="296.25350100000003"/>
     <n v="769.96675400000004"/>
     <n v="107.383"/>
     <n v="0"/>
-    <n v="386.23888455342001"/>
+    <n v="2.5890712716722499E-3"/>
     <n v="0.2982177734375"/>
     <n v="0.30078125"/>
     <n v="5.8509826660156201E-2"/>
@@ -11896,7 +14055,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T04:20:04"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="0"/>
@@ -11907,13 +14066,13 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="503.06830300000001"/>
     <n v="13995.753981666599"/>
     <n v="4639.8729999999996"/>
     <n v="9232.9647433333303"/>
-    <n v="9.14843960942558"/>
+    <n v="0.157934938766046"/>
     <n v="77.941977183023994"/>
     <n v="77.920916239420507"/>
     <n v="55.047109921773199"/>
@@ -11923,24 +14082,51 @@
     <n v="265.04661305745401"/>
     <d v="1900-09-21T01:07:07"/>
     <n v="0"/>
-    <d v="2017-02-20T22:52:09"/>
+    <x v="26"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="71.3599853515625"/>
+    <n v="12"/>
+    <n v="166.75605200000001"/>
+    <n v="5161.6220366666603"/>
+    <n v="4646.2849999999999"/>
+    <n v="0"/>
+    <n v="0.62330167308988504"/>
+    <n v="77.765992482503194"/>
+    <n v="77.745033264160099"/>
+    <n v="55.008593559265101"/>
+    <n v="55.008593559265101"/>
+    <n v="0"/>
+    <n v="0.21638743082682199"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="0"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="637.14902099999995"/>
-    <n v="17015.974250999901"/>
+    <n v="17015.974251"/>
     <n v="5659.6980000000003"/>
     <n v="10990.511570333299"/>
-    <n v="8.2777348951934702"/>
+    <n v="0.234238289406619"/>
     <n v="65.388576825459694"/>
     <n v="64.960927645365302"/>
     <n v="45.709805170694899"/>
@@ -11950,51 +14136,24 @@
     <n v="283.27962748209598"/>
     <d v="1900-09-30T03:16:05"/>
     <n v="9.1434529622395804"/>
-    <d v="2017-02-18T16:43:58"/>
+    <x v="28"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="12"/>
-    <n v="166.75605200000001"/>
-    <n v="5161.6220366666603"/>
-    <n v="4646.2849999999999"/>
-    <n v="0"/>
-    <n v="4.2951680913126804"/>
-    <n v="77.765992482503194"/>
-    <n v="77.745033264160099"/>
-    <n v="55.008593559265101"/>
-    <n v="55.008593559265101"/>
-    <n v="0"/>
-    <n v="0.21638743082682199"/>
-    <n v="0"/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <d v="2017-02-21T17:31:57"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
     <n v="12"/>
     <n v="493.92523899999998"/>
     <n v="14831.6170903333"/>
     <n v="5481.7956666666596"/>
     <n v="9094.0929083333303"/>
-    <n v="5.9677286855080602"/>
+    <n v="0.26477991806519502"/>
     <n v="77.8430840174357"/>
     <n v="77.830028216044099"/>
     <n v="57.5911620457967"/>
@@ -12004,61 +14163,61 @@
     <n v="264.98820241292299"/>
     <d v="1900-09-20T23:43:01"/>
     <n v="0"/>
-    <d v="2017-02-18T19:57:15"/>
+    <x v="29"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="105.683145"/>
-    <n v="952.86751000000004"/>
-    <n v="887.55600000000004"/>
-    <n v="0"/>
-    <n v="13.3142738279703"/>
-    <n v="14.484203338623001"/>
-    <n v="14.490001678466699"/>
-    <n v="12.5806818008422"/>
-    <n v="12.5806818008422"/>
-    <n v="0"/>
-    <n v="0.176841735839843"/>
+    <n v="106.144165039062"/>
+    <n v="12"/>
+    <n v="152.724343"/>
+    <n v="3880.48311266666"/>
+    <n v="3554.3090000000002"/>
+    <n v="0"/>
+    <n v="0.65812041843439495"/>
+    <n v="77.876490910847906"/>
+    <n v="77.855486234029101"/>
+    <n v="55.063335736592599"/>
+    <n v="55.063335736592599"/>
+    <n v="0"/>
+    <n v="0.2149658203125"/>
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T03:16:07"/>
+    <x v="30"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
-    <n v="12"/>
-    <n v="152.724343"/>
-    <n v="3880.48311266666"/>
-    <n v="3554.3090000000002"/>
-    <n v="0"/>
-    <n v="4.75882818755671"/>
-    <n v="77.876490910847906"/>
-    <n v="77.855486234029101"/>
-    <n v="55.063335736592599"/>
-    <n v="55.063335736592599"/>
-    <n v="0"/>
-    <n v="0.2149658203125"/>
+    <n v="106.144165039062"/>
+    <n v="2"/>
+    <n v="105.683145"/>
+    <n v="952.86751000000004"/>
+    <n v="887.55600000000004"/>
+    <n v="0"/>
+    <n v="7.8643718312942396E-2"/>
+    <n v="14.484203338623001"/>
+    <n v="14.490001678466699"/>
+    <n v="12.5806818008422"/>
+    <n v="12.5806818008422"/>
+    <n v="0"/>
+    <n v="0.176841735839843"/>
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-21T17:24:00"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="3"/>
@@ -12069,13 +14228,13 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <n v="106.144165039062"/>
     <n v="1"/>
     <n v="60.930115000000001"/>
     <n v="361.13536099999999"/>
     <n v="356.96499999999997"/>
     <n v="0"/>
-    <n v="5.2913690838037297"/>
+    <n v="0.18898700585088299"/>
     <n v="7.3808956146240199"/>
     <n v="7.3808956146240199"/>
     <n v="6.2362079620361301"/>
@@ -12085,7 +14244,7 @@
     <n v="0"/>
     <d v="1899-12-30T00:00:00"/>
     <n v="0"/>
-    <d v="2017-02-23T10:33:02"/>
+    <x v="32"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -21419,8 +23578,23 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+  <r>
+    <x v="0"/>
+    <n v="1237.396626"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8031.5235830000001"/>
+    <n v="48"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -21588,7 +23762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A1:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -21657,9 +23831,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21771,7 +23945,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:C5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -21891,7 +24065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -22079,7 +24253,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -22209,7 +24383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -22349,7 +24523,235 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
+      <items count="34">
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of AVERAGE_CEI" fld="14" subtotal="average" baseField="0" baseItem="1983570112"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField axis="axisRow" showAll="0">
@@ -22412,6 +24814,62 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of TOTAL_RUN_TIME_SEC" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of EXPERIMENT_DURATION_SEC" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="1" format="1" series="1">
@@ -22763,6 +25221,24 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache25.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MODULE6" sourceName="MODULE">
+  <pivotTables>
+    <pivotTable tabId="22" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_RUN_NUMBER" sourceName="RUN_NUMBER">
   <pivotTables>
@@ -22967,9 +25443,18 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="MODULE 6" cache="Slicer_MODULE6" caption="MODULE" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Y35" totalsRowShown="0">
   <autoFilter ref="A1:Y35"/>
+  <sortState ref="A2:Y35">
+    <sortCondition ref="Y1:Y35"/>
+  </sortState>
   <tableColumns count="25">
     <tableColumn id="1" name="MODULE"/>
     <tableColumn id="2" name="DOP"/>
@@ -23076,6 +25561,18 @@
     <tableColumn id="24" name="TOTAL_PHYSICAL_READ_GB"/>
     <tableColumn id="25" name="TOTAL_PHYSICAL_WRITE_GB"/>
     <tableColumn id="26" name="MAX_SQL_EXEC_START" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MODULE"/>
+    <tableColumn id="2" name="EXPERIMENT_DURATION_SEC"/>
+    <tableColumn id="3" name="TOTAL_QUERIES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23537,6 +26034,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>637.14902099999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5">
+        <v>493.33712600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5">
+        <v>188.74859799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5">
+        <v>152.724343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1471.9590880000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23971,6 +26533,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8031.5235830000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1237.396626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9268.9202089999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>1237.396626</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>8031.5235830000001</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
@@ -24688,7 +27357,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="5">
-        <v>188.64246700000001</v>
+        <v>107.527756</v>
       </c>
       <c r="C7" s="5">
         <v>22.9244384765625</v>
@@ -24699,7 +27368,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="5">
-        <v>1019.0512620000001</v>
+        <v>937.93655100000001</v>
       </c>
       <c r="C8" s="5">
         <v>87.668640136718579</v>
@@ -24726,10 +27395,269 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.22337296010512966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>42784.671180555553</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.20780384008904099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42784.697199074071</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.234238289406619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42784.716446759259</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.15712820811538999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>42784.744120370371</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.244849341636176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>42784.764618055553</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.275125393618258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>42784.783958333333</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.19353204490855999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>42784.810844907406</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.25266590807558098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>42784.831423611111</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.26477991806519502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>42784.850914351853</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.18023369703134701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.28507176665950495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>42786.952881944446</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.157934938766046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>42786.983483796299</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.12872739254320301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>42787.017928240741</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.111366319436062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>42787.044340277775</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.122061793913435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>42787.067106481481</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.40542358290619201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>42787.082557870373</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.468955472243203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>42787.102870370371</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.15540076448357401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>42787.120138888888</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.43561637631280897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>42787.166307870371</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.58015925933102097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.61255442040845287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42787.712083333332</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.37788490081870502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42787.718472222223</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.44501958748028703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>42787.724999999999</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.65812041843439495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>42787.730520833335</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.62330167308988504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42787.736539351848</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.63696031603805103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>42787.73978009259</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.93403962658939399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.34380537763885116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y35"/>
+      <selection activeCell="A16" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24838,22 +27766,22 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -24865,69 +27793,69 @@
         <v>12</v>
       </c>
       <c r="K2">
-        <v>708.76393399999995</v>
+        <v>881.49761100000001</v>
       </c>
       <c r="L2">
-        <v>22659.434057333299</v>
+        <v>11310.3826763333</v>
       </c>
       <c r="M2">
-        <v>4815.6136666666598</v>
+        <v>4508.25766666666</v>
       </c>
       <c r="N2">
-        <v>17673.901788666601</v>
+        <v>6629.2864570000002</v>
       </c>
       <c r="O2">
-        <v>13.7084799989359</v>
+        <v>0.20780384008904099</v>
       </c>
       <c r="P2">
-        <v>91.413772583007798</v>
+        <v>29.398180961608801</v>
       </c>
       <c r="Q2">
-        <v>91.386703491210895</v>
+        <v>29.149690628051701</v>
       </c>
       <c r="R2">
-        <v>55.131899197896303</v>
+        <v>24.739863713582299</v>
       </c>
       <c r="S2">
-        <v>55.131899197896303</v>
+        <v>25.204053243001301</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>20.3639322916666</v>
       </c>
       <c r="U2">
-        <v>332.70608520507801</v>
+        <v>298.780138651529</v>
       </c>
       <c r="V2">
-        <v>265.07757314046199</v>
+        <v>309.05771128336499</v>
       </c>
       <c r="W2" s="1">
-        <v>265.07757314046199</v>
+        <v>287.00247192382801</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>22.055239359537701</v>
       </c>
       <c r="Y2" s="1">
-        <v>42786.983483796299</v>
+        <v>42784.671180555553</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -24939,126 +27867,123 @@
         <v>12</v>
       </c>
       <c r="K3">
-        <v>485.57438000000002</v>
+        <v>637.14902099999995</v>
       </c>
       <c r="L3">
-        <v>14529.2165133333</v>
+        <v>17015.974251</v>
       </c>
       <c r="M3">
-        <v>4408.1783333333296</v>
+        <v>5659.6980000000003</v>
       </c>
       <c r="N3">
-        <v>9724.4467249999998</v>
+        <v>10990.511570333299</v>
       </c>
       <c r="O3">
-        <v>9.9317273355846094</v>
+        <v>0.234238289406619</v>
       </c>
       <c r="P3">
-        <v>77.8912054697672</v>
+        <v>65.388576825459694</v>
       </c>
       <c r="Q3">
-        <v>77.871232668558704</v>
+        <v>64.960927645365302</v>
       </c>
       <c r="R3">
-        <v>55.098821640014599</v>
+        <v>45.709805170694899</v>
       </c>
       <c r="S3">
-        <v>55.098821640014599</v>
+        <v>46.028480211893701</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.2486979166666607</v>
       </c>
       <c r="U3">
-        <v>334.81961059570301</v>
+        <v>332.65692138671801</v>
       </c>
       <c r="V3">
-        <v>233.76219940185501</v>
+        <v>283.27962748209598</v>
       </c>
       <c r="W3" s="1">
-        <v>233.76219940185501</v>
+        <v>274.13617451985601</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>9.1434529622395804</v>
       </c>
       <c r="Y3" s="1">
-        <v>42787.102870370371</v>
+        <v>42784.697199074071</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4">
-        <v>50.7945556640625</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>178.02385799999999</v>
+        <v>465.22402</v>
       </c>
       <c r="L4">
-        <v>6048.8961513333297</v>
+        <v>28178.655749333298</v>
       </c>
       <c r="M4">
-        <v>5406.40016666666</v>
+        <v>6212.9743333333299</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>19960.1694756666</v>
       </c>
       <c r="O4">
-        <v>4.7963995701968196</v>
+        <v>0.15712820811538999</v>
       </c>
       <c r="P4">
-        <v>77.835414091746003</v>
+        <v>94.600376447041796</v>
       </c>
       <c r="Q4">
-        <v>77.814441521962394</v>
+        <v>94.589071909586494</v>
       </c>
       <c r="R4">
-        <v>55.011365254719998</v>
+        <v>72.056024233500096</v>
       </c>
       <c r="S4">
-        <v>55.011365254719998</v>
+        <v>72.056024233500096</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.20602925618489501</v>
+        <v>400.516807556152</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>265.194445292154</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>265.194445292154</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>42787.74287037037</v>
+        <v>42784.716446759259</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -25102,7 +28027,7 @@
         <v>4877.8211116666598</v>
       </c>
       <c r="O5">
-        <v>5.8093719300183304</v>
+        <v>0.244849341636176</v>
       </c>
       <c r="P5">
         <v>57.693611780802399</v>
@@ -25137,7 +28062,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -25149,87 +28074,84 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6">
-        <v>167.17022705078099</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>100.126684</v>
+        <v>493.33712600000001</v>
       </c>
       <c r="L6">
-        <v>4253.4650554444397</v>
+        <v>14877.589360333301</v>
       </c>
       <c r="M6">
-        <v>3034.97788888888</v>
+        <v>5532.4423333333298</v>
       </c>
       <c r="N6">
-        <v>730.23036744444403</v>
+        <v>9079.3753973333296</v>
       </c>
       <c r="O6">
-        <v>6.8821622377635796</v>
+        <v>0.275125393618258</v>
       </c>
       <c r="P6">
-        <v>77.877931276957099</v>
+        <v>87.214162826538001</v>
       </c>
       <c r="Q6">
-        <v>77.856909328036807</v>
+        <v>87.193400700886997</v>
       </c>
       <c r="R6">
-        <v>50.660019768608898</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="S6">
-        <v>50.660019768608898</v>
+        <v>57.694517135620103</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>10.7482393052842</v>
+        <v>331.957280476888</v>
       </c>
       <c r="V6">
-        <v>6.8144709269205697</v>
+        <v>264.34123992919899</v>
       </c>
       <c r="W6" s="1">
-        <v>6.8144709269205697</v>
+        <v>264.34123992919899</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>42789.446053240739</v>
+        <v>42784.764618055553</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -25241,49 +28163,49 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <v>748.53876500000001</v>
+        <v>464.87034999999997</v>
       </c>
       <c r="L7">
-        <v>23301.8221693333</v>
+        <v>27848.789162000001</v>
       </c>
       <c r="M7">
-        <v>4634.6580000000004</v>
+        <v>6453.2346666666599</v>
       </c>
       <c r="N7">
-        <v>18177.746619666599</v>
+        <v>19499.090778999998</v>
       </c>
       <c r="O7">
-        <v>17.2395652224495</v>
+        <v>0.19353204490855999</v>
       </c>
       <c r="P7">
-        <v>77.938294410705495</v>
+        <v>94.202992757161397</v>
       </c>
       <c r="Q7">
-        <v>77.917217890421497</v>
+        <v>94.192006429036397</v>
       </c>
       <c r="R7">
-        <v>55.086874008178697</v>
+        <v>72.017903010050404</v>
       </c>
       <c r="S7">
-        <v>55.086874008178697</v>
+        <v>72.017903010050404</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>332.66510518391902</v>
+        <v>400.48747253417901</v>
       </c>
       <c r="V7">
-        <v>265.34782663981099</v>
+        <v>265.19519805908197</v>
       </c>
       <c r="W7" s="1">
-        <v>265.34782663981099</v>
+        <v>265.19519805908197</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>42787.017928240741</v>
+        <v>42784.783958333333</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -25291,10 +28213,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -25315,69 +28237,69 @@
         <v>12</v>
       </c>
       <c r="K8">
-        <v>493.33712600000001</v>
+        <v>611.76132600000005</v>
       </c>
       <c r="L8">
-        <v>14877.589360333301</v>
+        <v>8748.5314319999907</v>
       </c>
       <c r="M8">
-        <v>5532.4423333333298</v>
+        <v>4287.5306666666602</v>
       </c>
       <c r="N8">
-        <v>9079.3753973333296</v>
+        <v>4153.0542333333296</v>
       </c>
       <c r="O8">
-        <v>5.8796979669290801</v>
+        <v>0.25266590807558098</v>
       </c>
       <c r="P8">
-        <v>87.214162826538001</v>
+        <v>68.274076461791907</v>
       </c>
       <c r="Q8">
-        <v>87.193400700886997</v>
+        <v>68.263064702351798</v>
       </c>
       <c r="R8">
-        <v>57.694517135620103</v>
+        <v>48.674202601114899</v>
       </c>
       <c r="S8">
-        <v>57.694517135620103</v>
+        <v>48.712202072143498</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>6.6936848958333304</v>
       </c>
       <c r="U8">
-        <v>331.957280476888</v>
+        <v>297.97898101806601</v>
       </c>
       <c r="V8">
-        <v>264.34123992919899</v>
+        <v>277.13008626302002</v>
       </c>
       <c r="W8" s="1">
-        <v>264.34123992919899</v>
+        <v>270.65062459309797</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>6.4794616699218697</v>
       </c>
       <c r="Y8" s="1">
-        <v>42784.764618055553</v>
+        <v>42784.810844907406</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -25389,69 +28311,69 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>185.88173499999999</v>
+        <v>493.92523899999998</v>
       </c>
       <c r="L9">
-        <v>23990.6983616666</v>
+        <v>14831.6170903333</v>
       </c>
       <c r="M9">
-        <v>4544.3689999999997</v>
+        <v>5481.7956666666596</v>
       </c>
       <c r="N9">
-        <v>18869.127720666602</v>
+        <v>9094.0929083333303</v>
       </c>
       <c r="O9">
-        <v>50.749526602289698</v>
+        <v>0.26477991806519502</v>
       </c>
       <c r="P9">
-        <v>74.012630144754993</v>
+        <v>77.8430840174357</v>
       </c>
       <c r="Q9">
-        <v>73.999267578125</v>
+        <v>77.830028216044099</v>
       </c>
       <c r="R9">
-        <v>57.034633954366001</v>
+        <v>57.5911620457967</v>
       </c>
       <c r="S9">
-        <v>57.034633954366001</v>
+        <v>57.5911620457967</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>330.27444966634101</v>
+        <v>332.65002950032499</v>
       </c>
       <c r="V9">
-        <v>55.174830118815102</v>
+        <v>264.98820241292299</v>
       </c>
       <c r="W9" s="1">
-        <v>55.174830118815102</v>
+        <v>264.98820241292299</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>42787.166307870371</v>
+        <v>42784.831423611111</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -25463,54 +28385,54 @@
         <v>12</v>
       </c>
       <c r="K10">
-        <v>188.74859799999999</v>
+        <v>470.18768899999998</v>
       </c>
       <c r="L10">
-        <v>8397.4629869999899</v>
+        <v>28609.096361333301</v>
       </c>
       <c r="M10">
-        <v>3983.2750000000001</v>
+        <v>6338.7026666666598</v>
       </c>
       <c r="N10">
-        <v>3598.3213166666601</v>
+        <v>20353.409704000002</v>
       </c>
       <c r="O10">
-        <v>11.6281888694784</v>
+        <v>0.18023369703134701</v>
       </c>
       <c r="P10">
-        <v>77.784231185913001</v>
+        <v>94.478445688883397</v>
       </c>
       <c r="Q10">
-        <v>77.763174057006793</v>
+        <v>94.467412312825502</v>
       </c>
       <c r="R10">
-        <v>55.076636950174901</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="S10">
-        <v>55.076636950174901</v>
+        <v>72.034193356831807</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>327.052403767903</v>
+        <v>400.85721333821601</v>
       </c>
       <c r="V10">
-        <v>55.324450174967403</v>
+        <v>265.49356333414698</v>
       </c>
       <c r="W10" s="1">
-        <v>55.324450174967403</v>
+        <v>265.49356333414698</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>42787.082557870373</v>
+        <v>42784.850914351853</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -25519,70 +28441,67 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11">
-        <v>106.144165039062</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>4.1330249999999999</v>
+        <v>503.06830300000001</v>
       </c>
       <c r="L11">
-        <v>53.989896999999999</v>
+        <v>13995.753981666599</v>
       </c>
       <c r="M11">
-        <v>54.613</v>
+        <v>4639.8729999999996</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9232.9647433333303</v>
       </c>
       <c r="O11">
-        <v>4.9190966436562702</v>
+        <v>0.157934938766046</v>
       </c>
       <c r="P11">
-        <v>0.19708251953125</v>
+        <v>77.941977183023994</v>
       </c>
       <c r="Q11">
-        <v>0.199981689453125</v>
+        <v>77.920916239420507</v>
       </c>
       <c r="R11">
-        <v>5.9710502624511698E-2</v>
+        <v>55.047109921773199</v>
       </c>
       <c r="S11">
-        <v>5.9710502624511698E-2</v>
+        <v>55.047109921773199</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>4.6012878417968701E-2</v>
+        <v>332.68564860025998</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>265.04661305745401</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>265.04661305745401</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>42789.439375000002</v>
+        <v>42786.952881944446</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -25596,10 +28515,10 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -25614,146 +28533,143 @@
         <v>12</v>
       </c>
       <c r="K12">
-        <v>613.12551699999995</v>
+        <v>708.76393399999995</v>
       </c>
       <c r="L12">
-        <v>18047.370209666598</v>
+        <v>22659.434057333299</v>
       </c>
       <c r="M12">
-        <v>4437.60433333333</v>
+        <v>4815.6136666666598</v>
       </c>
       <c r="N12">
-        <v>13147.818575666601</v>
+        <v>17673.901788666601</v>
       </c>
       <c r="O12">
-        <v>13.037363097439099</v>
+        <v>0.12872739254320301</v>
       </c>
       <c r="P12">
-        <v>77.942018191019599</v>
+        <v>91.413772583007798</v>
       </c>
       <c r="Q12">
-        <v>77.920955975850404</v>
+        <v>91.386703491210895</v>
       </c>
       <c r="R12">
-        <v>55.146853446960399</v>
+        <v>55.131899197896303</v>
       </c>
       <c r="S12">
-        <v>55.146853446960399</v>
+        <v>55.131899197896303</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>333.39652506510402</v>
+        <v>332.70608520507801</v>
       </c>
       <c r="V12">
-        <v>229.852821350097</v>
+        <v>265.07757314046199</v>
       </c>
       <c r="W12" s="1">
-        <v>229.852821350097</v>
+        <v>265.07757314046199</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>42787.044340277775</v>
+        <v>42786.983483796299</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13">
-        <v>106.144165039062</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>277.14302900000001</v>
+        <v>748.53876500000001</v>
       </c>
       <c r="L13">
-        <v>2616.0932400000002</v>
+        <v>23301.8221693333</v>
       </c>
       <c r="M13">
-        <v>2096.884</v>
+        <v>4634.6580000000004</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>18177.746619666599</v>
       </c>
       <c r="O13">
-        <v>17.446305960653898</v>
+        <v>0.111366319436062</v>
       </c>
       <c r="P13">
-        <v>29.523582458496001</v>
+        <v>77.938294410705495</v>
       </c>
       <c r="Q13">
-        <v>29.523582458496001</v>
+        <v>77.917217890421497</v>
       </c>
       <c r="R13">
-        <v>24.944952011108299</v>
+        <v>55.086874008178697</v>
       </c>
       <c r="S13">
-        <v>24.944952011108299</v>
+        <v>55.086874008178697</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1.1383056640625E-2</v>
+        <v>332.66510518391902</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>265.34782663981099</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>265.34782663981099</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>42789.180578703701</v>
+        <v>42787.017928240741</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -25765,69 +28681,69 @@
         <v>12</v>
       </c>
       <c r="K14">
-        <v>470.18768899999998</v>
+        <v>613.12551699999995</v>
       </c>
       <c r="L14">
-        <v>28609.096361333301</v>
+        <v>18047.370209666598</v>
       </c>
       <c r="M14">
-        <v>6338.7026666666598</v>
+        <v>4437.60433333333</v>
       </c>
       <c r="N14">
-        <v>20353.409704000002</v>
+        <v>13147.818575666601</v>
       </c>
       <c r="O14">
-        <v>9.6972288896832897</v>
+        <v>0.122061793913435</v>
       </c>
       <c r="P14">
-        <v>94.478445688883397</v>
+        <v>77.942018191019599</v>
       </c>
       <c r="Q14">
-        <v>94.467412312825502</v>
+        <v>77.920955975850404</v>
       </c>
       <c r="R14">
-        <v>72.034193356831807</v>
+        <v>55.146853446960399</v>
       </c>
       <c r="S14">
-        <v>72.034193356831807</v>
+        <v>55.146853446960399</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>400.85721333821601</v>
+        <v>333.39652506510402</v>
       </c>
       <c r="V14">
-        <v>265.49356333414698</v>
+        <v>229.852821350097</v>
       </c>
       <c r="W14" s="1">
-        <v>265.49356333414698</v>
+        <v>229.852821350097</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>42784.850914351853</v>
+        <v>42787.044340277775</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -25839,54 +28755,54 @@
         <v>12</v>
       </c>
       <c r="K15">
-        <v>881.49761100000001</v>
+        <v>308.98790300000002</v>
       </c>
       <c r="L15">
-        <v>11310.3826763333</v>
+        <v>10029.5980993333</v>
       </c>
       <c r="M15">
-        <v>4508.25766666666</v>
+        <v>4078.3333333333298</v>
       </c>
       <c r="N15">
-        <v>6629.2864570000002</v>
+        <v>5220.7613573333301</v>
       </c>
       <c r="O15">
-        <v>7.45105656677047</v>
+        <v>0.40542358290619201</v>
       </c>
       <c r="P15">
-        <v>29.398180961608801</v>
+        <v>77.741831143697098</v>
       </c>
       <c r="Q15">
-        <v>29.149690628051701</v>
+        <v>77.720764478047599</v>
       </c>
       <c r="R15">
-        <v>24.739863713582299</v>
+        <v>55.031372706095297</v>
       </c>
       <c r="S15">
-        <v>25.204053243001301</v>
+        <v>55.031372706095297</v>
       </c>
       <c r="T15">
-        <v>20.3639322916666</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>298.780138651529</v>
+        <v>324.139078776041</v>
       </c>
       <c r="V15">
-        <v>309.05771128336499</v>
+        <v>90.085070292154896</v>
       </c>
       <c r="W15" s="1">
-        <v>287.00247192382801</v>
+        <v>90.085070292154896</v>
       </c>
       <c r="X15">
-        <v>22.055239359537701</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>42784.671180555553</v>
+        <v>42787.067106481481</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -25895,70 +28811,67 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>107.61846923828099</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16">
-        <v>165.87276499999999</v>
+        <v>188.74859799999999</v>
       </c>
       <c r="L16">
-        <v>4322.7320153333303</v>
+        <v>8397.4629869999899</v>
       </c>
       <c r="M16">
-        <v>3777.9726666666602</v>
+        <v>3983.2750000000001</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3598.3213166666601</v>
       </c>
       <c r="O16">
-        <v>5.0475539903528697</v>
+        <v>0.468955472243203</v>
       </c>
       <c r="P16">
-        <v>77.886843999226798</v>
+        <v>77.784231185913001</v>
       </c>
       <c r="Q16">
-        <v>77.865856488545703</v>
+        <v>77.763174057006793</v>
       </c>
       <c r="R16">
-        <v>55.047806104024197</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="S16">
-        <v>55.047806104024197</v>
+        <v>55.076636950174901</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.30463663736979102</v>
+        <v>327.052403767903</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>55.324450174967403</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>55.324450174967403</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>42787.718472222223</v>
+        <v>42787.082557870373</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -25972,10 +28885,10 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -25990,49 +28903,49 @@
         <v>12</v>
       </c>
       <c r="K17">
-        <v>308.98790300000002</v>
+        <v>485.57438000000002</v>
       </c>
       <c r="L17">
-        <v>10029.5980993333</v>
+        <v>14529.2165133333</v>
       </c>
       <c r="M17">
-        <v>4078.3333333333298</v>
+        <v>4408.1783333333296</v>
       </c>
       <c r="N17">
-        <v>5220.7613573333301</v>
+        <v>9724.4467249999998</v>
       </c>
       <c r="O17">
-        <v>15.3018194327133</v>
+        <v>0.15540076448357401</v>
       </c>
       <c r="P17">
-        <v>77.741831143697098</v>
+        <v>77.8912054697672</v>
       </c>
       <c r="Q17">
-        <v>77.720764478047599</v>
+        <v>77.871232668558704</v>
       </c>
       <c r="R17">
-        <v>55.031372706095297</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="S17">
-        <v>55.031372706095297</v>
+        <v>55.098821640014599</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>324.139078776041</v>
+        <v>334.81961059570301</v>
       </c>
       <c r="V17">
-        <v>90.085070292154896</v>
+        <v>233.76219940185501</v>
       </c>
       <c r="W17" s="1">
-        <v>90.085070292154896</v>
+        <v>233.76219940185501</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>42787.067106481481</v>
+        <v>42787.102870370371</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -26076,7 +28989,7 @@
         <v>2958.4564949999999</v>
       </c>
       <c r="O18">
-        <v>8.6171713103529299</v>
+        <v>0.43561637631280897</v>
       </c>
       <c r="P18">
         <v>77.605936368306402</v>
@@ -26111,87 +29024,84 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19">
-        <v>106.144165039062</v>
+        <v>30</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K19">
-        <v>42.603375</v>
+        <v>185.88173499999999</v>
       </c>
       <c r="L19">
-        <v>374.77598</v>
+        <v>23990.6983616666</v>
       </c>
       <c r="M19">
-        <v>154.77600000000001</v>
+        <v>4544.3689999999997</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>18869.127720666602</v>
       </c>
       <c r="O19">
-        <v>39.0866752597301</v>
+        <v>0.58015925933102097</v>
       </c>
       <c r="P19">
-        <v>0.45336341857910101</v>
+        <v>74.012630144754993</v>
       </c>
       <c r="Q19">
-        <v>0.458465576171875</v>
+        <v>73.999267578125</v>
       </c>
       <c r="R19">
-        <v>6.4300537109375E-2</v>
+        <v>57.034633954366001</v>
       </c>
       <c r="S19">
-        <v>6.4300537109375E-2</v>
+        <v>57.034633954366001</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.243545532226562</v>
+        <v>330.27444966634101</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>55.174830118815102</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>55.174830118815102</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>42789.175682870373</v>
+        <v>42787.166307870371</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -26209,46 +29119,46 @@
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20">
-        <v>106.144165039062</v>
+        <v>167.17022705078099</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>386.669421</v>
+        <v>167.03177700000001</v>
       </c>
       <c r="L20">
-        <v>2464.613167</v>
+        <v>4000.0385676666601</v>
       </c>
       <c r="M20">
-        <v>1594.0920000000001</v>
+        <v>3495.00966666666</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.5630710435784</v>
+        <v>0.37788490081870502</v>
       </c>
       <c r="P20">
-        <v>21.135057449340799</v>
+        <v>77.8040663401285</v>
       </c>
       <c r="Q20">
-        <v>21.135057449340799</v>
+        <v>77.783096949259402</v>
       </c>
       <c r="R20">
-        <v>18.709559440612701</v>
+        <v>55.057918866475397</v>
       </c>
       <c r="S20">
-        <v>18.709559440612701</v>
+        <v>55.057918866475397</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.401824951171875</v>
+        <v>0.30892690022786401</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -26260,89 +29170,92 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>42789.175949074073</v>
+        <v>42787.712083333332</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>107.61846923828099</v>
       </c>
       <c r="J21">
         <v>12</v>
       </c>
       <c r="K21">
-        <v>611.76132600000005</v>
+        <v>165.87276499999999</v>
       </c>
       <c r="L21">
-        <v>8748.5314319999907</v>
+        <v>4322.7320153333303</v>
       </c>
       <c r="M21">
-        <v>4287.5306666666602</v>
+        <v>3777.9726666666602</v>
       </c>
       <c r="N21">
-        <v>4153.0542333333296</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>5.48965762436546</v>
+        <v>0.44501958748028703</v>
       </c>
       <c r="P21">
-        <v>68.274076461791907</v>
+        <v>77.886843999226798</v>
       </c>
       <c r="Q21">
-        <v>68.263064702351798</v>
+        <v>77.865856488545703</v>
       </c>
       <c r="R21">
-        <v>48.674202601114899</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="S21">
-        <v>48.712202072143498</v>
+        <v>55.047806104024197</v>
       </c>
       <c r="T21">
-        <v>6.6936848958333304</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>297.97898101806601</v>
+        <v>0.30463663736979102</v>
       </c>
       <c r="V21">
-        <v>277.13008626302002</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>270.65062459309797</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>6.4794616699218697</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>42784.810844907406</v>
+        <v>42787.718472222223</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -26366,60 +29279,60 @@
         <v>106.144165039062</v>
       </c>
       <c r="J22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>435.03724899999997</v>
+        <v>152.724343</v>
       </c>
       <c r="L22">
-        <v>18547.917895999999</v>
+        <v>3880.48311266666</v>
       </c>
       <c r="M22">
-        <v>6104.86</v>
+        <v>3554.3090000000002</v>
       </c>
       <c r="N22">
-        <v>858.08645999999999</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>13.1920883907166</v>
+        <v>0.65812041843439495</v>
       </c>
       <c r="P22">
-        <v>66.812381744384695</v>
+        <v>77.876490910847906</v>
       </c>
       <c r="Q22">
-        <v>67.487023353576603</v>
+        <v>77.855486234029101</v>
       </c>
       <c r="R22">
-        <v>65.231966972351003</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="S22">
-        <v>71.856028556823702</v>
+        <v>55.063335736592599</v>
       </c>
       <c r="T22">
-        <v>10.845703125</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.46734619140625</v>
+        <v>0.2149658203125</v>
       </c>
       <c r="V22">
-        <v>43.148643493652301</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>21.556938171386701</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>21.5917053222656</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>42789.184166666666</v>
+        <v>42787.724999999999</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -26437,66 +29350,66 @@
         <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23">
-        <v>106.144165039062</v>
+        <v>71.3599853515625</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K23">
-        <v>435.03724899999997</v>
+        <v>166.75605200000001</v>
       </c>
       <c r="L23">
-        <v>18547.917895999999</v>
+        <v>5161.6220366666603</v>
       </c>
       <c r="M23">
-        <v>6104.86</v>
+        <v>4646.2849999999999</v>
       </c>
       <c r="N23">
-        <v>858.08645999999999</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>25.237038660501401</v>
+        <v>0.62330167308988504</v>
       </c>
       <c r="P23">
-        <v>66.812381744384695</v>
+        <v>77.765992482503194</v>
       </c>
       <c r="Q23">
-        <v>67.487023353576603</v>
+        <v>77.745033264160099</v>
       </c>
       <c r="R23">
-        <v>65.231966972351003</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="S23">
-        <v>71.856028556823702</v>
+        <v>55.008593559265101</v>
       </c>
       <c r="T23">
-        <v>10.845703125</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.46734619140625</v>
+        <v>0.21638743082682199</v>
       </c>
       <c r="V23">
-        <v>43.148643493652301</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>21.556938171386701</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>21.5917053222656</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>42789.184166666666</v>
+        <v>42787.730520833335</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -26505,72 +29418,75 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I24">
+        <v>50.7945556640625</v>
       </c>
       <c r="J24">
         <v>12</v>
       </c>
       <c r="K24">
-        <v>464.87034999999997</v>
+        <v>178.02385799999999</v>
       </c>
       <c r="L24">
-        <v>27848.789162000001</v>
+        <v>5901.7160839999997</v>
       </c>
       <c r="M24">
-        <v>6453.2346666666599</v>
+        <v>5302.5443333333296</v>
       </c>
       <c r="N24">
-        <v>19499.0907789999</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>8.5253910388897598</v>
+        <v>0.63696031603805103</v>
       </c>
       <c r="P24">
-        <v>94.202992757161397</v>
+        <v>77.843435923258397</v>
       </c>
       <c r="Q24">
-        <v>94.192006429036397</v>
+        <v>77.822463353474902</v>
       </c>
       <c r="R24">
-        <v>72.017903010050404</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="S24">
-        <v>72.017903010050404</v>
+        <v>55.011365254719998</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>400.48747253417901</v>
+        <v>0.20602925618489501</v>
       </c>
       <c r="V24">
-        <v>265.19519805908197</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>265.19519805908197</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>42784.783958333333</v>
+        <v>42787.736539351848</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -26588,46 +29504,46 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I25">
-        <v>167.17022705078099</v>
+        <v>22.9244384765625</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>350.46481599999998</v>
+        <v>107.527756</v>
       </c>
       <c r="L25">
-        <v>8512.1674330000005</v>
+        <v>6725.0042616666597</v>
       </c>
       <c r="M25">
-        <v>544.02800000000002</v>
+        <v>5997.8413333333301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>35.431200011764098</v>
+        <v>0.93403962658939399</v>
       </c>
       <c r="P25">
-        <v>3.9409990310668901</v>
+        <v>70.914009412129701</v>
       </c>
       <c r="Q25">
-        <v>3.9409732818603498</v>
+        <v>70.892950057983299</v>
       </c>
       <c r="R25">
-        <v>2.8173666000366202</v>
+        <v>48.7825819651285</v>
       </c>
       <c r="S25">
-        <v>2.8173666000366202</v>
+        <v>48.7825819651285</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.173919677734375</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -26639,15 +29555,15 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>42789.43954861111</v>
+        <v>42787.73978009259</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -26665,46 +29581,46 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I26">
-        <v>22.9244384765625</v>
+        <v>106.144165039062</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>186.21902600000001</v>
+        <v>105.683145</v>
       </c>
       <c r="L26">
-        <v>7029.6341725000002</v>
+        <v>952.86751000000004</v>
       </c>
       <c r="M26">
-        <v>6332.44516666666</v>
+        <v>887.55600000000004</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>5.4177522787324897</v>
+        <v>7.8643718312942396E-2</v>
       </c>
       <c r="P26">
-        <v>77.959028561909903</v>
+        <v>14.484203338623001</v>
       </c>
       <c r="Q26">
-        <v>77.937969207763601</v>
+        <v>14.490001678466699</v>
       </c>
       <c r="R26">
-        <v>55.0187228520711</v>
+        <v>12.5806818008422</v>
       </c>
       <c r="S26">
-        <v>55.0187228520711</v>
+        <v>12.5806818008422</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0.228446960449218</v>
+        <v>0.176841735839843</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -26716,81 +29632,84 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>42788.053298611114</v>
+        <v>42789.136192129627</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="I27">
+        <v>106.144165039062</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>465.22402</v>
+        <v>42.603375</v>
       </c>
       <c r="L27">
-        <v>28178.655749333298</v>
+        <v>374.77598</v>
       </c>
       <c r="M27">
-        <v>6212.9743333333299</v>
+        <v>154.77600000000001</v>
       </c>
       <c r="N27">
-        <v>19960.1694756666</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>9.3943611738931008</v>
+        <v>2.5584166301048102E-2</v>
       </c>
       <c r="P27">
-        <v>94.600376447041796</v>
+        <v>0.45336341857910101</v>
       </c>
       <c r="Q27">
-        <v>94.589071909586494</v>
+        <v>0.458465576171875</v>
       </c>
       <c r="R27">
-        <v>72.056024233500096</v>
+        <v>6.4300537109375E-2</v>
       </c>
       <c r="S27">
-        <v>72.056024233500096</v>
+        <v>6.4300537109375E-2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>400.516807556152</v>
+        <v>0.243545532226562</v>
       </c>
       <c r="V27">
-        <v>265.194445292154</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>265.194445292154</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>42784.716446759259</v>
+        <v>42789.175682870373</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -26798,7 +29717,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -26825,37 +29744,37 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>296.25350100000003</v>
+        <v>386.669421</v>
       </c>
       <c r="L28">
-        <v>769.96675400000004</v>
+        <v>2464.613167</v>
       </c>
       <c r="M28">
-        <v>107.383</v>
+        <v>1594.0920000000001</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>386.23888455342001</v>
+        <v>3.2719225060012701E-2</v>
       </c>
       <c r="P28">
-        <v>0.2982177734375</v>
+        <v>21.135057449340799</v>
       </c>
       <c r="Q28">
-        <v>0.30078125</v>
+        <v>21.135057449340799</v>
       </c>
       <c r="R28">
-        <v>5.8509826660156201E-2</v>
+        <v>18.709559440612701</v>
       </c>
       <c r="S28">
-        <v>5.8509826660156201E-2</v>
+        <v>18.709559440612701</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.552154541015625</v>
+        <v>0.401824951171875</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -26867,163 +29786,169 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>42789.180601851855</v>
+        <v>42789.175949074073</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="I29">
+        <v>106.144165039062</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>503.06830300000001</v>
+        <v>277.14302900000001</v>
       </c>
       <c r="L29">
-        <v>13995.753981666599</v>
+        <v>2616.0932400000002</v>
       </c>
       <c r="M29">
-        <v>4639.8729999999996</v>
+        <v>2096.884</v>
       </c>
       <c r="N29">
-        <v>9232.9647433333303</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>9.14843960942558</v>
+        <v>5.7318724219055997E-2</v>
       </c>
       <c r="P29">
-        <v>77.941977183023994</v>
+        <v>29.523582458496001</v>
       </c>
       <c r="Q29">
-        <v>77.920916239420507</v>
+        <v>29.523582458496001</v>
       </c>
       <c r="R29">
-        <v>55.047109921773199</v>
+        <v>24.944952011108299</v>
       </c>
       <c r="S29">
-        <v>55.047109921773199</v>
+        <v>24.944952011108299</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>332.68564860025998</v>
+        <v>1.1383056640625E-2</v>
       </c>
       <c r="V29">
-        <v>265.04661305745401</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>265.04661305745401</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>42786.952881944446</v>
+        <v>42789.180578703701</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="I30">
+        <v>106.144165039062</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>637.14902099999995</v>
+        <v>296.25350100000003</v>
       </c>
       <c r="L30">
-        <v>17015.974250999901</v>
+        <v>769.96675400000004</v>
       </c>
       <c r="M30">
-        <v>5659.6980000000003</v>
+        <v>107.383</v>
       </c>
       <c r="N30">
-        <v>10990.511570333299</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>8.2777348951934702</v>
+        <v>2.5890712716722499E-3</v>
       </c>
       <c r="P30">
-        <v>65.388576825459694</v>
+        <v>0.2982177734375</v>
       </c>
       <c r="Q30">
-        <v>64.960927645365302</v>
+        <v>0.30078125</v>
       </c>
       <c r="R30">
-        <v>45.709805170694899</v>
+        <v>5.8509826660156201E-2</v>
       </c>
       <c r="S30">
-        <v>46.028480211893701</v>
+        <v>5.8509826660156201E-2</v>
       </c>
       <c r="T30">
-        <v>8.2486979166666607</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>332.65692138671801</v>
+        <v>0.552154541015625</v>
       </c>
       <c r="V30">
-        <v>283.27962748209598</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>274.13617451985601</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>9.1434529622395804</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>42784.697199074071</v>
+        <v>42789.180601851855</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -27041,137 +29966,140 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31">
-        <v>71.3599853515625</v>
+        <v>106.144165039062</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K31">
-        <v>166.75605200000001</v>
+        <v>435.03724899999997</v>
       </c>
       <c r="L31">
-        <v>5161.6220366666603</v>
+        <v>18547.917895999999</v>
       </c>
       <c r="M31">
-        <v>4646.2849999999999</v>
+        <v>6104.86</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>858.08645999999999</v>
       </c>
       <c r="O31">
-        <v>4.2951680913126804</v>
+        <v>7.5810112932272397E-2</v>
       </c>
       <c r="P31">
-        <v>77.765992482503194</v>
+        <v>66.812381744384695</v>
       </c>
       <c r="Q31">
-        <v>77.745033264160099</v>
+        <v>67.487023353576603</v>
       </c>
       <c r="R31">
-        <v>55.008593559265101</v>
+        <v>65.231966972351003</v>
       </c>
       <c r="S31">
-        <v>55.008593559265101</v>
+        <v>71.856028556823702</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>10.845703125</v>
       </c>
       <c r="U31">
-        <v>0.21638743082682199</v>
+        <v>0.46734619140625</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>43.148643493652301</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>21.556938171386701</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>21.5917053222656</v>
       </c>
       <c r="Y31" s="1">
-        <v>42787.730520833335</v>
+        <v>42789.184166666666</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="I32">
+        <v>106.144165039062</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K32">
-        <v>493.92523899999998</v>
+        <v>435.03724899999997</v>
       </c>
       <c r="L32">
-        <v>14831.6170903333</v>
+        <v>18547.917895999999</v>
       </c>
       <c r="M32">
-        <v>5481.7956666666596</v>
+        <v>6104.86</v>
       </c>
       <c r="N32">
-        <v>9094.0929083333303</v>
+        <v>858.08645999999999</v>
       </c>
       <c r="O32">
-        <v>5.9677286855080602</v>
+        <v>3.9628013578233298E-2</v>
       </c>
       <c r="P32">
-        <v>77.8430840174357</v>
+        <v>66.812381744384695</v>
       </c>
       <c r="Q32">
-        <v>77.830028216044099</v>
+        <v>67.487023353576603</v>
       </c>
       <c r="R32">
-        <v>57.5911620457967</v>
+        <v>65.231966972351003</v>
       </c>
       <c r="S32">
-        <v>57.5911620457967</v>
+        <v>71.856028556823702</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>10.845703125</v>
       </c>
       <c r="U32">
-        <v>332.65002950032499</v>
+        <v>0.46734619140625</v>
       </c>
       <c r="V32">
-        <v>264.98820241292299</v>
+        <v>43.148643493652301</v>
       </c>
       <c r="W32" s="1">
-        <v>264.98820241292299</v>
+        <v>21.556938171386701</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>21.5917053222656</v>
       </c>
       <c r="Y32" s="1">
-        <v>42784.831423611111</v>
+        <v>42789.184166666666</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -27198,40 +30126,40 @@
         <v>106.144165039062</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>152.724343</v>
+        <v>4.1330249999999999</v>
       </c>
       <c r="L33">
-        <v>3880.48311266666</v>
+        <v>53.989896999999999</v>
       </c>
       <c r="M33">
-        <v>3554.3090000000002</v>
+        <v>54.613</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>4.75882818755671</v>
+        <v>0.20328935827874201</v>
       </c>
       <c r="P33">
-        <v>77.876490910847906</v>
+        <v>0.19708251953125</v>
       </c>
       <c r="Q33">
-        <v>77.855486234029101</v>
+        <v>0.199981689453125</v>
       </c>
       <c r="R33">
-        <v>55.063335736592599</v>
+        <v>5.9710502624511698E-2</v>
       </c>
       <c r="S33">
-        <v>55.063335736592599</v>
+        <v>5.9710502624511698E-2</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.2149658203125</v>
+        <v>4.6012878417968701E-2</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -27243,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>42787.724999999999</v>
+        <v>42789.439375000002</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -27251,7 +30179,7 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -27269,46 +30197,46 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I34">
-        <v>106.144165039062</v>
+        <v>167.17022705078099</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>60.930115000000001</v>
+        <v>350.46481599999998</v>
       </c>
       <c r="L34">
-        <v>361.13536099999999</v>
+        <v>8512.1674330000005</v>
       </c>
       <c r="M34">
-        <v>356.96499999999997</v>
+        <v>544.02800000000002</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>5.2913690838037297</v>
+        <v>2.8223712424867702E-2</v>
       </c>
       <c r="P34">
-        <v>7.3808956146240199</v>
+        <v>3.9409990310668901</v>
       </c>
       <c r="Q34">
-        <v>7.3808956146240199</v>
+        <v>3.9409732818603498</v>
       </c>
       <c r="R34">
-        <v>6.2362079620361301</v>
+        <v>2.8173666000366202</v>
       </c>
       <c r="S34">
-        <v>6.2362079620361301</v>
+        <v>2.8173666000366202</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>2.7137756347656201E-2</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -27320,7 +30248,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>42789.439606481479</v>
+        <v>42789.43954861111</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -27328,7 +30256,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
@@ -27352,40 +30280,40 @@
         <v>106.144165039062</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>105.683145</v>
+        <v>60.930115000000001</v>
       </c>
       <c r="L35">
-        <v>952.86751000000004</v>
+        <v>361.13536099999999</v>
       </c>
       <c r="M35">
-        <v>887.55600000000004</v>
+        <v>356.96499999999997</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>13.3142738279703</v>
+        <v>0.18898700585088299</v>
       </c>
       <c r="P35">
-        <v>14.484203338623001</v>
+        <v>7.3808956146240199</v>
       </c>
       <c r="Q35">
-        <v>14.490001678466699</v>
+        <v>7.3808956146240199</v>
       </c>
       <c r="R35">
-        <v>12.5806818008422</v>
+        <v>6.2362079620361301</v>
       </c>
       <c r="S35">
-        <v>12.5806818008422</v>
+        <v>6.2362079620361301</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0.176841735839843</v>
+        <v>2.7137756347656201E-2</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -27397,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>42789.136192129627</v>
+        <v>42789.439606481479</v>
       </c>
     </row>
   </sheetData>
@@ -27408,11 +30336,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -53785,69 +56713,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="5">
-        <v>637.14902099999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5">
-        <v>493.33712600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="5">
-        <v>188.74859799999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="5">
-        <v>152.724343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1471.9590880000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
+++ b/Kirby/Excel Files/Capstone Resource Usage Analytics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand.AUTH\Documents\GitHub\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirbsand\Documents\Group-13-HP-Big-Data-Analytics\Kirby\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="6915" tabRatio="895" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9096" windowHeight="6912" tabRatio="895" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="PGA_PER_RUN" sheetId="2" r:id="rId1"/>
@@ -61,10 +61,10 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="59" r:id="rId20"/>
-    <pivotCache cacheId="52" r:id="rId21"/>
-    <pivotCache cacheId="55" r:id="rId22"/>
-    <pivotCache cacheId="58" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
+    <pivotCache cacheId="2" r:id="rId22"/>
+    <pivotCache cacheId="3" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -695,11 +695,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="2117854016"/>
-        <c:axId val="2117850208"/>
+        <c:axId val="202237112"/>
+        <c:axId val="202237504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117854016"/>
+        <c:axId val="202237112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117850208"/>
+        <c:crossAx val="202237504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117850208"/>
+        <c:axId val="202237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117854016"/>
+        <c:crossAx val="202237112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,8 +1200,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="2117847488"/>
-        <c:axId val="2117846944"/>
+        <c:axId val="202239464"/>
+        <c:axId val="202239072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1340,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117844224"/>
-        <c:axId val="2117839872"/>
+        <c:axId val="202238288"/>
+        <c:axId val="202238680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117844224"/>
+        <c:axId val="202238288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117839872"/>
+        <c:crossAx val="202238680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117839872"/>
+        <c:axId val="202238680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,12 +1501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117844224"/>
+        <c:crossAx val="202238288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117846944"/>
+        <c:axId val="202239072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,12 +1598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117847488"/>
+        <c:crossAx val="202239464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2117847488"/>
+        <c:axId val="202239464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117846944"/>
+        <c:crossAx val="202239072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,11 +1838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="2117849664"/>
-        <c:axId val="2068781968"/>
+        <c:axId val="202240248"/>
+        <c:axId val="202240640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117849664"/>
+        <c:axId val="202240248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068781968"/>
+        <c:crossAx val="202240640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1893,7 +1893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068781968"/>
+        <c:axId val="202240640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117849664"/>
+        <c:crossAx val="202240248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2484,8 +2484,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="160926096"/>
-        <c:axId val="160936432"/>
+        <c:axId val="202242600"/>
+        <c:axId val="202242208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2624,11 +2624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160935344"/>
-        <c:axId val="160925552"/>
+        <c:axId val="202241424"/>
+        <c:axId val="202241816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160935344"/>
+        <c:axId val="202241424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160925552"/>
+        <c:crossAx val="202241816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2679,7 +2679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160925552"/>
+        <c:axId val="202241816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,12 +2785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160935344"/>
+        <c:crossAx val="202241424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160936432"/>
+        <c:axId val="202242208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2883,12 +2883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160926096"/>
+        <c:crossAx val="202242600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160926096"/>
+        <c:axId val="202242600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,7 +2898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160936432"/>
+        <c:crossAx val="202242208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3268,8 +3268,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="160931536"/>
-        <c:axId val="160930992"/>
+        <c:axId val="202670216"/>
+        <c:axId val="202669824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3387,11 +3387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160937520"/>
-        <c:axId val="160934256"/>
+        <c:axId val="202669040"/>
+        <c:axId val="202669432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160937520"/>
+        <c:axId val="202669040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160934256"/>
+        <c:crossAx val="202669432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +3442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160934256"/>
+        <c:axId val="202669432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,12 +3548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160937520"/>
+        <c:crossAx val="202669040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160930992"/>
+        <c:axId val="202669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3646,12 +3646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160931536"/>
+        <c:crossAx val="202670216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160931536"/>
+        <c:axId val="202670216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160930992"/>
+        <c:crossAx val="202669824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,8 +4000,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160939152"/>
-        <c:axId val="160938608"/>
+        <c:axId val="202672568"/>
+        <c:axId val="202672176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4109,11 +4109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160938064"/>
-        <c:axId val="160927184"/>
+        <c:axId val="202671392"/>
+        <c:axId val="202671784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160938064"/>
+        <c:axId val="202671392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160927184"/>
+        <c:crossAx val="202671784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4164,7 +4164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160927184"/>
+        <c:axId val="202671784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,12 +4270,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160938064"/>
+        <c:crossAx val="202671392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160938608"/>
+        <c:axId val="202672176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -4368,12 +4368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160939152"/>
+        <c:crossAx val="202672568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160939152"/>
+        <c:axId val="202672568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160938608"/>
+        <c:crossAx val="202672176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4770,11 +4770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160940240"/>
-        <c:axId val="160940784"/>
+        <c:axId val="202243776"/>
+        <c:axId val="202243384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160940240"/>
+        <c:axId val="202243776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160940784"/>
+        <c:crossAx val="202243384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4825,7 +4825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160940784"/>
+        <c:axId val="202243384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160940240"/>
+        <c:crossAx val="202243776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5267,11 +5267,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197197152"/>
-        <c:axId val="197198784"/>
+        <c:axId val="202673744"/>
+        <c:axId val="202674136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197197152"/>
+        <c:axId val="202673744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5314,7 +5314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197198784"/>
+        <c:crossAx val="202674136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5322,7 +5322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197198784"/>
+        <c:axId val="202674136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +5373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197197152"/>
+        <c:crossAx val="202673744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5490,7 +5490,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5503,8 +5503,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2600"/>
               <a:t>Statement Queuing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>(48 Jobs Per Batch)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5523,7 +5532,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5642,11 +5651,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197192800"/>
-        <c:axId val="197193344"/>
+        <c:axId val="202674920"/>
+        <c:axId val="202675312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197192800"/>
+        <c:axId val="202674920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +5683,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5689,7 +5698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197193344"/>
+        <c:crossAx val="202675312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5697,7 +5706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197193344"/>
+        <c:axId val="202675312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5717,6 +5726,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Batch Run Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5733,7 +5798,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5748,7 +5813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197192800"/>
+        <c:crossAx val="202674920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5760,38 +5825,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5827,8 +5860,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -10770,7 +10801,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10812,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11526,8 +11557,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="MODULE 6"/>
@@ -11544,7 +11575,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11592,7 +11623,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664907" cy="6290765"/>
+    <xdr:ext cx="8651631" cy="6271846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12415,7 +12446,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664907" cy="6290765"/>
+    <xdr:ext cx="8651631" cy="6271846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -23594,7 +23625,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -23762,7 +23793,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A1:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -23945,7 +23976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:C5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -24065,7 +24096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -24253,7 +24284,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -24383,7 +24414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
@@ -24523,7 +24554,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField axis="axisRow" showAll="0">
@@ -24751,7 +24782,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField axis="axisRow" showAll="0">
@@ -24836,7 +24867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -25847,17 +25878,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -25865,7 +25896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -25876,7 +25907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -25887,7 +25918,7 @@
         <v>363.67386577777773</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
@@ -25898,7 +25929,7 @@
         <v>466.18948</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
@@ -25909,7 +25940,7 @@
         <v>316.05322566666661</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
@@ -25920,7 +25951,7 @@
         <v>308.77889166666665</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -25931,7 +25962,7 @@
         <v>221.28703322222225</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -25942,7 +25973,7 @@
         <v>286.71627866666671</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>75</v>
       </c>
@@ -25953,7 +25984,7 @@
         <v>185.68426700000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
@@ -25964,7 +25995,7 @@
         <v>191.460554</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -25975,7 +26006,7 @@
         <v>193.48029788888891</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
@@ -25986,7 +26017,7 @@
         <v>193.07136399999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
@@ -25997,7 +26028,7 @@
         <v>191.57594933333334</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
@@ -26008,7 +26039,7 @@
         <v>195.79358033333335</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -26038,13 +26069,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -26052,7 +26083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -26060,7 +26091,7 @@
         <v>637.14902099999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -26068,7 +26099,7 @@
         <v>493.33712600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -26076,7 +26107,7 @@
         <v>188.74859799999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
@@ -26084,7 +26115,7 @@
         <v>152.724343</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -26105,36 +26136,36 @@
       <selection sqref="A1:Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" customWidth="1"/>
-    <col min="19" max="19" width="31.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.5546875" customWidth="1"/>
+    <col min="19" max="19" width="31.6640625" customWidth="1"/>
     <col min="20" max="20" width="29" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="21" max="21" width="26.33203125" customWidth="1"/>
+    <col min="22" max="22" width="25.44140625" customWidth="1"/>
     <col min="23" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="27.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1"/>
-    <col min="26" max="26" width="23.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.44140625" customWidth="1"/>
+    <col min="25" max="25" width="28.44140625" customWidth="1"/>
+    <col min="26" max="26" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -26214,7 +26245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -26291,7 +26322,7 @@
         <v>42784.697199074071</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -26368,7 +26399,7 @@
         <v>42784.764618055553</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -26445,7 +26476,7 @@
         <v>42787.082557870373</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -26537,17 +26568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -26555,7 +26586,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
@@ -26563,7 +26594,7 @@
         <v>8031.5235830000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
@@ -26571,7 +26602,7 @@
         <v>1237.396626</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -26592,14 +26623,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26610,7 +26641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -26621,7 +26652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -26648,17 +26679,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -26669,7 +26700,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -26680,7 +26711,7 @@
         <v>258.7979888916006</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -26691,7 +26722,7 @@
         <v>101.60397338867099</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -26702,7 +26733,7 @@
         <v>78.597007751464801</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -26713,7 +26744,7 @@
         <v>78.597007751464801</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -26724,7 +26755,7 @@
         <v>99.950057983398395</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -26735,7 +26766,7 @@
         <v>99.950057983398395</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -26746,7 +26777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -26757,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -26768,7 +26799,7 @@
         <v>100.292587280273</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -26779,7 +26810,7 @@
         <v>100.292587280273</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -26790,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -26801,7 +26832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -26833,17 +26864,17 @@
       <selection activeCell="Q19" sqref="P19:Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -26851,7 +26882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -26862,7 +26893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -26873,7 +26904,7 @@
         <v>71.529156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -26884,7 +26915,7 @@
         <v>12.620170999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -26916,15 +26947,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -26938,7 +26969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -26952,7 +26983,7 @@
         <v>33.766276041666593</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -26966,7 +26997,7 @@
         <v>20.3639322916666</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -26980,7 +27011,7 @@
         <v>6.7086588541666599</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
@@ -26994,7 +27025,7 @@
         <v>6.6936848958333304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -27008,7 +27039,7 @@
         <v>8.2486979166666607</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -27022,7 +27053,7 @@
         <v>8.2486979166666607</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>75</v>
       </c>
@@ -27036,7 +27067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -27050,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -27064,7 +27095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -27078,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -27092,7 +27123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -27106,7 +27137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -27141,14 +27172,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -27159,7 +27190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -27170,7 +27201,7 @@
         <v>795.47201283772711</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -27181,7 +27212,7 @@
         <v>265.04661305745401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -27192,7 +27223,7 @@
         <v>265.07757314046199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -27203,7 +27234,7 @@
         <v>265.34782663981099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -27214,7 +27245,7 @@
         <v>375.26234181721929</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -27225,7 +27256,7 @@
         <v>229.852821350097</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -27236,7 +27267,7 @@
         <v>90.085070292154896</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -27247,7 +27278,7 @@
         <v>55.324450174967403</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -27279,14 +27310,14 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -27297,7 +27328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -27308,7 +27339,7 @@
         <v>167.17022705078099</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -27319,7 +27350,7 @@
         <v>107.61846923828099</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -27330,7 +27361,7 @@
         <v>106.144165039062</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -27341,7 +27372,7 @@
         <v>71.3599853515625</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -27352,7 +27383,7 @@
         <v>50.7945556640625</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -27363,7 +27394,7 @@
         <v>22.9244384765625</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -27374,7 +27405,7 @@
         <v>87.668640136718579</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10">
         <f>1-GETPIVOTDATA("In Memory Size (GB)",$A$1,"INMEMORY_COMPRESSION","FOR QUERY LOW")/GETPIVOTDATA("In Memory Size (GB)",$A$1,"INMEMORY_COMPRESSION","NO MEMCOMPRESS")</f>
         <v>0.36505341344772602</v>
@@ -27397,17 +27428,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -27415,7 +27446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -27423,7 +27454,7 @@
         <v>0.22337296010512966</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>42784.671180555553</v>
       </c>
@@ -27431,7 +27462,7 @@
         <v>0.20780384008904099</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>42784.697199074071</v>
       </c>
@@ -27439,7 +27470,7 @@
         <v>0.234238289406619</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>42784.716446759259</v>
       </c>
@@ -27447,7 +27478,7 @@
         <v>0.15712820811538999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>42784.744120370371</v>
       </c>
@@ -27455,7 +27486,7 @@
         <v>0.244849341636176</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>42784.764618055553</v>
       </c>
@@ -27463,7 +27494,7 @@
         <v>0.275125393618258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>42784.783958333333</v>
       </c>
@@ -27471,7 +27502,7 @@
         <v>0.19353204490855999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>42784.810844907406</v>
       </c>
@@ -27479,7 +27510,7 @@
         <v>0.25266590807558098</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>42784.831423611111</v>
       </c>
@@ -27487,7 +27518,7 @@
         <v>0.26477991806519502</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42784.850914351853</v>
       </c>
@@ -27495,7 +27526,7 @@
         <v>0.18023369703134701</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -27503,7 +27534,7 @@
         <v>0.28507176665950495</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>42786.952881944446</v>
       </c>
@@ -27511,7 +27542,7 @@
         <v>0.157934938766046</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>42786.983483796299</v>
       </c>
@@ -27519,7 +27550,7 @@
         <v>0.12872739254320301</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42787.017928240741</v>
       </c>
@@ -27527,7 +27558,7 @@
         <v>0.111366319436062</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>42787.044340277775</v>
       </c>
@@ -27535,7 +27566,7 @@
         <v>0.122061793913435</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>42787.067106481481</v>
       </c>
@@ -27543,7 +27574,7 @@
         <v>0.40542358290619201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>42787.082557870373</v>
       </c>
@@ -27551,7 +27582,7 @@
         <v>0.468955472243203</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>42787.102870370371</v>
       </c>
@@ -27559,7 +27590,7 @@
         <v>0.15540076448357401</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>42787.120138888888</v>
       </c>
@@ -27567,7 +27598,7 @@
         <v>0.43561637631280897</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>42787.166307870371</v>
       </c>
@@ -27575,7 +27606,7 @@
         <v>0.58015925933102097</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -27583,7 +27614,7 @@
         <v>0.61255442040845287</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>42787.712083333332</v>
       </c>
@@ -27591,7 +27622,7 @@
         <v>0.37788490081870502</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>42787.718472222223</v>
       </c>
@@ -27599,7 +27630,7 @@
         <v>0.44501958748028703</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>42787.724999999999</v>
       </c>
@@ -27607,7 +27638,7 @@
         <v>0.65812041843439495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>42787.730520833335</v>
       </c>
@@ -27615,7 +27646,7 @@
         <v>0.62330167308988504</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>42787.736539351848</v>
       </c>
@@ -27623,7 +27654,7 @@
         <v>0.63696031603805103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>42787.73978009259</v>
       </c>
@@ -27631,7 +27662,7 @@
         <v>0.93403962658939399</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -27660,34 +27691,34 @@
       <selection activeCell="A16" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="19" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="25.44140625" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" customWidth="1"/>
+    <col min="22" max="22" width="28.44140625" customWidth="1"/>
+    <col min="23" max="23" width="23.44140625" customWidth="1"/>
     <col min="25" max="25" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27764,7 +27795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -27838,7 +27869,7 @@
         <v>42784.671180555553</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -27912,7 +27943,7 @@
         <v>42784.697199074071</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -27986,7 +28017,7 @@
         <v>42784.716446759259</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -28060,7 +28091,7 @@
         <v>42784.744120370371</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -28134,7 +28165,7 @@
         <v>42784.764618055553</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -28208,7 +28239,7 @@
         <v>42784.783958333333</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -28282,7 +28313,7 @@
         <v>42784.810844907406</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -28356,7 +28387,7 @@
         <v>42784.831423611111</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -28430,7 +28461,7 @@
         <v>42784.850914351853</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -28504,7 +28535,7 @@
         <v>42786.952881944446</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -28578,7 +28609,7 @@
         <v>42786.983483796299</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -28652,7 +28683,7 @@
         <v>42787.017928240741</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -28726,7 +28757,7 @@
         <v>42787.044340277775</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -28800,7 +28831,7 @@
         <v>42787.067106481481</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -28874,7 +28905,7 @@
         <v>42787.082557870373</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -28948,7 +28979,7 @@
         <v>42787.102870370371</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -29022,7 +29053,7 @@
         <v>42787.120138888888</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -29096,7 +29127,7 @@
         <v>42787.166307870371</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -29173,7 +29204,7 @@
         <v>42787.712083333332</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -29250,7 +29281,7 @@
         <v>42787.718472222223</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -29327,7 +29358,7 @@
         <v>42787.724999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -29404,7 +29435,7 @@
         <v>42787.730520833335</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -29481,7 +29512,7 @@
         <v>42787.736539351848</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -29558,7 +29589,7 @@
         <v>42787.73978009259</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -29635,7 +29666,7 @@
         <v>42789.136192129627</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -29712,7 +29743,7 @@
         <v>42789.175682870373</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -29789,7 +29820,7 @@
         <v>42789.175949074073</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -29866,7 +29897,7 @@
         <v>42789.180578703701</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -29943,7 +29974,7 @@
         <v>42789.180601851855</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -30020,7 +30051,7 @@
         <v>42789.184166666666</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -30097,7 +30128,7 @@
         <v>42789.184166666666</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -30174,7 +30205,7 @@
         <v>42789.439375000002</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -30251,7 +30282,7 @@
         <v>42789.43954861111</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -30344,36 +30375,36 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30450,7 +30481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -30527,7 +30558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -30604,7 +30635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -30681,7 +30712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -30758,7 +30789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -30835,7 +30866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -30912,7 +30943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -30989,7 +31020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -31066,7 +31097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -31143,7 +31174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -31220,7 +31251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -31297,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -31374,7 +31405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -31451,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -31528,7 +31559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -31605,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -31682,7 +31713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -31759,7 +31790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -31836,7 +31867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -31913,7 +31944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -31990,7 +32021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -32067,7 +32098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -32144,7 +32175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -32221,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -32298,7 +32329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -32375,7 +32406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -32452,7 +32483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -32529,7 +32560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -32606,7 +32637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -32683,7 +32714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -32760,7 +32791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -32837,7 +32868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -32914,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -32991,7 +33022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -33068,7 +33099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -33145,7 +33176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -33222,7 +33253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -33299,7 +33330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -33376,7 +33407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -33453,7 +33484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -33530,7 +33561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -33607,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -33684,7 +33715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -33761,7 +33792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -33838,7 +33869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -33915,7 +33946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -33992,7 +34023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -34069,7 +34100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -34146,7 +34177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -34223,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -34300,7 +34331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -34377,7 +34408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -34454,7 +34485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -34531,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -34608,7 +34639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -34685,7 +34716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -34762,7 +34793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -34839,7 +34870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -34916,7 +34947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -34993,7 +35024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -35070,7 +35101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -35147,7 +35178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -35224,7 +35255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -35301,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -35378,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -35455,7 +35486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -35532,7 +35563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -35609,7 +35640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -35686,7 +35717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -35763,7 +35794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -35840,7 +35871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -35917,7 +35948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -35994,7 +36025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -36071,7 +36102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -36148,7 +36179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -36225,7 +36256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -36302,7 +36333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -36379,7 +36410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -36456,7 +36487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -36533,7 +36564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -36610,7 +36641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -36687,7 +36718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -36764,7 +36795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -36841,7 +36872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -36918,7 +36949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -36995,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -37072,7 +37103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -37149,7 +37180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -37226,7 +37257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -37303,7 +37334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -37380,7 +37411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -37457,7 +37488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -37534,7 +37565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -37611,7 +37642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -37688,7 +37719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -37765,7 +37796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -37842,7 +37873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -37919,7 +37950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -37996,7 +38027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -38073,7 +38104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -38150,7 +38181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -38227,7 +38258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -38304,7 +38335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -38381,7 +38412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -38458,7 +38489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -38535,7 +38566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -38612,7 +38643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -38689,7 +38720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -38766,7 +38797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -38843,7 +38874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -38920,7 +38951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -38997,7 +39028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -39074,7 +39105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -39151,7 +39182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -39228,7 +39259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -39305,7 +39336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -39382,7 +39413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -39459,7 +39490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -39536,7 +39567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -39613,7 +39644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -39690,7 +39721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -39767,7 +39798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -39844,7 +39875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -39921,7 +39952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -39998,7 +40029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -40075,7 +40106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -40152,7 +40183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -40229,7 +40260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -40306,7 +40337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -40383,7 +40414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -40460,7 +40491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -40537,7 +40568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -40614,7 +40645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -40691,7 +40722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -40768,7 +40799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -40845,7 +40876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -40922,7 +40953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -40999,7 +41030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -41076,7 +41107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>43</v>
       </c>
@@ -41153,7 +41184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -41230,7 +41261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -41307,7 +41338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -41384,7 +41415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -41461,7 +41492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -41538,7 +41569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>43</v>
       </c>
@@ -41615,7 +41646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>43</v>
       </c>
@@ -41692,7 +41723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -41769,7 +41800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>43</v>
       </c>
@@ -41846,7 +41877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -41923,7 +41954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>43</v>
       </c>
@@ -42000,7 +42031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>43</v>
       </c>
@@ -42077,7 +42108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>43</v>
       </c>
@@ -42154,7 +42185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -42231,7 +42262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>43</v>
       </c>
@@ -42308,7 +42339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>43</v>
       </c>
@@ -42385,7 +42416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>43</v>
       </c>
@@ -42462,7 +42493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -42539,7 +42570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -42616,7 +42647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>43</v>
       </c>
@@ -42693,7 +42724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -42770,7 +42801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -42847,7 +42878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -42924,7 +42955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -43001,7 +43032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -43078,7 +43109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>43</v>
       </c>
@@ -43155,7 +43186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -43232,7 +43263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -43309,7 +43340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -43386,7 +43417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>43</v>
       </c>
@@ -43463,7 +43494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -43540,7 +43571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -43617,7 +43648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -43694,7 +43725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>43</v>
       </c>
@@ -43771,7 +43802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>43</v>
       </c>
@@ -43848,7 +43879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -43925,7 +43956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -44002,7 +44033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -44079,7 +44110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -44156,7 +44187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -44233,7 +44264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -44310,7 +44341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -44387,7 +44418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -44464,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -44541,7 +44572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -44618,7 +44649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -44695,7 +44726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -44772,7 +44803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -44849,7 +44880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -44926,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -45003,7 +45034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>43</v>
       </c>
@@ -45080,7 +45111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>43</v>
       </c>
@@ -45157,7 +45188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>43</v>
       </c>
@@ -45234,7 +45265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -45311,7 +45342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -45388,7 +45419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -45465,7 +45496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -45542,7 +45573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -45619,7 +45650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -45696,7 +45727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -45773,7 +45804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -45850,7 +45881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -45927,7 +45958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -46004,7 +46035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -46081,7 +46112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -46158,7 +46189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -46235,7 +46266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -46312,7 +46343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -46389,7 +46420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -46466,7 +46497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -46543,7 +46574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -46620,7 +46651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -46697,7 +46728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -46774,7 +46805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -46851,7 +46882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -46928,7 +46959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -47005,7 +47036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -47082,7 +47113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -47159,7 +47190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -47236,7 +47267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -47313,7 +47344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -47390,7 +47421,7 @@
         <v>4.5464706420898402</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -47467,7 +47498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -47544,7 +47575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -47621,7 +47652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -47698,7 +47729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -47775,7 +47806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -47852,7 +47883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -47929,7 +47960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -48006,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -48083,7 +48114,7 @@
         <v>2.2728805541992099</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -48160,7 +48191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -48237,7 +48268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>23</v>
       </c>
@@ -48314,7 +48345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -48391,7 +48422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -48468,7 +48499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -48545,7 +48576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -48622,7 +48653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -48699,7 +48730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -48776,7 +48807,7 @@
         <v>4.5464706420898402</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -48853,7 +48884,7 @@
         <v>2.2728805541992099</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -48930,7 +48961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -49007,7 +49038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -49084,7 +49115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -49161,7 +49192,7 @@
         <v>2.2728805541992099</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -49238,7 +49269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -49315,7 +49346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -49392,7 +49423,7 @@
         <v>4.5464706420898402</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -49469,7 +49500,7 @@
         <v>6.115234375</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -49546,7 +49577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>23</v>
       </c>
@@ -49623,7 +49654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -49700,7 +49731,7 @@
         <v>7.2150115966796804</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -49777,7 +49808,7 @@
         <v>6.58447265625</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -49854,7 +49885,7 @@
         <v>17.313095092773398</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -49931,7 +49962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -50008,7 +50039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -50085,7 +50116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -50162,7 +50193,7 @@
         <v>6.1315536499023402</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -50239,7 +50270,7 @@
         <v>6.58447265625</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -50316,7 +50347,7 @@
         <v>7.4427719116210902</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -50393,7 +50424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -50470,7 +50501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -50547,7 +50578,7 @@
         <v>17.9001159667968</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>23</v>
       </c>
@@ -50624,7 +50655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -50701,7 +50732,7 @@
         <v>17.313095092773398</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -50778,7 +50809,7 @@
         <v>7.2083892822265598</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -50855,7 +50886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -50932,7 +50963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -51009,7 +51040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>23</v>
       </c>
@@ -51086,7 +51117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -51163,7 +51194,7 @@
         <v>6.1315536499023402</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -51240,7 +51271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>23</v>
       </c>
@@ -51317,7 +51348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>23</v>
       </c>
@@ -51394,7 +51425,7 @@
         <v>6.1147613525390598</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -51471,7 +51502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -51548,7 +51579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -51625,7 +51656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -51702,7 +51733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -51779,7 +51810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -51856,7 +51887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -51933,7 +51964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -52010,7 +52041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>23</v>
       </c>
@@ -52087,7 +52118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>23</v>
       </c>
@@ -52164,7 +52195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -52241,7 +52272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -52318,7 +52349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -52395,7 +52426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -52472,7 +52503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -52549,7 +52580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -52626,7 +52657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -52703,7 +52734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -52780,7 +52811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>23</v>
       </c>
@@ -52857,7 +52888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>23</v>
       </c>
@@ -52934,7 +52965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>23</v>
       </c>
@@ -53011,7 +53042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -53088,7 +53119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -53165,7 +53196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -53242,7 +53273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -53319,7 +53350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -53396,7 +53427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -53473,7 +53504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -53550,7 +53581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>83</v>
       </c>
@@ -53627,7 +53658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>83</v>
       </c>
@@ -53704,7 +53735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>83</v>
       </c>
@@ -53781,7 +53812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>83</v>
       </c>
@@ -53858,7 +53889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>83</v>
       </c>
@@ -53935,7 +53966,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>83</v>
       </c>
@@ -54012,7 +54043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>83</v>
       </c>
@@ -54089,7 +54120,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>83</v>
       </c>
@@ -54166,7 +54197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>83</v>
       </c>
@@ -54243,7 +54274,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>83</v>
       </c>
@@ -54320,7 +54351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>83</v>
       </c>
@@ -54397,7 +54428,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>83</v>
       </c>
@@ -54474,7 +54505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>83</v>
       </c>
@@ -54551,7 +54582,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>83</v>
       </c>
@@ -54628,7 +54659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>83</v>
       </c>
@@ -54705,7 +54736,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>83</v>
       </c>
@@ -54782,7 +54813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>83</v>
       </c>
@@ -54859,7 +54890,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>83</v>
       </c>
@@ -54936,7 +54967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>83</v>
       </c>
@@ -55013,7 +55044,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>83</v>
       </c>
@@ -55090,7 +55121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>83</v>
       </c>
@@ -55167,7 +55198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>83</v>
       </c>
@@ -55244,7 +55275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>83</v>
       </c>
@@ -55321,7 +55352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>83</v>
       </c>
@@ -55398,7 +55429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>83</v>
       </c>
@@ -55475,7 +55506,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>83</v>
       </c>
@@ -55552,7 +55583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>83</v>
       </c>
@@ -55629,7 +55660,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>83</v>
       </c>
@@ -55706,7 +55737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>83</v>
       </c>
@@ -55783,7 +55814,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>83</v>
       </c>
@@ -55860,7 +55891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>83</v>
       </c>
@@ -55937,7 +55968,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>83</v>
       </c>
@@ -56014,7 +56045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>83</v>
       </c>
@@ -56091,7 +56122,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="335" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>83</v>
       </c>
@@ -56168,7 +56199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>83</v>
       </c>
@@ -56245,7 +56276,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>83</v>
       </c>
@@ -56322,7 +56353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>83</v>
       </c>
@@ -56399,7 +56430,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>83</v>
       </c>
@@ -56476,7 +56507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>83</v>
       </c>
@@ -56553,7 +56584,7 @@
         <v>21.5917053222656</v>
       </c>
     </row>
-    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>83</v>
       </c>
@@ -56630,7 +56661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>83</v>
       </c>
